--- a/AIOMFAC_Documents/List_of_AIOMFAC_Maingroups_and_Subgroups.xlsx
+++ b/AIOMFAC_Documents/List_of_AIOMFAC_Maingroups_and_Subgroups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\AIOMFAC_WebInterface\AIOMFAC-web_2.20\Additional_Files_For_GitHub_online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\AIOMFAC_WebInterface\AIOMFAC-web_2.21\Additional_Files_For_GitHub_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{367E9AC6-BE9A-4AD4-8EC4-71DE4E6B141A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556D42C4-FBD8-44E1-A74F-5D6AAA399CCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-210" windowWidth="17550" windowHeight="4815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="211">
   <si>
     <t>hydroxyl</t>
   </si>
@@ -130,78 +130,6 @@
     <t>aromatic carbon-alcohol</t>
   </si>
   <si>
-    <t>"(H+)"</t>
-  </si>
-  <si>
-    <t>"(Li+)"</t>
-  </si>
-  <si>
-    <t>"(K+)"</t>
-  </si>
-  <si>
-    <t>"(NH4+)"</t>
-  </si>
-  <si>
-    <t>"(Mg++)"</t>
-  </si>
-  <si>
-    <t>"(Ca++)"</t>
-  </si>
-  <si>
-    <t>"(Cl-)"</t>
-  </si>
-  <si>
-    <t>"(Br-)"</t>
-  </si>
-  <si>
-    <t>"(NO3-)"</t>
-  </si>
-  <si>
-    <t>"(HSO4-)"</t>
-  </si>
-  <si>
-    <t>"(SO4--)"</t>
-  </si>
-  <si>
-    <t>"(H$^+$)"</t>
-  </si>
-  <si>
-    <t>"(Li$^+$)"</t>
-  </si>
-  <si>
-    <t>"(Na+)"</t>
-  </si>
-  <si>
-    <t>"(Na$^+$)"</t>
-  </si>
-  <si>
-    <t>"(K$^+$)"</t>
-  </si>
-  <si>
-    <t>"(NH$_4$$^+$)"</t>
-  </si>
-  <si>
-    <t>"(Mg$^{2+}$)"</t>
-  </si>
-  <si>
-    <t>"(Ca$^{2+}$)"</t>
-  </si>
-  <si>
-    <t>"(Cl^-$)"</t>
-  </si>
-  <si>
-    <t>"(Br^-$)"</t>
-  </si>
-  <si>
-    <t>"(NO$_3$^-$)"</t>
-  </si>
-  <si>
-    <t>"(HSO$_4$^-$)"</t>
-  </si>
-  <si>
-    <t>"(SO$_4$^{2-}$)"</t>
-  </si>
-  <si>
     <t>[alc] = typical CHn in alcohols (only for use with "pure" alcohols, polyols); according to Marcolli and Peter (2005)</t>
   </si>
   <si>
@@ -572,12 +500,6 @@
   </si>
   <si>
     <t>CH3SO3-</t>
-  </si>
-  <si>
-    <t>"(CH3SO3-)"</t>
-  </si>
-  <si>
-    <t>(CH$_3$SO$_3$^-$)</t>
   </si>
   <si>
     <t>methanesulfonate anion</t>
@@ -649,12 +571,117 @@
   <si>
     <t>AIOMFAC main groups and subgroups as available in the AIOMFAC-web model (exceptions indicated)</t>
   </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>(H2O)</t>
+  </si>
+  <si>
+    <t>(H$_2$O)</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>(H+)</t>
+  </si>
+  <si>
+    <t>(H$^+$)</t>
+  </si>
+  <si>
+    <t>(Li+)</t>
+  </si>
+  <si>
+    <t>(Li$^+$)</t>
+  </si>
+  <si>
+    <t>(Na+)</t>
+  </si>
+  <si>
+    <t>(Na$^+$)</t>
+  </si>
+  <si>
+    <t>(K+)</t>
+  </si>
+  <si>
+    <t>(K$^+$)</t>
+  </si>
+  <si>
+    <t>(NH4+)</t>
+  </si>
+  <si>
+    <t>(NH$_4$$^+$)</t>
+  </si>
+  <si>
+    <t>(Mg++)</t>
+  </si>
+  <si>
+    <t>(Mg$^{2+}$)</t>
+  </si>
+  <si>
+    <t>(Ca++)</t>
+  </si>
+  <si>
+    <t>(Ca$^{2+}$)</t>
+  </si>
+  <si>
+    <t>(Cl-)</t>
+  </si>
+  <si>
+    <t>(Br-)</t>
+  </si>
+  <si>
+    <t>(NO3-)</t>
+  </si>
+  <si>
+    <t>(HSO4-)</t>
+  </si>
+  <si>
+    <t>(CH3SO3-)</t>
+  </si>
+  <si>
+    <t>(SO4--)</t>
+  </si>
+  <si>
+    <t>I-</t>
+  </si>
+  <si>
+    <t>(I-)</t>
+  </si>
+  <si>
+    <t>(I$^-$)</t>
+  </si>
+  <si>
+    <t>(Br$^-$)</t>
+  </si>
+  <si>
+    <t>(Cl$^-$)</t>
+  </si>
+  <si>
+    <t>(NO$_3$$^-$)</t>
+  </si>
+  <si>
+    <t>(HSO$_4$$^-$)</t>
+  </si>
+  <si>
+    <t>(SO$_4$$^{2-}$)</t>
+  </si>
+  <si>
+    <t>(CH$_3$SO$_3$$^-$)</t>
+  </si>
+  <si>
+    <t>iodide is not yet available within the web-version of AIOMFAC (to be added in future)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,13 +694,6 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -721,7 +741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,22 +789,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -911,21 +928,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -1013,128 +1015,139 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="hair">
+      <left style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1473,10 +1486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:UA95"/>
+  <dimension ref="A1:UA99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,17 +1505,17 @@
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:547" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+    <row r="1" spans="1:547" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="BN1"/>
       <c r="BO1"/>
       <c r="BP1"/>
@@ -1986,9 +1999,9 @@
       <c r="TZ1"/>
       <c r="UA1"/>
     </row>
-    <row r="2" spans="1:547" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>195</v>
+    <row r="2" spans="1:547" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="BN2"/>
       <c r="BO2"/>
@@ -2473,9 +2486,9 @@
       <c r="TZ2"/>
       <c r="UA2"/>
     </row>
-    <row r="3" spans="1:547" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>200</v>
+    <row r="3" spans="1:547" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="BN3"/>
       <c r="BO3"/>
@@ -2960,7 +2973,7 @@
       <c r="TZ3"/>
       <c r="UA3"/>
     </row>
-    <row r="4" spans="1:547" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:547" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BN4"/>
       <c r="BO4"/>
       <c r="BP4"/>
@@ -3445,1368 +3458,292 @@
       <c r="UA4"/>
     </row>
     <row r="5" spans="1:547" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:547" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="H5" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:547" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="59">
+        <v>7</v>
+      </c>
+      <c r="D7" s="60">
+        <v>16</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="1:547" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D9" s="49">
         <v>1</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="40">
+      <c r="E9" s="25"/>
+      <c r="F9" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="30">
         <v>2</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="40">
+      <c r="E10" s="25"/>
+      <c r="F10" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="30">
         <v>3</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="40">
+      <c r="E11" s="25"/>
+      <c r="F11" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="30">
         <v>4</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C13" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D13" s="31">
         <v>5</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="41">
+      <c r="E13" s="26"/>
+      <c r="F13" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="31">
         <v>6</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="41">
+      <c r="E14" s="26"/>
+      <c r="F14" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="31">
         <v>7</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="41">
+      <c r="E15" s="26"/>
+      <c r="F15" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="31">
         <v>8</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="41">
+      <c r="E16" s="26"/>
+      <c r="F16" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="31">
         <v>70</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C18" s="21">
         <v>3</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D18" s="30">
         <v>9</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="40">
+      <c r="E18" s="25"/>
+      <c r="F18" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="30">
         <v>10</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C20" s="23">
         <v>4</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D20" s="32">
         <v>11</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18"/>
-      <c r="BO18"/>
-      <c r="BP18"/>
-      <c r="BQ18"/>
-      <c r="BR18"/>
-      <c r="BS18"/>
-      <c r="BT18"/>
-      <c r="BU18"/>
-      <c r="BV18"/>
-      <c r="BW18"/>
-      <c r="BX18"/>
-      <c r="BY18"/>
-      <c r="BZ18"/>
-      <c r="CA18"/>
-      <c r="CB18"/>
-      <c r="CC18"/>
-      <c r="CD18"/>
-      <c r="CE18"/>
-      <c r="CF18"/>
-      <c r="CG18"/>
-      <c r="CH18"/>
-      <c r="CI18"/>
-      <c r="CJ18"/>
-      <c r="CK18"/>
-      <c r="CL18"/>
-      <c r="CM18"/>
-      <c r="CN18"/>
-      <c r="CO18"/>
-      <c r="CP18"/>
-      <c r="CQ18"/>
-      <c r="CR18"/>
-      <c r="CS18"/>
-      <c r="CT18"/>
-      <c r="CU18"/>
-      <c r="CV18"/>
-      <c r="CW18"/>
-      <c r="CX18"/>
-      <c r="CY18"/>
-      <c r="CZ18"/>
-      <c r="DA18"/>
-      <c r="DB18"/>
-      <c r="DC18"/>
-      <c r="DD18"/>
-      <c r="DE18"/>
-      <c r="DF18"/>
-      <c r="DG18"/>
-      <c r="DH18"/>
-      <c r="DI18"/>
-      <c r="DJ18"/>
-      <c r="DK18"/>
-      <c r="DL18"/>
-      <c r="DM18"/>
-      <c r="DN18"/>
-      <c r="DO18"/>
-      <c r="DP18"/>
-      <c r="DQ18"/>
-      <c r="DR18"/>
-      <c r="DS18"/>
-      <c r="DT18"/>
-      <c r="DU18"/>
-      <c r="DV18"/>
-      <c r="DW18"/>
-      <c r="DX18"/>
-      <c r="DY18"/>
-      <c r="DZ18"/>
-      <c r="EA18"/>
-      <c r="EB18"/>
-      <c r="EC18"/>
-      <c r="ED18"/>
-      <c r="EE18"/>
-      <c r="EF18"/>
-      <c r="EG18"/>
-      <c r="EH18"/>
-      <c r="EI18"/>
-      <c r="EJ18"/>
-      <c r="EK18"/>
-      <c r="EL18"/>
-      <c r="EM18"/>
-      <c r="EN18"/>
-      <c r="EO18"/>
-      <c r="EP18"/>
-      <c r="EQ18"/>
-      <c r="ER18"/>
-      <c r="ES18"/>
-      <c r="ET18"/>
-      <c r="EU18"/>
-      <c r="EV18"/>
-      <c r="EW18"/>
-      <c r="EX18"/>
-      <c r="EY18"/>
-      <c r="EZ18"/>
-      <c r="FA18"/>
-      <c r="FB18"/>
-      <c r="FC18"/>
-      <c r="FD18"/>
-      <c r="FE18"/>
-      <c r="FF18"/>
-      <c r="FG18"/>
-      <c r="FH18"/>
-      <c r="FI18"/>
-      <c r="FJ18"/>
-      <c r="FK18"/>
-      <c r="FL18"/>
-      <c r="FM18"/>
-      <c r="FN18"/>
-      <c r="FO18"/>
-      <c r="FP18"/>
-      <c r="FQ18"/>
-      <c r="FR18"/>
-      <c r="FS18"/>
-      <c r="FT18"/>
-      <c r="FU18"/>
-      <c r="FV18"/>
-      <c r="FW18"/>
-      <c r="FX18"/>
-      <c r="FY18"/>
-      <c r="FZ18"/>
-      <c r="GA18"/>
-      <c r="GB18"/>
-      <c r="GC18"/>
-      <c r="GD18"/>
-      <c r="GE18"/>
-      <c r="GF18"/>
-      <c r="GG18"/>
-      <c r="GH18"/>
-      <c r="GI18"/>
-      <c r="GJ18"/>
-      <c r="GK18"/>
-      <c r="GL18"/>
-      <c r="GM18"/>
-      <c r="GN18"/>
-      <c r="GO18"/>
-      <c r="GP18"/>
-      <c r="GQ18"/>
-      <c r="GR18"/>
-      <c r="GS18"/>
-      <c r="GT18"/>
-      <c r="GU18"/>
-      <c r="GV18"/>
-      <c r="GW18"/>
-      <c r="GX18"/>
-      <c r="GY18"/>
-      <c r="GZ18"/>
-      <c r="HA18"/>
-      <c r="HB18"/>
-      <c r="HC18"/>
-      <c r="HD18"/>
-      <c r="HE18"/>
-      <c r="HF18"/>
-      <c r="HG18"/>
-      <c r="HH18"/>
-      <c r="HI18"/>
-      <c r="HJ18"/>
-      <c r="HK18"/>
-      <c r="HL18"/>
-      <c r="HM18"/>
-      <c r="HN18"/>
-      <c r="HO18"/>
-      <c r="HP18"/>
-      <c r="HQ18"/>
-      <c r="HR18"/>
-      <c r="HS18"/>
-      <c r="HT18"/>
-      <c r="HU18"/>
-      <c r="HV18"/>
-      <c r="HW18"/>
-      <c r="HX18"/>
-      <c r="HY18"/>
-      <c r="HZ18"/>
-      <c r="IA18"/>
-      <c r="IB18"/>
-      <c r="IC18"/>
-      <c r="ID18"/>
-      <c r="IE18"/>
-      <c r="IF18"/>
-      <c r="IG18"/>
-      <c r="IH18"/>
-      <c r="II18"/>
-      <c r="IJ18"/>
-      <c r="IK18"/>
-      <c r="IL18"/>
-      <c r="IM18"/>
-      <c r="IN18"/>
-      <c r="IO18"/>
-      <c r="IP18"/>
-      <c r="IQ18"/>
-      <c r="IR18"/>
-      <c r="IS18"/>
-      <c r="IT18"/>
-      <c r="IU18"/>
-      <c r="IV18"/>
-      <c r="IW18"/>
-      <c r="IX18"/>
-      <c r="IY18"/>
-      <c r="IZ18"/>
-      <c r="JA18"/>
-      <c r="JB18"/>
-      <c r="JC18"/>
-      <c r="JD18"/>
-      <c r="JE18"/>
-      <c r="JF18"/>
-      <c r="JG18"/>
-      <c r="JH18"/>
-      <c r="JI18"/>
-      <c r="JJ18"/>
-      <c r="JK18"/>
-      <c r="JL18"/>
-      <c r="JM18"/>
-      <c r="JN18"/>
-      <c r="JO18"/>
-      <c r="JP18"/>
-      <c r="JQ18"/>
-      <c r="JR18"/>
-      <c r="JS18"/>
-      <c r="JT18"/>
-      <c r="JU18"/>
-      <c r="JV18"/>
-      <c r="JW18"/>
-      <c r="JX18"/>
-      <c r="JY18"/>
-      <c r="JZ18"/>
-      <c r="KA18"/>
-      <c r="KB18"/>
-      <c r="KC18"/>
-      <c r="KD18"/>
-      <c r="KE18"/>
-      <c r="KF18"/>
-      <c r="KG18"/>
-      <c r="KH18"/>
-      <c r="KI18"/>
-      <c r="KJ18"/>
-      <c r="KK18"/>
-      <c r="KL18"/>
-      <c r="KM18"/>
-      <c r="KN18"/>
-      <c r="KO18"/>
-      <c r="KP18"/>
-      <c r="KQ18"/>
-      <c r="KR18"/>
-      <c r="KS18"/>
-      <c r="KT18"/>
-      <c r="KU18"/>
-      <c r="KV18"/>
-      <c r="KW18"/>
-      <c r="KX18"/>
-      <c r="KY18"/>
-      <c r="KZ18"/>
-      <c r="LA18"/>
-      <c r="LB18"/>
-      <c r="LC18"/>
-      <c r="LD18"/>
-      <c r="LE18"/>
-      <c r="LF18"/>
-      <c r="LG18"/>
-      <c r="LH18"/>
-      <c r="LI18"/>
-      <c r="LJ18"/>
-      <c r="LK18"/>
-      <c r="LL18"/>
-      <c r="LM18"/>
-      <c r="LN18"/>
-      <c r="LO18"/>
-      <c r="LP18"/>
-      <c r="LQ18"/>
-      <c r="LR18"/>
-      <c r="LS18"/>
-      <c r="LT18"/>
-      <c r="LU18"/>
-      <c r="LV18"/>
-      <c r="LW18"/>
-      <c r="LX18"/>
-      <c r="LY18"/>
-      <c r="LZ18"/>
-      <c r="MA18"/>
-      <c r="MB18"/>
-      <c r="MC18"/>
-      <c r="MD18"/>
-      <c r="ME18"/>
-      <c r="MF18"/>
-      <c r="MG18"/>
-      <c r="MH18"/>
-      <c r="MI18"/>
-      <c r="MJ18"/>
-      <c r="MK18"/>
-      <c r="ML18"/>
-      <c r="MM18"/>
-      <c r="MN18"/>
-      <c r="MO18"/>
-      <c r="MP18"/>
-      <c r="MQ18"/>
-      <c r="MR18"/>
-      <c r="MS18"/>
-      <c r="MT18"/>
-      <c r="MU18"/>
-      <c r="MV18"/>
-      <c r="MW18"/>
-      <c r="MX18"/>
-      <c r="MY18"/>
-      <c r="MZ18"/>
-      <c r="NA18"/>
-      <c r="NB18"/>
-      <c r="NC18"/>
-      <c r="ND18"/>
-      <c r="NE18"/>
-      <c r="NF18"/>
-      <c r="NG18"/>
-      <c r="NH18"/>
-      <c r="NI18"/>
-      <c r="NJ18"/>
-      <c r="NK18"/>
-      <c r="NL18"/>
-      <c r="NM18"/>
-      <c r="NN18"/>
-      <c r="NO18"/>
-      <c r="NP18"/>
-      <c r="NQ18"/>
-      <c r="NR18"/>
-      <c r="NS18"/>
-      <c r="NT18"/>
-      <c r="NU18"/>
-      <c r="NV18"/>
-      <c r="NW18"/>
-      <c r="NX18"/>
-      <c r="NY18"/>
-      <c r="NZ18"/>
-      <c r="OA18"/>
-      <c r="OB18"/>
-      <c r="OC18"/>
-      <c r="OD18"/>
-      <c r="OE18"/>
-      <c r="OF18"/>
-      <c r="OG18"/>
-      <c r="OH18"/>
-      <c r="OI18"/>
-      <c r="OJ18"/>
-      <c r="OK18"/>
-      <c r="OL18"/>
-      <c r="OM18"/>
-      <c r="ON18"/>
-      <c r="OO18"/>
-      <c r="OP18"/>
-      <c r="OQ18"/>
-      <c r="OR18"/>
-      <c r="OS18"/>
-      <c r="OT18"/>
-      <c r="OU18"/>
-      <c r="OV18"/>
-      <c r="OW18"/>
-      <c r="OX18"/>
-      <c r="OY18"/>
-      <c r="OZ18"/>
-      <c r="PA18"/>
-      <c r="PB18"/>
-      <c r="PC18"/>
-      <c r="PD18"/>
-      <c r="PE18"/>
-      <c r="PF18"/>
-      <c r="PG18"/>
-      <c r="PH18"/>
-      <c r="PI18"/>
-      <c r="PJ18"/>
-      <c r="PK18"/>
-      <c r="PL18"/>
-      <c r="PM18"/>
-      <c r="PN18"/>
-      <c r="PO18"/>
-      <c r="PP18"/>
-      <c r="PQ18"/>
-      <c r="PR18"/>
-      <c r="PS18"/>
-      <c r="PT18"/>
-      <c r="PU18"/>
-      <c r="PV18"/>
-      <c r="PW18"/>
-      <c r="PX18"/>
-      <c r="PY18"/>
-      <c r="PZ18"/>
-      <c r="QA18"/>
-      <c r="QB18"/>
-      <c r="QC18"/>
-      <c r="QD18"/>
-      <c r="QE18"/>
-      <c r="QF18"/>
-      <c r="QG18"/>
-      <c r="QH18"/>
-      <c r="QI18"/>
-      <c r="QJ18"/>
-      <c r="QK18"/>
-      <c r="QL18"/>
-      <c r="QM18"/>
-      <c r="QN18"/>
-      <c r="QO18"/>
-      <c r="QP18"/>
-      <c r="QQ18"/>
-      <c r="QR18"/>
-      <c r="QS18"/>
-      <c r="QT18"/>
-      <c r="QU18"/>
-      <c r="QV18"/>
-      <c r="QW18"/>
-      <c r="QX18"/>
-      <c r="QY18"/>
-      <c r="QZ18"/>
-      <c r="RA18"/>
-      <c r="RB18"/>
-      <c r="RC18"/>
-      <c r="RD18"/>
-      <c r="RE18"/>
-      <c r="RF18"/>
-      <c r="RG18"/>
-      <c r="RH18"/>
-      <c r="RI18"/>
-      <c r="RJ18"/>
-      <c r="RK18"/>
-      <c r="RL18"/>
-      <c r="RM18"/>
-      <c r="RN18"/>
-      <c r="RO18"/>
-      <c r="RP18"/>
-      <c r="RQ18"/>
-      <c r="RR18"/>
-      <c r="RS18"/>
-      <c r="RT18"/>
-      <c r="RU18"/>
-      <c r="RV18"/>
-      <c r="RW18"/>
-      <c r="RX18"/>
-      <c r="RY18"/>
-      <c r="RZ18"/>
-      <c r="SA18"/>
-      <c r="SB18"/>
-      <c r="SC18"/>
-      <c r="SD18"/>
-      <c r="SE18"/>
-      <c r="SF18"/>
-      <c r="SG18"/>
-      <c r="SH18"/>
-      <c r="SI18"/>
-      <c r="SJ18"/>
-      <c r="SK18"/>
-      <c r="SL18"/>
-      <c r="SM18"/>
-      <c r="SN18"/>
-      <c r="SO18"/>
-      <c r="SP18"/>
-      <c r="SQ18"/>
-      <c r="SR18"/>
-      <c r="SS18"/>
-      <c r="ST18"/>
-      <c r="SU18"/>
-      <c r="SV18"/>
-      <c r="SW18"/>
-      <c r="SX18"/>
-      <c r="SY18"/>
-      <c r="SZ18"/>
-      <c r="TA18"/>
-      <c r="TB18"/>
-      <c r="TC18"/>
-      <c r="TD18"/>
-      <c r="TE18"/>
-      <c r="TF18"/>
-      <c r="TG18"/>
-      <c r="TH18"/>
-      <c r="TI18"/>
-      <c r="TJ18"/>
-      <c r="TK18"/>
-      <c r="TL18"/>
-      <c r="TM18"/>
-      <c r="TN18"/>
-      <c r="TO18"/>
-      <c r="TP18"/>
-      <c r="TQ18"/>
-      <c r="TR18"/>
-      <c r="TS18"/>
-      <c r="TT18"/>
-      <c r="TU18"/>
-      <c r="TV18"/>
-      <c r="TW18"/>
-      <c r="TX18"/>
-      <c r="TY18"/>
-      <c r="TZ18"/>
-      <c r="UA18"/>
-    </row>
-    <row r="19" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="42">
-        <v>12</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19"/>
-      <c r="BO19"/>
-      <c r="BP19"/>
-      <c r="BQ19"/>
-      <c r="BR19"/>
-      <c r="BS19"/>
-      <c r="BT19"/>
-      <c r="BU19"/>
-      <c r="BV19"/>
-      <c r="BW19"/>
-      <c r="BX19"/>
-      <c r="BY19"/>
-      <c r="BZ19"/>
-      <c r="CA19"/>
-      <c r="CB19"/>
-      <c r="CC19"/>
-      <c r="CD19"/>
-      <c r="CE19"/>
-      <c r="CF19"/>
-      <c r="CG19"/>
-      <c r="CH19"/>
-      <c r="CI19"/>
-      <c r="CJ19"/>
-      <c r="CK19"/>
-      <c r="CL19"/>
-      <c r="CM19"/>
-      <c r="CN19"/>
-      <c r="CO19"/>
-      <c r="CP19"/>
-      <c r="CQ19"/>
-      <c r="CR19"/>
-      <c r="CS19"/>
-      <c r="CT19"/>
-      <c r="CU19"/>
-      <c r="CV19"/>
-      <c r="CW19"/>
-      <c r="CX19"/>
-      <c r="CY19"/>
-      <c r="CZ19"/>
-      <c r="DA19"/>
-      <c r="DB19"/>
-      <c r="DC19"/>
-      <c r="DD19"/>
-      <c r="DE19"/>
-      <c r="DF19"/>
-      <c r="DG19"/>
-      <c r="DH19"/>
-      <c r="DI19"/>
-      <c r="DJ19"/>
-      <c r="DK19"/>
-      <c r="DL19"/>
-      <c r="DM19"/>
-      <c r="DN19"/>
-      <c r="DO19"/>
-      <c r="DP19"/>
-      <c r="DQ19"/>
-      <c r="DR19"/>
-      <c r="DS19"/>
-      <c r="DT19"/>
-      <c r="DU19"/>
-      <c r="DV19"/>
-      <c r="DW19"/>
-      <c r="DX19"/>
-      <c r="DY19"/>
-      <c r="DZ19"/>
-      <c r="EA19"/>
-      <c r="EB19"/>
-      <c r="EC19"/>
-      <c r="ED19"/>
-      <c r="EE19"/>
-      <c r="EF19"/>
-      <c r="EG19"/>
-      <c r="EH19"/>
-      <c r="EI19"/>
-      <c r="EJ19"/>
-      <c r="EK19"/>
-      <c r="EL19"/>
-      <c r="EM19"/>
-      <c r="EN19"/>
-      <c r="EO19"/>
-      <c r="EP19"/>
-      <c r="EQ19"/>
-      <c r="ER19"/>
-      <c r="ES19"/>
-      <c r="ET19"/>
-      <c r="EU19"/>
-      <c r="EV19"/>
-      <c r="EW19"/>
-      <c r="EX19"/>
-      <c r="EY19"/>
-      <c r="EZ19"/>
-      <c r="FA19"/>
-      <c r="FB19"/>
-      <c r="FC19"/>
-      <c r="FD19"/>
-      <c r="FE19"/>
-      <c r="FF19"/>
-      <c r="FG19"/>
-      <c r="FH19"/>
-      <c r="FI19"/>
-      <c r="FJ19"/>
-      <c r="FK19"/>
-      <c r="FL19"/>
-      <c r="FM19"/>
-      <c r="FN19"/>
-      <c r="FO19"/>
-      <c r="FP19"/>
-      <c r="FQ19"/>
-      <c r="FR19"/>
-      <c r="FS19"/>
-      <c r="FT19"/>
-      <c r="FU19"/>
-      <c r="FV19"/>
-      <c r="FW19"/>
-      <c r="FX19"/>
-      <c r="FY19"/>
-      <c r="FZ19"/>
-      <c r="GA19"/>
-      <c r="GB19"/>
-      <c r="GC19"/>
-      <c r="GD19"/>
-      <c r="GE19"/>
-      <c r="GF19"/>
-      <c r="GG19"/>
-      <c r="GH19"/>
-      <c r="GI19"/>
-      <c r="GJ19"/>
-      <c r="GK19"/>
-      <c r="GL19"/>
-      <c r="GM19"/>
-      <c r="GN19"/>
-      <c r="GO19"/>
-      <c r="GP19"/>
-      <c r="GQ19"/>
-      <c r="GR19"/>
-      <c r="GS19"/>
-      <c r="GT19"/>
-      <c r="GU19"/>
-      <c r="GV19"/>
-      <c r="GW19"/>
-      <c r="GX19"/>
-      <c r="GY19"/>
-      <c r="GZ19"/>
-      <c r="HA19"/>
-      <c r="HB19"/>
-      <c r="HC19"/>
-      <c r="HD19"/>
-      <c r="HE19"/>
-      <c r="HF19"/>
-      <c r="HG19"/>
-      <c r="HH19"/>
-      <c r="HI19"/>
-      <c r="HJ19"/>
-      <c r="HK19"/>
-      <c r="HL19"/>
-      <c r="HM19"/>
-      <c r="HN19"/>
-      <c r="HO19"/>
-      <c r="HP19"/>
-      <c r="HQ19"/>
-      <c r="HR19"/>
-      <c r="HS19"/>
-      <c r="HT19"/>
-      <c r="HU19"/>
-      <c r="HV19"/>
-      <c r="HW19"/>
-      <c r="HX19"/>
-      <c r="HY19"/>
-      <c r="HZ19"/>
-      <c r="IA19"/>
-      <c r="IB19"/>
-      <c r="IC19"/>
-      <c r="ID19"/>
-      <c r="IE19"/>
-      <c r="IF19"/>
-      <c r="IG19"/>
-      <c r="IH19"/>
-      <c r="II19"/>
-      <c r="IJ19"/>
-      <c r="IK19"/>
-      <c r="IL19"/>
-      <c r="IM19"/>
-      <c r="IN19"/>
-      <c r="IO19"/>
-      <c r="IP19"/>
-      <c r="IQ19"/>
-      <c r="IR19"/>
-      <c r="IS19"/>
-      <c r="IT19"/>
-      <c r="IU19"/>
-      <c r="IV19"/>
-      <c r="IW19"/>
-      <c r="IX19"/>
-      <c r="IY19"/>
-      <c r="IZ19"/>
-      <c r="JA19"/>
-      <c r="JB19"/>
-      <c r="JC19"/>
-      <c r="JD19"/>
-      <c r="JE19"/>
-      <c r="JF19"/>
-      <c r="JG19"/>
-      <c r="JH19"/>
-      <c r="JI19"/>
-      <c r="JJ19"/>
-      <c r="JK19"/>
-      <c r="JL19"/>
-      <c r="JM19"/>
-      <c r="JN19"/>
-      <c r="JO19"/>
-      <c r="JP19"/>
-      <c r="JQ19"/>
-      <c r="JR19"/>
-      <c r="JS19"/>
-      <c r="JT19"/>
-      <c r="JU19"/>
-      <c r="JV19"/>
-      <c r="JW19"/>
-      <c r="JX19"/>
-      <c r="JY19"/>
-      <c r="JZ19"/>
-      <c r="KA19"/>
-      <c r="KB19"/>
-      <c r="KC19"/>
-      <c r="KD19"/>
-      <c r="KE19"/>
-      <c r="KF19"/>
-      <c r="KG19"/>
-      <c r="KH19"/>
-      <c r="KI19"/>
-      <c r="KJ19"/>
-      <c r="KK19"/>
-      <c r="KL19"/>
-      <c r="KM19"/>
-      <c r="KN19"/>
-      <c r="KO19"/>
-      <c r="KP19"/>
-      <c r="KQ19"/>
-      <c r="KR19"/>
-      <c r="KS19"/>
-      <c r="KT19"/>
-      <c r="KU19"/>
-      <c r="KV19"/>
-      <c r="KW19"/>
-      <c r="KX19"/>
-      <c r="KY19"/>
-      <c r="KZ19"/>
-      <c r="LA19"/>
-      <c r="LB19"/>
-      <c r="LC19"/>
-      <c r="LD19"/>
-      <c r="LE19"/>
-      <c r="LF19"/>
-      <c r="LG19"/>
-      <c r="LH19"/>
-      <c r="LI19"/>
-      <c r="LJ19"/>
-      <c r="LK19"/>
-      <c r="LL19"/>
-      <c r="LM19"/>
-      <c r="LN19"/>
-      <c r="LO19"/>
-      <c r="LP19"/>
-      <c r="LQ19"/>
-      <c r="LR19"/>
-      <c r="LS19"/>
-      <c r="LT19"/>
-      <c r="LU19"/>
-      <c r="LV19"/>
-      <c r="LW19"/>
-      <c r="LX19"/>
-      <c r="LY19"/>
-      <c r="LZ19"/>
-      <c r="MA19"/>
-      <c r="MB19"/>
-      <c r="MC19"/>
-      <c r="MD19"/>
-      <c r="ME19"/>
-      <c r="MF19"/>
-      <c r="MG19"/>
-      <c r="MH19"/>
-      <c r="MI19"/>
-      <c r="MJ19"/>
-      <c r="MK19"/>
-      <c r="ML19"/>
-      <c r="MM19"/>
-      <c r="MN19"/>
-      <c r="MO19"/>
-      <c r="MP19"/>
-      <c r="MQ19"/>
-      <c r="MR19"/>
-      <c r="MS19"/>
-      <c r="MT19"/>
-      <c r="MU19"/>
-      <c r="MV19"/>
-      <c r="MW19"/>
-      <c r="MX19"/>
-      <c r="MY19"/>
-      <c r="MZ19"/>
-      <c r="NA19"/>
-      <c r="NB19"/>
-      <c r="NC19"/>
-      <c r="ND19"/>
-      <c r="NE19"/>
-      <c r="NF19"/>
-      <c r="NG19"/>
-      <c r="NH19"/>
-      <c r="NI19"/>
-      <c r="NJ19"/>
-      <c r="NK19"/>
-      <c r="NL19"/>
-      <c r="NM19"/>
-      <c r="NN19"/>
-      <c r="NO19"/>
-      <c r="NP19"/>
-      <c r="NQ19"/>
-      <c r="NR19"/>
-      <c r="NS19"/>
-      <c r="NT19"/>
-      <c r="NU19"/>
-      <c r="NV19"/>
-      <c r="NW19"/>
-      <c r="NX19"/>
-      <c r="NY19"/>
-      <c r="NZ19"/>
-      <c r="OA19"/>
-      <c r="OB19"/>
-      <c r="OC19"/>
-      <c r="OD19"/>
-      <c r="OE19"/>
-      <c r="OF19"/>
-      <c r="OG19"/>
-      <c r="OH19"/>
-      <c r="OI19"/>
-      <c r="OJ19"/>
-      <c r="OK19"/>
-      <c r="OL19"/>
-      <c r="OM19"/>
-      <c r="ON19"/>
-      <c r="OO19"/>
-      <c r="OP19"/>
-      <c r="OQ19"/>
-      <c r="OR19"/>
-      <c r="OS19"/>
-      <c r="OT19"/>
-      <c r="OU19"/>
-      <c r="OV19"/>
-      <c r="OW19"/>
-      <c r="OX19"/>
-      <c r="OY19"/>
-      <c r="OZ19"/>
-      <c r="PA19"/>
-      <c r="PB19"/>
-      <c r="PC19"/>
-      <c r="PD19"/>
-      <c r="PE19"/>
-      <c r="PF19"/>
-      <c r="PG19"/>
-      <c r="PH19"/>
-      <c r="PI19"/>
-      <c r="PJ19"/>
-      <c r="PK19"/>
-      <c r="PL19"/>
-      <c r="PM19"/>
-      <c r="PN19"/>
-      <c r="PO19"/>
-      <c r="PP19"/>
-      <c r="PQ19"/>
-      <c r="PR19"/>
-      <c r="PS19"/>
-      <c r="PT19"/>
-      <c r="PU19"/>
-      <c r="PV19"/>
-      <c r="PW19"/>
-      <c r="PX19"/>
-      <c r="PY19"/>
-      <c r="PZ19"/>
-      <c r="QA19"/>
-      <c r="QB19"/>
-      <c r="QC19"/>
-      <c r="QD19"/>
-      <c r="QE19"/>
-      <c r="QF19"/>
-      <c r="QG19"/>
-      <c r="QH19"/>
-      <c r="QI19"/>
-      <c r="QJ19"/>
-      <c r="QK19"/>
-      <c r="QL19"/>
-      <c r="QM19"/>
-      <c r="QN19"/>
-      <c r="QO19"/>
-      <c r="QP19"/>
-      <c r="QQ19"/>
-      <c r="QR19"/>
-      <c r="QS19"/>
-      <c r="QT19"/>
-      <c r="QU19"/>
-      <c r="QV19"/>
-      <c r="QW19"/>
-      <c r="QX19"/>
-      <c r="QY19"/>
-      <c r="QZ19"/>
-      <c r="RA19"/>
-      <c r="RB19"/>
-      <c r="RC19"/>
-      <c r="RD19"/>
-      <c r="RE19"/>
-      <c r="RF19"/>
-      <c r="RG19"/>
-      <c r="RH19"/>
-      <c r="RI19"/>
-      <c r="RJ19"/>
-      <c r="RK19"/>
-      <c r="RL19"/>
-      <c r="RM19"/>
-      <c r="RN19"/>
-      <c r="RO19"/>
-      <c r="RP19"/>
-      <c r="RQ19"/>
-      <c r="RR19"/>
-      <c r="RS19"/>
-      <c r="RT19"/>
-      <c r="RU19"/>
-      <c r="RV19"/>
-      <c r="RW19"/>
-      <c r="RX19"/>
-      <c r="RY19"/>
-      <c r="RZ19"/>
-      <c r="SA19"/>
-      <c r="SB19"/>
-      <c r="SC19"/>
-      <c r="SD19"/>
-      <c r="SE19"/>
-      <c r="SF19"/>
-      <c r="SG19"/>
-      <c r="SH19"/>
-      <c r="SI19"/>
-      <c r="SJ19"/>
-      <c r="SK19"/>
-      <c r="SL19"/>
-      <c r="SM19"/>
-      <c r="SN19"/>
-      <c r="SO19"/>
-      <c r="SP19"/>
-      <c r="SQ19"/>
-      <c r="SR19"/>
-      <c r="SS19"/>
-      <c r="ST19"/>
-      <c r="SU19"/>
-      <c r="SV19"/>
-      <c r="SW19"/>
-      <c r="SX19"/>
-      <c r="SY19"/>
-      <c r="SZ19"/>
-      <c r="TA19"/>
-      <c r="TB19"/>
-      <c r="TC19"/>
-      <c r="TD19"/>
-      <c r="TE19"/>
-      <c r="TF19"/>
-      <c r="TG19"/>
-      <c r="TH19"/>
-      <c r="TI19"/>
-      <c r="TJ19"/>
-      <c r="TK19"/>
-      <c r="TL19"/>
-      <c r="TM19"/>
-      <c r="TN19"/>
-      <c r="TO19"/>
-      <c r="TP19"/>
-      <c r="TQ19"/>
-      <c r="TR19"/>
-      <c r="TS19"/>
-      <c r="TT19"/>
-      <c r="TU19"/>
-      <c r="TV19"/>
-      <c r="TW19"/>
-      <c r="TX19"/>
-      <c r="TY19"/>
-      <c r="TZ19"/>
-      <c r="UA19"/>
-    </row>
-    <row r="20" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="42">
-        <v>13</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="14"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -5347,1705 +4284,2306 @@
       <c r="TZ20"/>
       <c r="UA20"/>
     </row>
-    <row r="21" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="32">
+        <v>12</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21"/>
+      <c r="CF21"/>
+      <c r="CG21"/>
+      <c r="CH21"/>
+      <c r="CI21"/>
+      <c r="CJ21"/>
+      <c r="CK21"/>
+      <c r="CL21"/>
+      <c r="CM21"/>
+      <c r="CN21"/>
+      <c r="CO21"/>
+      <c r="CP21"/>
+      <c r="CQ21"/>
+      <c r="CR21"/>
+      <c r="CS21"/>
+      <c r="CT21"/>
+      <c r="CU21"/>
+      <c r="CV21"/>
+      <c r="CW21"/>
+      <c r="CX21"/>
+      <c r="CY21"/>
+      <c r="CZ21"/>
+      <c r="DA21"/>
+      <c r="DB21"/>
+      <c r="DC21"/>
+      <c r="DD21"/>
+      <c r="DE21"/>
+      <c r="DF21"/>
+      <c r="DG21"/>
+      <c r="DH21"/>
+      <c r="DI21"/>
+      <c r="DJ21"/>
+      <c r="DK21"/>
+      <c r="DL21"/>
+      <c r="DM21"/>
+      <c r="DN21"/>
+      <c r="DO21"/>
+      <c r="DP21"/>
+      <c r="DQ21"/>
+      <c r="DR21"/>
+      <c r="DS21"/>
+      <c r="DT21"/>
+      <c r="DU21"/>
+      <c r="DV21"/>
+      <c r="DW21"/>
+      <c r="DX21"/>
+      <c r="DY21"/>
+      <c r="DZ21"/>
+      <c r="EA21"/>
+      <c r="EB21"/>
+      <c r="EC21"/>
+      <c r="ED21"/>
+      <c r="EE21"/>
+      <c r="EF21"/>
+      <c r="EG21"/>
+      <c r="EH21"/>
+      <c r="EI21"/>
+      <c r="EJ21"/>
+      <c r="EK21"/>
+      <c r="EL21"/>
+      <c r="EM21"/>
+      <c r="EN21"/>
+      <c r="EO21"/>
+      <c r="EP21"/>
+      <c r="EQ21"/>
+      <c r="ER21"/>
+      <c r="ES21"/>
+      <c r="ET21"/>
+      <c r="EU21"/>
+      <c r="EV21"/>
+      <c r="EW21"/>
+      <c r="EX21"/>
+      <c r="EY21"/>
+      <c r="EZ21"/>
+      <c r="FA21"/>
+      <c r="FB21"/>
+      <c r="FC21"/>
+      <c r="FD21"/>
+      <c r="FE21"/>
+      <c r="FF21"/>
+      <c r="FG21"/>
+      <c r="FH21"/>
+      <c r="FI21"/>
+      <c r="FJ21"/>
+      <c r="FK21"/>
+      <c r="FL21"/>
+      <c r="FM21"/>
+      <c r="FN21"/>
+      <c r="FO21"/>
+      <c r="FP21"/>
+      <c r="FQ21"/>
+      <c r="FR21"/>
+      <c r="FS21"/>
+      <c r="FT21"/>
+      <c r="FU21"/>
+      <c r="FV21"/>
+      <c r="FW21"/>
+      <c r="FX21"/>
+      <c r="FY21"/>
+      <c r="FZ21"/>
+      <c r="GA21"/>
+      <c r="GB21"/>
+      <c r="GC21"/>
+      <c r="GD21"/>
+      <c r="GE21"/>
+      <c r="GF21"/>
+      <c r="GG21"/>
+      <c r="GH21"/>
+      <c r="GI21"/>
+      <c r="GJ21"/>
+      <c r="GK21"/>
+      <c r="GL21"/>
+      <c r="GM21"/>
+      <c r="GN21"/>
+      <c r="GO21"/>
+      <c r="GP21"/>
+      <c r="GQ21"/>
+      <c r="GR21"/>
+      <c r="GS21"/>
+      <c r="GT21"/>
+      <c r="GU21"/>
+      <c r="GV21"/>
+      <c r="GW21"/>
+      <c r="GX21"/>
+      <c r="GY21"/>
+      <c r="GZ21"/>
+      <c r="HA21"/>
+      <c r="HB21"/>
+      <c r="HC21"/>
+      <c r="HD21"/>
+      <c r="HE21"/>
+      <c r="HF21"/>
+      <c r="HG21"/>
+      <c r="HH21"/>
+      <c r="HI21"/>
+      <c r="HJ21"/>
+      <c r="HK21"/>
+      <c r="HL21"/>
+      <c r="HM21"/>
+      <c r="HN21"/>
+      <c r="HO21"/>
+      <c r="HP21"/>
+      <c r="HQ21"/>
+      <c r="HR21"/>
+      <c r="HS21"/>
+      <c r="HT21"/>
+      <c r="HU21"/>
+      <c r="HV21"/>
+      <c r="HW21"/>
+      <c r="HX21"/>
+      <c r="HY21"/>
+      <c r="HZ21"/>
+      <c r="IA21"/>
+      <c r="IB21"/>
+      <c r="IC21"/>
+      <c r="ID21"/>
+      <c r="IE21"/>
+      <c r="IF21"/>
+      <c r="IG21"/>
+      <c r="IH21"/>
+      <c r="II21"/>
+      <c r="IJ21"/>
+      <c r="IK21"/>
+      <c r="IL21"/>
+      <c r="IM21"/>
+      <c r="IN21"/>
+      <c r="IO21"/>
+      <c r="IP21"/>
+      <c r="IQ21"/>
+      <c r="IR21"/>
+      <c r="IS21"/>
+      <c r="IT21"/>
+      <c r="IU21"/>
+      <c r="IV21"/>
+      <c r="IW21"/>
+      <c r="IX21"/>
+      <c r="IY21"/>
+      <c r="IZ21"/>
+      <c r="JA21"/>
+      <c r="JB21"/>
+      <c r="JC21"/>
+      <c r="JD21"/>
+      <c r="JE21"/>
+      <c r="JF21"/>
+      <c r="JG21"/>
+      <c r="JH21"/>
+      <c r="JI21"/>
+      <c r="JJ21"/>
+      <c r="JK21"/>
+      <c r="JL21"/>
+      <c r="JM21"/>
+      <c r="JN21"/>
+      <c r="JO21"/>
+      <c r="JP21"/>
+      <c r="JQ21"/>
+      <c r="JR21"/>
+      <c r="JS21"/>
+      <c r="JT21"/>
+      <c r="JU21"/>
+      <c r="JV21"/>
+      <c r="JW21"/>
+      <c r="JX21"/>
+      <c r="JY21"/>
+      <c r="JZ21"/>
+      <c r="KA21"/>
+      <c r="KB21"/>
+      <c r="KC21"/>
+      <c r="KD21"/>
+      <c r="KE21"/>
+      <c r="KF21"/>
+      <c r="KG21"/>
+      <c r="KH21"/>
+      <c r="KI21"/>
+      <c r="KJ21"/>
+      <c r="KK21"/>
+      <c r="KL21"/>
+      <c r="KM21"/>
+      <c r="KN21"/>
+      <c r="KO21"/>
+      <c r="KP21"/>
+      <c r="KQ21"/>
+      <c r="KR21"/>
+      <c r="KS21"/>
+      <c r="KT21"/>
+      <c r="KU21"/>
+      <c r="KV21"/>
+      <c r="KW21"/>
+      <c r="KX21"/>
+      <c r="KY21"/>
+      <c r="KZ21"/>
+      <c r="LA21"/>
+      <c r="LB21"/>
+      <c r="LC21"/>
+      <c r="LD21"/>
+      <c r="LE21"/>
+      <c r="LF21"/>
+      <c r="LG21"/>
+      <c r="LH21"/>
+      <c r="LI21"/>
+      <c r="LJ21"/>
+      <c r="LK21"/>
+      <c r="LL21"/>
+      <c r="LM21"/>
+      <c r="LN21"/>
+      <c r="LO21"/>
+      <c r="LP21"/>
+      <c r="LQ21"/>
+      <c r="LR21"/>
+      <c r="LS21"/>
+      <c r="LT21"/>
+      <c r="LU21"/>
+      <c r="LV21"/>
+      <c r="LW21"/>
+      <c r="LX21"/>
+      <c r="LY21"/>
+      <c r="LZ21"/>
+      <c r="MA21"/>
+      <c r="MB21"/>
+      <c r="MC21"/>
+      <c r="MD21"/>
+      <c r="ME21"/>
+      <c r="MF21"/>
+      <c r="MG21"/>
+      <c r="MH21"/>
+      <c r="MI21"/>
+      <c r="MJ21"/>
+      <c r="MK21"/>
+      <c r="ML21"/>
+      <c r="MM21"/>
+      <c r="MN21"/>
+      <c r="MO21"/>
+      <c r="MP21"/>
+      <c r="MQ21"/>
+      <c r="MR21"/>
+      <c r="MS21"/>
+      <c r="MT21"/>
+      <c r="MU21"/>
+      <c r="MV21"/>
+      <c r="MW21"/>
+      <c r="MX21"/>
+      <c r="MY21"/>
+      <c r="MZ21"/>
+      <c r="NA21"/>
+      <c r="NB21"/>
+      <c r="NC21"/>
+      <c r="ND21"/>
+      <c r="NE21"/>
+      <c r="NF21"/>
+      <c r="NG21"/>
+      <c r="NH21"/>
+      <c r="NI21"/>
+      <c r="NJ21"/>
+      <c r="NK21"/>
+      <c r="NL21"/>
+      <c r="NM21"/>
+      <c r="NN21"/>
+      <c r="NO21"/>
+      <c r="NP21"/>
+      <c r="NQ21"/>
+      <c r="NR21"/>
+      <c r="NS21"/>
+      <c r="NT21"/>
+      <c r="NU21"/>
+      <c r="NV21"/>
+      <c r="NW21"/>
+      <c r="NX21"/>
+      <c r="NY21"/>
+      <c r="NZ21"/>
+      <c r="OA21"/>
+      <c r="OB21"/>
+      <c r="OC21"/>
+      <c r="OD21"/>
+      <c r="OE21"/>
+      <c r="OF21"/>
+      <c r="OG21"/>
+      <c r="OH21"/>
+      <c r="OI21"/>
+      <c r="OJ21"/>
+      <c r="OK21"/>
+      <c r="OL21"/>
+      <c r="OM21"/>
+      <c r="ON21"/>
+      <c r="OO21"/>
+      <c r="OP21"/>
+      <c r="OQ21"/>
+      <c r="OR21"/>
+      <c r="OS21"/>
+      <c r="OT21"/>
+      <c r="OU21"/>
+      <c r="OV21"/>
+      <c r="OW21"/>
+      <c r="OX21"/>
+      <c r="OY21"/>
+      <c r="OZ21"/>
+      <c r="PA21"/>
+      <c r="PB21"/>
+      <c r="PC21"/>
+      <c r="PD21"/>
+      <c r="PE21"/>
+      <c r="PF21"/>
+      <c r="PG21"/>
+      <c r="PH21"/>
+      <c r="PI21"/>
+      <c r="PJ21"/>
+      <c r="PK21"/>
+      <c r="PL21"/>
+      <c r="PM21"/>
+      <c r="PN21"/>
+      <c r="PO21"/>
+      <c r="PP21"/>
+      <c r="PQ21"/>
+      <c r="PR21"/>
+      <c r="PS21"/>
+      <c r="PT21"/>
+      <c r="PU21"/>
+      <c r="PV21"/>
+      <c r="PW21"/>
+      <c r="PX21"/>
+      <c r="PY21"/>
+      <c r="PZ21"/>
+      <c r="QA21"/>
+      <c r="QB21"/>
+      <c r="QC21"/>
+      <c r="QD21"/>
+      <c r="QE21"/>
+      <c r="QF21"/>
+      <c r="QG21"/>
+      <c r="QH21"/>
+      <c r="QI21"/>
+      <c r="QJ21"/>
+      <c r="QK21"/>
+      <c r="QL21"/>
+      <c r="QM21"/>
+      <c r="QN21"/>
+      <c r="QO21"/>
+      <c r="QP21"/>
+      <c r="QQ21"/>
+      <c r="QR21"/>
+      <c r="QS21"/>
+      <c r="QT21"/>
+      <c r="QU21"/>
+      <c r="QV21"/>
+      <c r="QW21"/>
+      <c r="QX21"/>
+      <c r="QY21"/>
+      <c r="QZ21"/>
+      <c r="RA21"/>
+      <c r="RB21"/>
+      <c r="RC21"/>
+      <c r="RD21"/>
+      <c r="RE21"/>
+      <c r="RF21"/>
+      <c r="RG21"/>
+      <c r="RH21"/>
+      <c r="RI21"/>
+      <c r="RJ21"/>
+      <c r="RK21"/>
+      <c r="RL21"/>
+      <c r="RM21"/>
+      <c r="RN21"/>
+      <c r="RO21"/>
+      <c r="RP21"/>
+      <c r="RQ21"/>
+      <c r="RR21"/>
+      <c r="RS21"/>
+      <c r="RT21"/>
+      <c r="RU21"/>
+      <c r="RV21"/>
+      <c r="RW21"/>
+      <c r="RX21"/>
+      <c r="RY21"/>
+      <c r="RZ21"/>
+      <c r="SA21"/>
+      <c r="SB21"/>
+      <c r="SC21"/>
+      <c r="SD21"/>
+      <c r="SE21"/>
+      <c r="SF21"/>
+      <c r="SG21"/>
+      <c r="SH21"/>
+      <c r="SI21"/>
+      <c r="SJ21"/>
+      <c r="SK21"/>
+      <c r="SL21"/>
+      <c r="SM21"/>
+      <c r="SN21"/>
+      <c r="SO21"/>
+      <c r="SP21"/>
+      <c r="SQ21"/>
+      <c r="SR21"/>
+      <c r="SS21"/>
+      <c r="ST21"/>
+      <c r="SU21"/>
+      <c r="SV21"/>
+      <c r="SW21"/>
+      <c r="SX21"/>
+      <c r="SY21"/>
+      <c r="SZ21"/>
+      <c r="TA21"/>
+      <c r="TB21"/>
+      <c r="TC21"/>
+      <c r="TD21"/>
+      <c r="TE21"/>
+      <c r="TF21"/>
+      <c r="TG21"/>
+      <c r="TH21"/>
+      <c r="TI21"/>
+      <c r="TJ21"/>
+      <c r="TK21"/>
+      <c r="TL21"/>
+      <c r="TM21"/>
+      <c r="TN21"/>
+      <c r="TO21"/>
+      <c r="TP21"/>
+      <c r="TQ21"/>
+      <c r="TR21"/>
+      <c r="TS21"/>
+      <c r="TT21"/>
+      <c r="TU21"/>
+      <c r="TV21"/>
+      <c r="TW21"/>
+      <c r="TX21"/>
+      <c r="TY21"/>
+      <c r="TZ21"/>
+      <c r="UA21"/>
+    </row>
+    <row r="22" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="32">
+        <v>13</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BX22"/>
+      <c r="BY22"/>
+      <c r="BZ22"/>
+      <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CD22"/>
+      <c r="CE22"/>
+      <c r="CF22"/>
+      <c r="CG22"/>
+      <c r="CH22"/>
+      <c r="CI22"/>
+      <c r="CJ22"/>
+      <c r="CK22"/>
+      <c r="CL22"/>
+      <c r="CM22"/>
+      <c r="CN22"/>
+      <c r="CO22"/>
+      <c r="CP22"/>
+      <c r="CQ22"/>
+      <c r="CR22"/>
+      <c r="CS22"/>
+      <c r="CT22"/>
+      <c r="CU22"/>
+      <c r="CV22"/>
+      <c r="CW22"/>
+      <c r="CX22"/>
+      <c r="CY22"/>
+      <c r="CZ22"/>
+      <c r="DA22"/>
+      <c r="DB22"/>
+      <c r="DC22"/>
+      <c r="DD22"/>
+      <c r="DE22"/>
+      <c r="DF22"/>
+      <c r="DG22"/>
+      <c r="DH22"/>
+      <c r="DI22"/>
+      <c r="DJ22"/>
+      <c r="DK22"/>
+      <c r="DL22"/>
+      <c r="DM22"/>
+      <c r="DN22"/>
+      <c r="DO22"/>
+      <c r="DP22"/>
+      <c r="DQ22"/>
+      <c r="DR22"/>
+      <c r="DS22"/>
+      <c r="DT22"/>
+      <c r="DU22"/>
+      <c r="DV22"/>
+      <c r="DW22"/>
+      <c r="DX22"/>
+      <c r="DY22"/>
+      <c r="DZ22"/>
+      <c r="EA22"/>
+      <c r="EB22"/>
+      <c r="EC22"/>
+      <c r="ED22"/>
+      <c r="EE22"/>
+      <c r="EF22"/>
+      <c r="EG22"/>
+      <c r="EH22"/>
+      <c r="EI22"/>
+      <c r="EJ22"/>
+      <c r="EK22"/>
+      <c r="EL22"/>
+      <c r="EM22"/>
+      <c r="EN22"/>
+      <c r="EO22"/>
+      <c r="EP22"/>
+      <c r="EQ22"/>
+      <c r="ER22"/>
+      <c r="ES22"/>
+      <c r="ET22"/>
+      <c r="EU22"/>
+      <c r="EV22"/>
+      <c r="EW22"/>
+      <c r="EX22"/>
+      <c r="EY22"/>
+      <c r="EZ22"/>
+      <c r="FA22"/>
+      <c r="FB22"/>
+      <c r="FC22"/>
+      <c r="FD22"/>
+      <c r="FE22"/>
+      <c r="FF22"/>
+      <c r="FG22"/>
+      <c r="FH22"/>
+      <c r="FI22"/>
+      <c r="FJ22"/>
+      <c r="FK22"/>
+      <c r="FL22"/>
+      <c r="FM22"/>
+      <c r="FN22"/>
+      <c r="FO22"/>
+      <c r="FP22"/>
+      <c r="FQ22"/>
+      <c r="FR22"/>
+      <c r="FS22"/>
+      <c r="FT22"/>
+      <c r="FU22"/>
+      <c r="FV22"/>
+      <c r="FW22"/>
+      <c r="FX22"/>
+      <c r="FY22"/>
+      <c r="FZ22"/>
+      <c r="GA22"/>
+      <c r="GB22"/>
+      <c r="GC22"/>
+      <c r="GD22"/>
+      <c r="GE22"/>
+      <c r="GF22"/>
+      <c r="GG22"/>
+      <c r="GH22"/>
+      <c r="GI22"/>
+      <c r="GJ22"/>
+      <c r="GK22"/>
+      <c r="GL22"/>
+      <c r="GM22"/>
+      <c r="GN22"/>
+      <c r="GO22"/>
+      <c r="GP22"/>
+      <c r="GQ22"/>
+      <c r="GR22"/>
+      <c r="GS22"/>
+      <c r="GT22"/>
+      <c r="GU22"/>
+      <c r="GV22"/>
+      <c r="GW22"/>
+      <c r="GX22"/>
+      <c r="GY22"/>
+      <c r="GZ22"/>
+      <c r="HA22"/>
+      <c r="HB22"/>
+      <c r="HC22"/>
+      <c r="HD22"/>
+      <c r="HE22"/>
+      <c r="HF22"/>
+      <c r="HG22"/>
+      <c r="HH22"/>
+      <c r="HI22"/>
+      <c r="HJ22"/>
+      <c r="HK22"/>
+      <c r="HL22"/>
+      <c r="HM22"/>
+      <c r="HN22"/>
+      <c r="HO22"/>
+      <c r="HP22"/>
+      <c r="HQ22"/>
+      <c r="HR22"/>
+      <c r="HS22"/>
+      <c r="HT22"/>
+      <c r="HU22"/>
+      <c r="HV22"/>
+      <c r="HW22"/>
+      <c r="HX22"/>
+      <c r="HY22"/>
+      <c r="HZ22"/>
+      <c r="IA22"/>
+      <c r="IB22"/>
+      <c r="IC22"/>
+      <c r="ID22"/>
+      <c r="IE22"/>
+      <c r="IF22"/>
+      <c r="IG22"/>
+      <c r="IH22"/>
+      <c r="II22"/>
+      <c r="IJ22"/>
+      <c r="IK22"/>
+      <c r="IL22"/>
+      <c r="IM22"/>
+      <c r="IN22"/>
+      <c r="IO22"/>
+      <c r="IP22"/>
+      <c r="IQ22"/>
+      <c r="IR22"/>
+      <c r="IS22"/>
+      <c r="IT22"/>
+      <c r="IU22"/>
+      <c r="IV22"/>
+      <c r="IW22"/>
+      <c r="IX22"/>
+      <c r="IY22"/>
+      <c r="IZ22"/>
+      <c r="JA22"/>
+      <c r="JB22"/>
+      <c r="JC22"/>
+      <c r="JD22"/>
+      <c r="JE22"/>
+      <c r="JF22"/>
+      <c r="JG22"/>
+      <c r="JH22"/>
+      <c r="JI22"/>
+      <c r="JJ22"/>
+      <c r="JK22"/>
+      <c r="JL22"/>
+      <c r="JM22"/>
+      <c r="JN22"/>
+      <c r="JO22"/>
+      <c r="JP22"/>
+      <c r="JQ22"/>
+      <c r="JR22"/>
+      <c r="JS22"/>
+      <c r="JT22"/>
+      <c r="JU22"/>
+      <c r="JV22"/>
+      <c r="JW22"/>
+      <c r="JX22"/>
+      <c r="JY22"/>
+      <c r="JZ22"/>
+      <c r="KA22"/>
+      <c r="KB22"/>
+      <c r="KC22"/>
+      <c r="KD22"/>
+      <c r="KE22"/>
+      <c r="KF22"/>
+      <c r="KG22"/>
+      <c r="KH22"/>
+      <c r="KI22"/>
+      <c r="KJ22"/>
+      <c r="KK22"/>
+      <c r="KL22"/>
+      <c r="KM22"/>
+      <c r="KN22"/>
+      <c r="KO22"/>
+      <c r="KP22"/>
+      <c r="KQ22"/>
+      <c r="KR22"/>
+      <c r="KS22"/>
+      <c r="KT22"/>
+      <c r="KU22"/>
+      <c r="KV22"/>
+      <c r="KW22"/>
+      <c r="KX22"/>
+      <c r="KY22"/>
+      <c r="KZ22"/>
+      <c r="LA22"/>
+      <c r="LB22"/>
+      <c r="LC22"/>
+      <c r="LD22"/>
+      <c r="LE22"/>
+      <c r="LF22"/>
+      <c r="LG22"/>
+      <c r="LH22"/>
+      <c r="LI22"/>
+      <c r="LJ22"/>
+      <c r="LK22"/>
+      <c r="LL22"/>
+      <c r="LM22"/>
+      <c r="LN22"/>
+      <c r="LO22"/>
+      <c r="LP22"/>
+      <c r="LQ22"/>
+      <c r="LR22"/>
+      <c r="LS22"/>
+      <c r="LT22"/>
+      <c r="LU22"/>
+      <c r="LV22"/>
+      <c r="LW22"/>
+      <c r="LX22"/>
+      <c r="LY22"/>
+      <c r="LZ22"/>
+      <c r="MA22"/>
+      <c r="MB22"/>
+      <c r="MC22"/>
+      <c r="MD22"/>
+      <c r="ME22"/>
+      <c r="MF22"/>
+      <c r="MG22"/>
+      <c r="MH22"/>
+      <c r="MI22"/>
+      <c r="MJ22"/>
+      <c r="MK22"/>
+      <c r="ML22"/>
+      <c r="MM22"/>
+      <c r="MN22"/>
+      <c r="MO22"/>
+      <c r="MP22"/>
+      <c r="MQ22"/>
+      <c r="MR22"/>
+      <c r="MS22"/>
+      <c r="MT22"/>
+      <c r="MU22"/>
+      <c r="MV22"/>
+      <c r="MW22"/>
+      <c r="MX22"/>
+      <c r="MY22"/>
+      <c r="MZ22"/>
+      <c r="NA22"/>
+      <c r="NB22"/>
+      <c r="NC22"/>
+      <c r="ND22"/>
+      <c r="NE22"/>
+      <c r="NF22"/>
+      <c r="NG22"/>
+      <c r="NH22"/>
+      <c r="NI22"/>
+      <c r="NJ22"/>
+      <c r="NK22"/>
+      <c r="NL22"/>
+      <c r="NM22"/>
+      <c r="NN22"/>
+      <c r="NO22"/>
+      <c r="NP22"/>
+      <c r="NQ22"/>
+      <c r="NR22"/>
+      <c r="NS22"/>
+      <c r="NT22"/>
+      <c r="NU22"/>
+      <c r="NV22"/>
+      <c r="NW22"/>
+      <c r="NX22"/>
+      <c r="NY22"/>
+      <c r="NZ22"/>
+      <c r="OA22"/>
+      <c r="OB22"/>
+      <c r="OC22"/>
+      <c r="OD22"/>
+      <c r="OE22"/>
+      <c r="OF22"/>
+      <c r="OG22"/>
+      <c r="OH22"/>
+      <c r="OI22"/>
+      <c r="OJ22"/>
+      <c r="OK22"/>
+      <c r="OL22"/>
+      <c r="OM22"/>
+      <c r="ON22"/>
+      <c r="OO22"/>
+      <c r="OP22"/>
+      <c r="OQ22"/>
+      <c r="OR22"/>
+      <c r="OS22"/>
+      <c r="OT22"/>
+      <c r="OU22"/>
+      <c r="OV22"/>
+      <c r="OW22"/>
+      <c r="OX22"/>
+      <c r="OY22"/>
+      <c r="OZ22"/>
+      <c r="PA22"/>
+      <c r="PB22"/>
+      <c r="PC22"/>
+      <c r="PD22"/>
+      <c r="PE22"/>
+      <c r="PF22"/>
+      <c r="PG22"/>
+      <c r="PH22"/>
+      <c r="PI22"/>
+      <c r="PJ22"/>
+      <c r="PK22"/>
+      <c r="PL22"/>
+      <c r="PM22"/>
+      <c r="PN22"/>
+      <c r="PO22"/>
+      <c r="PP22"/>
+      <c r="PQ22"/>
+      <c r="PR22"/>
+      <c r="PS22"/>
+      <c r="PT22"/>
+      <c r="PU22"/>
+      <c r="PV22"/>
+      <c r="PW22"/>
+      <c r="PX22"/>
+      <c r="PY22"/>
+      <c r="PZ22"/>
+      <c r="QA22"/>
+      <c r="QB22"/>
+      <c r="QC22"/>
+      <c r="QD22"/>
+      <c r="QE22"/>
+      <c r="QF22"/>
+      <c r="QG22"/>
+      <c r="QH22"/>
+      <c r="QI22"/>
+      <c r="QJ22"/>
+      <c r="QK22"/>
+      <c r="QL22"/>
+      <c r="QM22"/>
+      <c r="QN22"/>
+      <c r="QO22"/>
+      <c r="QP22"/>
+      <c r="QQ22"/>
+      <c r="QR22"/>
+      <c r="QS22"/>
+      <c r="QT22"/>
+      <c r="QU22"/>
+      <c r="QV22"/>
+      <c r="QW22"/>
+      <c r="QX22"/>
+      <c r="QY22"/>
+      <c r="QZ22"/>
+      <c r="RA22"/>
+      <c r="RB22"/>
+      <c r="RC22"/>
+      <c r="RD22"/>
+      <c r="RE22"/>
+      <c r="RF22"/>
+      <c r="RG22"/>
+      <c r="RH22"/>
+      <c r="RI22"/>
+      <c r="RJ22"/>
+      <c r="RK22"/>
+      <c r="RL22"/>
+      <c r="RM22"/>
+      <c r="RN22"/>
+      <c r="RO22"/>
+      <c r="RP22"/>
+      <c r="RQ22"/>
+      <c r="RR22"/>
+      <c r="RS22"/>
+      <c r="RT22"/>
+      <c r="RU22"/>
+      <c r="RV22"/>
+      <c r="RW22"/>
+      <c r="RX22"/>
+      <c r="RY22"/>
+      <c r="RZ22"/>
+      <c r="SA22"/>
+      <c r="SB22"/>
+      <c r="SC22"/>
+      <c r="SD22"/>
+      <c r="SE22"/>
+      <c r="SF22"/>
+      <c r="SG22"/>
+      <c r="SH22"/>
+      <c r="SI22"/>
+      <c r="SJ22"/>
+      <c r="SK22"/>
+      <c r="SL22"/>
+      <c r="SM22"/>
+      <c r="SN22"/>
+      <c r="SO22"/>
+      <c r="SP22"/>
+      <c r="SQ22"/>
+      <c r="SR22"/>
+      <c r="SS22"/>
+      <c r="ST22"/>
+      <c r="SU22"/>
+      <c r="SV22"/>
+      <c r="SW22"/>
+      <c r="SX22"/>
+      <c r="SY22"/>
+      <c r="SZ22"/>
+      <c r="TA22"/>
+      <c r="TB22"/>
+      <c r="TC22"/>
+      <c r="TD22"/>
+      <c r="TE22"/>
+      <c r="TF22"/>
+      <c r="TG22"/>
+      <c r="TH22"/>
+      <c r="TI22"/>
+      <c r="TJ22"/>
+      <c r="TK22"/>
+      <c r="TL22"/>
+      <c r="TM22"/>
+      <c r="TN22"/>
+      <c r="TO22"/>
+      <c r="TP22"/>
+      <c r="TQ22"/>
+      <c r="TR22"/>
+      <c r="TS22"/>
+      <c r="TT22"/>
+      <c r="TU22"/>
+      <c r="TV22"/>
+      <c r="TW22"/>
+      <c r="TX22"/>
+      <c r="TY22"/>
+      <c r="TZ22"/>
+      <c r="UA22"/>
+    </row>
+    <row r="23" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C23" s="22">
         <v>69</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D23" s="31">
         <v>153</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C24" s="21">
         <v>8</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D24" s="30">
         <v>17</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C25" s="21">
         <v>9</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D25" s="30">
         <v>18</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="11" t="s">
+      <c r="E25" s="25"/>
+      <c r="F25" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="30">
+        <v>19</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="22">
+        <v>10</v>
+      </c>
+      <c r="D27" s="31">
+        <v>20</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="21">
+        <v>11</v>
+      </c>
+      <c r="D28" s="30">
+        <v>21</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="30">
+        <v>22</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="22">
+        <v>13</v>
+      </c>
+      <c r="D30" s="31">
+        <v>24</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="31">
+        <v>25</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="31">
+        <v>26</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="31">
+        <v>27</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="21">
+        <v>20</v>
+      </c>
+      <c r="D34" s="30">
+        <v>137</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="33">
+        <v>43</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="22">
+        <v>66</v>
+      </c>
+      <c r="D36" s="31">
+        <v>141</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="31">
+        <v>142</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="31">
+        <v>143</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="31">
+        <v>144</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="21">
+        <v>67</v>
+      </c>
+      <c r="D40" s="30">
+        <v>145</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="40">
-        <v>19</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="11" t="s">
+      <c r="G40" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H40" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="30">
+        <v>146</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="30">
-        <v>10</v>
-      </c>
-      <c r="D25" s="41">
-        <v>20</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="7" t="s">
+      <c r="G41" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="29">
-        <v>11</v>
-      </c>
-      <c r="D26" s="40">
-        <v>21</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="11" t="s">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="30">
+        <v>147</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G42" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="40">
-        <v>22</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="11" t="s">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="30">
+        <v>148</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G43" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="30">
-        <v>13</v>
-      </c>
-      <c r="D28" s="41">
-        <v>24</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="7" t="s">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="22">
+        <v>68</v>
+      </c>
+      <c r="D44" s="31">
+        <v>149</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G44" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="41">
-        <v>25</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="7" t="s">
+      <c r="H44" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="31">
+        <v>150</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G45" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="41">
-        <v>26</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="7" t="s">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="31">
+        <v>151</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="41">
-        <v>27</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="7" t="s">
+      <c r="G46" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="31">
+        <v>152</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="29">
-        <v>20</v>
-      </c>
-      <c r="D32" s="40">
+      <c r="G47" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="23">
+        <v>70</v>
+      </c>
+      <c r="D49" s="34">
+        <v>154</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="21">
+        <v>71</v>
+      </c>
+      <c r="D51" s="30">
+        <v>155</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="30">
+        <v>156</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="30">
+        <v>157</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="22">
+        <v>72</v>
+      </c>
+      <c r="D54" s="31">
+        <v>158</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="31">
+        <v>159</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="31">
+        <v>160</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="21">
+        <v>73</v>
+      </c>
+      <c r="D57" s="30">
+        <v>161</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="24">
+        <v>74</v>
+      </c>
+      <c r="D58" s="35">
+        <v>162</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="43">
-        <v>43</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="30">
-        <v>66</v>
-      </c>
-      <c r="D34" s="41">
+      <c r="G58" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="35">
+        <v>163</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="35">
+        <v>164</v>
+      </c>
+      <c r="E60" s="29"/>
+      <c r="F60" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="41">
+      <c r="G60" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="41">
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="35">
+        <v>165</v>
+      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="41">
+      <c r="G61" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="29">
-        <v>67</v>
-      </c>
-      <c r="D38" s="40">
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="35">
+        <v>166</v>
+      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="40">
+      <c r="G62" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="40">
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="35">
+        <v>167</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="12" t="s">
+      <c r="G63" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="35">
+        <v>168</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="35">
+        <v>169</v>
+      </c>
+      <c r="E65" s="29"/>
+      <c r="F65" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="35">
+        <v>170</v>
+      </c>
+      <c r="E66" s="29"/>
+      <c r="F66" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="35">
+        <v>171</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G67" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="B68" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="40">
-        <v>148</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="30">
-        <v>68</v>
-      </c>
-      <c r="D42" s="41">
-        <v>149</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="8" t="s">
+      <c r="C68" s="21">
+        <v>75</v>
+      </c>
+      <c r="D68" s="30">
+        <v>172</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="41">
-        <v>150</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="41">
-        <v>151</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="41">
-        <v>152</v>
-      </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="31">
-        <v>70</v>
-      </c>
-      <c r="D47" s="44">
-        <v>154</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="29">
-        <v>71</v>
-      </c>
-      <c r="D49" s="40">
-        <v>155</v>
-      </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="40">
-        <v>156</v>
-      </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="40">
-        <v>157</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="30">
-        <v>72</v>
-      </c>
-      <c r="D52" s="41">
-        <v>158</v>
-      </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="41">
-        <v>159</v>
-      </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="41">
-        <v>160</v>
-      </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="29">
-        <v>73</v>
-      </c>
-      <c r="D55" s="40">
-        <v>161</v>
-      </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="32">
-        <v>74</v>
-      </c>
-      <c r="D56" s="45">
-        <v>162</v>
-      </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="45">
-        <v>163</v>
-      </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="45">
-        <v>164</v>
-      </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="45">
-        <v>165</v>
-      </c>
-      <c r="E59" s="37"/>
-      <c r="F59" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="H59" s="16"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="45">
-        <v>166</v>
-      </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="27" t="s">
+      <c r="H68" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H60" s="16"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="45">
-        <v>167</v>
-      </c>
-      <c r="E61" s="37"/>
-      <c r="F61" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="16"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="45">
-        <v>168</v>
-      </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="45">
-        <v>169</v>
-      </c>
-      <c r="E63" s="37"/>
-      <c r="F63" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="16"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="45">
-        <v>170</v>
-      </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="45">
-        <v>171</v>
-      </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" s="16"/>
-    </row>
-    <row r="66" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="29">
-        <v>75</v>
-      </c>
-      <c r="D66" s="40">
-        <v>172</v>
-      </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:547" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-      <c r="AE68"/>
-      <c r="AF68"/>
-      <c r="AG68"/>
-      <c r="AH68"/>
-      <c r="AI68"/>
-      <c r="AJ68"/>
-      <c r="AK68"/>
-      <c r="AL68"/>
-      <c r="AM68"/>
-      <c r="AN68"/>
-      <c r="AO68"/>
-      <c r="AP68"/>
-      <c r="AQ68"/>
-      <c r="AR68"/>
-      <c r="AS68"/>
-      <c r="AT68"/>
-      <c r="AU68"/>
-      <c r="AV68"/>
-      <c r="AW68"/>
-      <c r="AX68"/>
-      <c r="AY68"/>
-      <c r="AZ68"/>
-      <c r="BA68"/>
-      <c r="BB68"/>
-      <c r="BC68"/>
-      <c r="BD68"/>
-      <c r="BE68"/>
-      <c r="BF68"/>
-      <c r="BG68"/>
-      <c r="BH68"/>
-      <c r="BI68"/>
-      <c r="BJ68"/>
-      <c r="BK68"/>
-      <c r="BL68"/>
-      <c r="BM68"/>
-      <c r="BN68"/>
-      <c r="BO68"/>
-      <c r="BP68"/>
-      <c r="BQ68"/>
-      <c r="BR68"/>
-      <c r="BS68"/>
-      <c r="BT68"/>
-      <c r="BU68"/>
-      <c r="BV68"/>
-      <c r="BW68"/>
-      <c r="BX68"/>
-      <c r="BY68"/>
-      <c r="BZ68"/>
-      <c r="CA68"/>
-      <c r="CB68"/>
-      <c r="CC68"/>
-      <c r="CD68"/>
-      <c r="CE68"/>
-      <c r="CF68"/>
-      <c r="CG68"/>
-      <c r="CH68"/>
-      <c r="CI68"/>
-      <c r="CJ68"/>
-      <c r="CK68"/>
-      <c r="CL68"/>
-      <c r="CM68"/>
-      <c r="CN68"/>
-      <c r="CO68"/>
-      <c r="CP68"/>
-      <c r="CQ68"/>
-      <c r="CR68"/>
-      <c r="CS68"/>
-      <c r="CT68"/>
-      <c r="CU68"/>
-      <c r="CV68"/>
-      <c r="CW68"/>
-      <c r="CX68"/>
-      <c r="CY68"/>
-      <c r="CZ68"/>
-      <c r="DA68"/>
-      <c r="DB68"/>
-      <c r="DC68"/>
-      <c r="DD68"/>
-      <c r="DE68"/>
-      <c r="DF68"/>
-      <c r="DG68"/>
-      <c r="DH68"/>
-      <c r="DI68"/>
-      <c r="DJ68"/>
-      <c r="DK68"/>
-      <c r="DL68"/>
-      <c r="DM68"/>
-      <c r="DN68"/>
-      <c r="DO68"/>
-      <c r="DP68"/>
-      <c r="DQ68"/>
-      <c r="DR68"/>
-      <c r="DS68"/>
-      <c r="DT68"/>
-      <c r="DU68"/>
-      <c r="DV68"/>
-      <c r="DW68"/>
-      <c r="DX68"/>
-      <c r="DY68"/>
-      <c r="DZ68"/>
-      <c r="EA68"/>
-      <c r="EB68"/>
-      <c r="EC68"/>
-      <c r="ED68"/>
-      <c r="EE68"/>
-      <c r="EF68"/>
-      <c r="EG68"/>
-      <c r="EH68"/>
-      <c r="EI68"/>
-      <c r="EJ68"/>
-      <c r="EK68"/>
-      <c r="EL68"/>
-      <c r="EM68"/>
-      <c r="EN68"/>
-      <c r="EO68"/>
-      <c r="EP68"/>
-      <c r="EQ68"/>
-      <c r="ER68"/>
-      <c r="ES68"/>
-      <c r="ET68"/>
-      <c r="EU68"/>
-      <c r="EV68"/>
-      <c r="EW68"/>
-      <c r="EX68"/>
-      <c r="EY68"/>
-      <c r="EZ68"/>
-      <c r="FA68"/>
-      <c r="FB68"/>
-      <c r="FC68"/>
-      <c r="FD68"/>
-      <c r="FE68"/>
-      <c r="FF68"/>
-      <c r="FG68"/>
-      <c r="FH68"/>
-      <c r="FI68"/>
-      <c r="FJ68"/>
-      <c r="FK68"/>
-      <c r="FL68"/>
-      <c r="FM68"/>
-      <c r="FN68"/>
-      <c r="FO68"/>
-      <c r="FP68"/>
-      <c r="FQ68"/>
-      <c r="FR68"/>
-      <c r="FS68"/>
-      <c r="FT68"/>
-      <c r="FU68"/>
-      <c r="FV68"/>
-      <c r="FW68"/>
-      <c r="FX68"/>
-      <c r="FY68"/>
-      <c r="FZ68"/>
-      <c r="GA68"/>
-      <c r="GB68"/>
-      <c r="GC68"/>
-      <c r="GD68"/>
-      <c r="GE68"/>
-      <c r="GF68"/>
-      <c r="GG68"/>
-      <c r="GH68"/>
-      <c r="GI68"/>
-      <c r="GJ68"/>
-      <c r="GK68"/>
-      <c r="GL68"/>
-      <c r="GM68"/>
-      <c r="GN68"/>
-      <c r="GO68"/>
-      <c r="GP68"/>
-      <c r="GQ68"/>
-      <c r="GR68"/>
-      <c r="GS68"/>
-      <c r="GT68"/>
-      <c r="GU68"/>
-      <c r="GV68"/>
-      <c r="GW68"/>
-      <c r="GX68"/>
-      <c r="GY68"/>
-      <c r="GZ68"/>
-      <c r="HA68"/>
-      <c r="HB68"/>
-      <c r="HC68"/>
-      <c r="HD68"/>
-      <c r="HE68"/>
-      <c r="HF68"/>
-      <c r="HG68"/>
-      <c r="HH68"/>
-      <c r="HI68"/>
-      <c r="HJ68"/>
-      <c r="HK68"/>
-      <c r="HL68"/>
-      <c r="HM68"/>
-      <c r="HN68"/>
-      <c r="HO68"/>
-      <c r="HP68"/>
-      <c r="HQ68"/>
-      <c r="HR68"/>
-      <c r="HS68"/>
-      <c r="HT68"/>
-      <c r="HU68"/>
-      <c r="HV68"/>
-      <c r="HW68"/>
-      <c r="HX68"/>
-      <c r="HY68"/>
-      <c r="HZ68"/>
-      <c r="IA68"/>
-      <c r="IB68"/>
-      <c r="IC68"/>
-      <c r="ID68"/>
-      <c r="IE68"/>
-      <c r="IF68"/>
-      <c r="IG68"/>
-      <c r="IH68"/>
-      <c r="II68"/>
-      <c r="IJ68"/>
-      <c r="IK68"/>
-      <c r="IL68"/>
-      <c r="IM68"/>
-      <c r="IN68"/>
-      <c r="IO68"/>
-      <c r="IP68"/>
-      <c r="IQ68"/>
-      <c r="IR68"/>
-      <c r="IS68"/>
-      <c r="IT68"/>
-      <c r="IU68"/>
-      <c r="IV68"/>
-      <c r="IW68"/>
-      <c r="IX68"/>
-      <c r="IY68"/>
-      <c r="IZ68"/>
-      <c r="JA68"/>
-      <c r="JB68"/>
-      <c r="JC68"/>
-      <c r="JD68"/>
-      <c r="JE68"/>
-      <c r="JF68"/>
-      <c r="JG68"/>
-      <c r="JH68"/>
-      <c r="JI68"/>
-      <c r="JJ68"/>
-      <c r="JK68"/>
-      <c r="JL68"/>
-      <c r="JM68"/>
-      <c r="JN68"/>
-      <c r="JO68"/>
-      <c r="JP68"/>
-      <c r="JQ68"/>
-      <c r="JR68"/>
-      <c r="JS68"/>
-      <c r="JT68"/>
-      <c r="JU68"/>
-      <c r="JV68"/>
-      <c r="JW68"/>
-      <c r="JX68"/>
-      <c r="JY68"/>
-      <c r="JZ68"/>
-      <c r="KA68"/>
-      <c r="KB68"/>
-      <c r="KC68"/>
-      <c r="KD68"/>
-      <c r="KE68"/>
-      <c r="KF68"/>
-      <c r="KG68"/>
-      <c r="KH68"/>
-      <c r="KI68"/>
-      <c r="KJ68"/>
-      <c r="KK68"/>
-      <c r="KL68"/>
-      <c r="KM68"/>
-      <c r="KN68"/>
-      <c r="KO68"/>
-      <c r="KP68"/>
-      <c r="KQ68"/>
-      <c r="KR68"/>
-      <c r="KS68"/>
-      <c r="KT68"/>
-      <c r="KU68"/>
-      <c r="KV68"/>
-      <c r="KW68"/>
-      <c r="KX68"/>
-      <c r="KY68"/>
-      <c r="KZ68"/>
-      <c r="LA68"/>
-      <c r="LB68"/>
-      <c r="LC68"/>
-      <c r="LD68"/>
-      <c r="LE68"/>
-      <c r="LF68"/>
-      <c r="LG68"/>
-      <c r="LH68"/>
-      <c r="LI68"/>
-      <c r="LJ68"/>
-      <c r="LK68"/>
-      <c r="LL68"/>
-      <c r="LM68"/>
-      <c r="LN68"/>
-      <c r="LO68"/>
-      <c r="LP68"/>
-      <c r="LQ68"/>
-      <c r="LR68"/>
-      <c r="LS68"/>
-      <c r="LT68"/>
-      <c r="LU68"/>
-      <c r="LV68"/>
-      <c r="LW68"/>
-      <c r="LX68"/>
-      <c r="LY68"/>
-      <c r="LZ68"/>
-      <c r="MA68"/>
-      <c r="MB68"/>
-      <c r="MC68"/>
-      <c r="MD68"/>
-      <c r="ME68"/>
-      <c r="MF68"/>
-      <c r="MG68"/>
-      <c r="MH68"/>
-      <c r="MI68"/>
-      <c r="MJ68"/>
-      <c r="MK68"/>
-      <c r="ML68"/>
-      <c r="MM68"/>
-      <c r="MN68"/>
-      <c r="MO68"/>
-      <c r="MP68"/>
-      <c r="MQ68"/>
-      <c r="MR68"/>
-      <c r="MS68"/>
-      <c r="MT68"/>
-      <c r="MU68"/>
-      <c r="MV68"/>
-      <c r="MW68"/>
-      <c r="MX68"/>
-      <c r="MY68"/>
-      <c r="MZ68"/>
-      <c r="NA68"/>
-      <c r="NB68"/>
-      <c r="NC68"/>
-      <c r="ND68"/>
-      <c r="NE68"/>
-      <c r="NF68"/>
-      <c r="NG68"/>
-      <c r="NH68"/>
-      <c r="NI68"/>
-      <c r="NJ68"/>
-      <c r="NK68"/>
-      <c r="NL68"/>
-      <c r="NM68"/>
-      <c r="NN68"/>
-      <c r="NO68"/>
-      <c r="NP68"/>
-      <c r="NQ68"/>
-      <c r="NR68"/>
-      <c r="NS68"/>
-      <c r="NT68"/>
-      <c r="NU68"/>
-      <c r="NV68"/>
-      <c r="NW68"/>
-      <c r="NX68"/>
-      <c r="NY68"/>
-      <c r="NZ68"/>
-      <c r="OA68"/>
-      <c r="OB68"/>
-      <c r="OC68"/>
-      <c r="OD68"/>
-      <c r="OE68"/>
-      <c r="OF68"/>
-      <c r="OG68"/>
-      <c r="OH68"/>
-      <c r="OI68"/>
-      <c r="OJ68"/>
-      <c r="OK68"/>
-      <c r="OL68"/>
-      <c r="OM68"/>
-      <c r="ON68"/>
-      <c r="OO68"/>
-      <c r="OP68"/>
-      <c r="OQ68"/>
-      <c r="OR68"/>
-      <c r="OS68"/>
-      <c r="OT68"/>
-      <c r="OU68"/>
-      <c r="OV68"/>
-      <c r="OW68"/>
-      <c r="OX68"/>
-      <c r="OY68"/>
-      <c r="OZ68"/>
-      <c r="PA68"/>
-      <c r="PB68"/>
-      <c r="PC68"/>
-      <c r="PD68"/>
-      <c r="PE68"/>
-      <c r="PF68"/>
-      <c r="PG68"/>
-      <c r="PH68"/>
-      <c r="PI68"/>
-      <c r="PJ68"/>
-      <c r="PK68"/>
-      <c r="PL68"/>
-      <c r="PM68"/>
-      <c r="PN68"/>
-      <c r="PO68"/>
-      <c r="PP68"/>
-      <c r="PQ68"/>
-      <c r="PR68"/>
-      <c r="PS68"/>
-      <c r="PT68"/>
-      <c r="PU68"/>
-      <c r="PV68"/>
-      <c r="PW68"/>
-      <c r="PX68"/>
-      <c r="PY68"/>
-      <c r="PZ68"/>
-      <c r="QA68"/>
-      <c r="QB68"/>
-      <c r="QC68"/>
-      <c r="QD68"/>
-      <c r="QE68"/>
-      <c r="QF68"/>
-      <c r="QG68"/>
-      <c r="QH68"/>
-      <c r="QI68"/>
-      <c r="QJ68"/>
-      <c r="QK68"/>
-      <c r="QL68"/>
-      <c r="QM68"/>
-      <c r="QN68"/>
-      <c r="QO68"/>
-      <c r="QP68"/>
-      <c r="QQ68"/>
-      <c r="QR68"/>
-      <c r="QS68"/>
-      <c r="QT68"/>
-      <c r="QU68"/>
-      <c r="QV68"/>
-      <c r="QW68"/>
-      <c r="QX68"/>
-      <c r="QY68"/>
-      <c r="QZ68"/>
-      <c r="RA68"/>
-      <c r="RB68"/>
-      <c r="RC68"/>
-      <c r="RD68"/>
-      <c r="RE68"/>
-      <c r="RF68"/>
-      <c r="RG68"/>
-      <c r="RH68"/>
-      <c r="RI68"/>
-      <c r="RJ68"/>
-      <c r="RK68"/>
-      <c r="RL68"/>
-      <c r="RM68"/>
-      <c r="RN68"/>
-      <c r="RO68"/>
-      <c r="RP68"/>
-      <c r="RQ68"/>
-      <c r="RR68"/>
-      <c r="RS68"/>
-      <c r="RT68"/>
-      <c r="RU68"/>
-      <c r="RV68"/>
-      <c r="RW68"/>
-      <c r="RX68"/>
-      <c r="RY68"/>
-      <c r="RZ68"/>
-      <c r="SA68"/>
-      <c r="SB68"/>
-      <c r="SC68"/>
-      <c r="SD68"/>
-      <c r="SE68"/>
-      <c r="SF68"/>
-      <c r="SG68"/>
-      <c r="SH68"/>
-      <c r="SI68"/>
-      <c r="SJ68"/>
-      <c r="SK68"/>
-      <c r="SL68"/>
-      <c r="SM68"/>
-      <c r="SN68"/>
-      <c r="SO68"/>
-      <c r="SP68"/>
-      <c r="SQ68"/>
-      <c r="SR68"/>
-      <c r="SS68"/>
-      <c r="ST68"/>
-      <c r="SU68"/>
-      <c r="SV68"/>
-      <c r="SW68"/>
-      <c r="SX68"/>
-      <c r="SY68"/>
-      <c r="SZ68"/>
-      <c r="TA68"/>
-      <c r="TB68"/>
-      <c r="TC68"/>
-      <c r="TD68"/>
-      <c r="TE68"/>
-      <c r="TF68"/>
-      <c r="TG68"/>
-      <c r="TH68"/>
-      <c r="TI68"/>
-      <c r="TJ68"/>
-      <c r="TK68"/>
-      <c r="TL68"/>
-      <c r="TM68"/>
-      <c r="TN68"/>
-      <c r="TO68"/>
-      <c r="TP68"/>
-      <c r="TQ68"/>
-      <c r="TR68"/>
-      <c r="TS68"/>
-      <c r="TT68"/>
-      <c r="TU68"/>
-      <c r="TV68"/>
-      <c r="TW68"/>
-      <c r="TX68"/>
-      <c r="TY68"/>
-      <c r="TZ68"/>
-      <c r="UA68"/>
-    </row>
-    <row r="69" spans="1:547" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
-      <c r="H69" s="52"/>
-    </row>
-    <row r="70" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="48"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="46">
+      <c r="B73" s="6"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="36">
         <v>205</v>
       </c>
-      <c r="E70" s="34"/>
-      <c r="F70" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="E73" s="26"/>
+      <c r="F73" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="46">
+      <c r="B74" s="6"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="36">
         <v>201</v>
       </c>
-      <c r="E71" s="34"/>
-      <c r="F71" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="E74" s="26"/>
+      <c r="F74" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="36">
+        <v>202</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="36">
+        <v>203</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="46">
+      <c r="G76" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="36">
+        <v>204</v>
+      </c>
+      <c r="E77" s="26"/>
+      <c r="F77" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="36">
+        <v>223</v>
+      </c>
+      <c r="E78" s="26"/>
+      <c r="F78" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="36">
+        <v>221</v>
+      </c>
+      <c r="E79" s="26"/>
+      <c r="F79" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="36">
+        <v>242</v>
+      </c>
+      <c r="E80" s="26"/>
+      <c r="F80" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="36">
+        <v>243</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="36">
+        <v>244</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E72" s="34"/>
-      <c r="F72" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="46">
+      <c r="G82" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="46">
-        <v>204</v>
-      </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="46">
-        <v>223</v>
-      </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="46">
-        <v>221</v>
-      </c>
-      <c r="E76" s="34"/>
-      <c r="F76" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="46">
-        <v>242</v>
-      </c>
-      <c r="E77" s="34"/>
-      <c r="F77" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="46">
-        <v>243</v>
-      </c>
-      <c r="E78" s="34"/>
-      <c r="F78" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="H82" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="46">
+      <c r="B83" s="6"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="36">
         <v>245</v>
       </c>
-      <c r="E79" s="34"/>
-      <c r="F79" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="E83" s="26"/>
+      <c r="F83" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="46">
+      <c r="B84" s="6"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="36">
         <v>248</v>
       </c>
-      <c r="E80" s="34"/>
-      <c r="F80" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="46">
+      <c r="E84" s="26"/>
+      <c r="F84" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="36">
         <v>249</v>
       </c>
-      <c r="E81" s="34"/>
-      <c r="F81" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="47">
+      <c r="E85" s="26"/>
+      <c r="F85" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="37">
         <v>261</v>
       </c>
-      <c r="E82" s="34"/>
-      <c r="F82" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H86" s="5"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+    </row>
   </sheetData>
-  <sortState ref="A7:C17">
-    <sortCondition ref="C17"/>
+  <sortState ref="A9:C19">
+    <sortCondition ref="C19"/>
   </sortState>
   <mergeCells count="3">
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A72:H72"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="landscape" r:id="rId1"/>

--- a/AIOMFAC_Documents/List_of_AIOMFAC_Maingroups_and_Subgroups.xlsx
+++ b/AIOMFAC_Documents/List_of_AIOMFAC_Maingroups_and_Subgroups.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\AIOMFAC_WebInterface\AIOMFAC-web_2.21\Additional_Files_For_GitHub_online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andiz\Dropbox\AIOMFAC_WebInterface\AIOMFAC-web_2.32\Additional_Files_For_GitHub_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556D42C4-FBD8-44E1-A74F-5D6AAA399CCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1812571-1910-4F97-A782-297EAFE3A6A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-210" windowWidth="17550" windowHeight="4815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="255">
   <si>
     <t>hydroxyl</t>
   </si>
@@ -676,12 +684,144 @@
   <si>
     <t>iodide is not yet available within the web-version of AIOMFAC (to be added in future)</t>
   </si>
+  <si>
+    <t>HCO3-</t>
+  </si>
+  <si>
+    <t>(HCO3-)</t>
+  </si>
+  <si>
+    <t>(HCO$_3$$^-$)</t>
+  </si>
+  <si>
+    <t>bicarbonate ion</t>
+  </si>
+  <si>
+    <t>CO3--</t>
+  </si>
+  <si>
+    <t>(CO3--)</t>
+  </si>
+  <si>
+    <t>(CO$_3$$^{2-}$)</t>
+  </si>
+  <si>
+    <t>CHnNH2</t>
+  </si>
+  <si>
+    <t>(CH2NH2)</t>
+  </si>
+  <si>
+    <t>(CH3NH2)</t>
+  </si>
+  <si>
+    <t>(CHNH2)</t>
+  </si>
+  <si>
+    <t>primary amines, also in amino acids; no interaction parameters with ions available presently; limited interaction parameters with other organic groups.</t>
+  </si>
+  <si>
+    <t>(CH$_3$NH$_2$)</t>
+  </si>
+  <si>
+    <t>(CH$_2$NH$_2$)</t>
+  </si>
+  <si>
+    <t>(CHNH$_2$)</t>
+  </si>
+  <si>
+    <t>65 (formerly 20)</t>
+  </si>
+  <si>
+    <t>CHnNO2</t>
+  </si>
+  <si>
+    <t>(CH3NO2)</t>
+  </si>
+  <si>
+    <t>(CH2NO2)</t>
+  </si>
+  <si>
+    <t>(CHNO2)</t>
+  </si>
+  <si>
+    <t>nitro groups are presently only supported in inorganic ion-free mixtures; limited interaction parameters with other organic groups;</t>
+  </si>
+  <si>
+    <t>(CH$_3$NO$_2$)</t>
+  </si>
+  <si>
+    <t>(CH$_2$NO$_2$)</t>
+  </si>
+  <si>
+    <t>(CHNO$_2$)</t>
+  </si>
+  <si>
+    <t>nitro (aliphatic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aromatic nitro </t>
+  </si>
+  <si>
+    <t>ACNO2</t>
+  </si>
+  <si>
+    <t>(ACNO2)</t>
+  </si>
+  <si>
+    <t>(ACNO$_2$)</t>
+  </si>
+  <si>
+    <t>aromatic nitro group; presently only supported in inorganic ion-free mixtures; limited interaction parameters with other organic groups;</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>(CO2)</t>
+  </si>
+  <si>
+    <t>carbon dioxide</t>
+  </si>
+  <si>
+    <t>(CO$_2$)</t>
+  </si>
+  <si>
+    <t>carbon dioxide as an inorganic neutral molecule / main group and subgroup</t>
+  </si>
+  <si>
+    <t>amine (primary)</t>
+  </si>
+  <si>
+    <t>amine (secondary)</t>
+  </si>
+  <si>
+    <t>CHnNH</t>
+  </si>
+  <si>
+    <t>(CH3NH)</t>
+  </si>
+  <si>
+    <t>(CH2NH)</t>
+  </si>
+  <si>
+    <t>(CHNH)</t>
+  </si>
+  <si>
+    <t>(CH$_3$NH)</t>
+  </si>
+  <si>
+    <t>(CH$_2$NH)</t>
+  </si>
+  <si>
+    <t>secondary amines; no interaction parameters with ions available presently; limited interaction parameters with other organic groups.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,7 +881,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,8 +935,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1027,12 +1179,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1065,9 +1241,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1087,7 +1260,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1103,6 +1275,51 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,26 +1340,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1486,27 +1683,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:UA99"/>
+  <dimension ref="A1:UA114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="150.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="150.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:547" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:547" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="16"/>
@@ -1999,7 +2196,7 @@
       <c r="TZ1"/>
       <c r="UA1"/>
     </row>
-    <row r="2" spans="1:547" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:547" s="14" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>169</v>
       </c>
@@ -2486,8 +2683,8 @@
       <c r="TZ2"/>
       <c r="UA2"/>
     </row>
-    <row r="3" spans="1:547" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:547" s="14" customFormat="1">
+      <c r="A3" s="19" t="s">
         <v>174</v>
       </c>
       <c r="BN3"/>
@@ -2973,7 +3170,7 @@
       <c r="TZ3"/>
       <c r="UA3"/>
     </row>
-    <row r="4" spans="1:547" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:547" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="BN4"/>
       <c r="BO4"/>
       <c r="BP4"/>
@@ -3457,20 +3654,20 @@
       <c r="TZ4"/>
       <c r="UA4"/>
     </row>
-    <row r="5" spans="1:547" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:547" ht="36.75" customHeight="1" thickBot="1">
       <c r="A5" s="17" t="s">
         <v>157</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="17" t="s">
         <v>33</v>
       </c>
@@ -3481,264 +3678,264 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:547" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:547" ht="18">
+      <c r="A6" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="45"/>
-    </row>
-    <row r="7" spans="1:547" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="76"/>
+    </row>
+    <row r="7" spans="1:547">
+      <c r="A7" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="49">
         <v>7</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="50">
         <v>16</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="64"/>
-    </row>
-    <row r="8" spans="1:547" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:547" ht="21.75" customHeight="1">
+      <c r="A8" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:547" x14ac:dyDescent="0.25">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="76"/>
+    </row>
+    <row r="9" spans="1:547">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="40">
         <v>1</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="50" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="43" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:547">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="30">
+      <c r="C10" s="20"/>
+      <c r="D10" s="29">
         <v>2</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="50" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="41" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:547">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="30">
+      <c r="C11" s="20"/>
+      <c r="D11" s="29">
         <v>3</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="50" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:547">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="30">
+      <c r="C12" s="20"/>
+      <c r="D12" s="29">
         <v>4</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="50" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="41" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:547">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>2</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>5</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="51" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="42" t="s">
         <v>55</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:547">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="31">
+      <c r="C14" s="21"/>
+      <c r="D14" s="30">
         <v>6</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="42" t="s">
         <v>56</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:547">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="31">
+      <c r="C15" s="21"/>
+      <c r="D15" s="30">
         <v>7</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="51" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="42" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:547">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="31">
+      <c r="C16" s="21"/>
+      <c r="D16" s="30">
         <v>8</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="51" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="42" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:547">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="31">
+      <c r="C17" s="21"/>
+      <c r="D17" s="30">
         <v>70</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="51" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="42" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:547">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>3</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>9</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="43" t="s">
         <v>60</v>
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:547">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="30">
+      <c r="C19" s="20"/>
+      <c r="D19" s="29">
         <v>10</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="52" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="43" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:547" s="2" customFormat="1">
       <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>4</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>11</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="53" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="44" t="s">
         <v>63</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -4284,18 +4481,18 @@
       <c r="TZ20"/>
       <c r="UA20"/>
     </row>
-    <row r="21" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:547" s="2" customFormat="1">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="32">
+      <c r="C21" s="22"/>
+      <c r="D21" s="31">
         <v>12</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="53" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="44" t="s">
         <v>64</v>
       </c>
       <c r="H21" s="11"/>
@@ -4839,18 +5036,18 @@
       <c r="TZ21"/>
       <c r="UA21"/>
     </row>
-    <row r="22" spans="1:547" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:547" s="2" customFormat="1">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="32">
+      <c r="C22" s="22"/>
+      <c r="D22" s="31">
         <v>13</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="53" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="44" t="s">
         <v>65</v>
       </c>
       <c r="H22" s="11"/>
@@ -5394,1195 +5591,1552 @@
       <c r="TZ22"/>
       <c r="UA22"/>
     </row>
-    <row r="23" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:547">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>69</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>153</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="51" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="42" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:547">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>8</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <v>17</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="52" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="43" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:547">
       <c r="A25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>9</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="29">
         <v>18</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="52" t="s">
+      <c r="E25" s="24"/>
+      <c r="F25" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:547">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="30">
+      <c r="C26" s="20"/>
+      <c r="D26" s="29">
         <v>19</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="52" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="43" t="s">
         <v>69</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:547">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>10</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <v>20</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="51" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="42" t="s">
         <v>70</v>
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:547">
       <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>11</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="29">
         <v>21</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="52" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="43" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:547">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="30">
+      <c r="C29" s="20"/>
+      <c r="D29" s="29">
         <v>22</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="52" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="43" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:547">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>13</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>24</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="51" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="42" t="s">
         <v>76</v>
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:547">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="31">
+      <c r="C31" s="21"/>
+      <c r="D31" s="30">
         <v>25</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="51" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="42" t="s">
         <v>78</v>
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:547" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:547">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="31">
+      <c r="C32" s="21"/>
+      <c r="D32" s="30">
         <v>26</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="51" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="42" t="s">
         <v>79</v>
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:91">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="31">
+      <c r="C33" s="21"/>
+      <c r="D33" s="30">
         <v>27</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="51" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="42" t="s">
         <v>81</v>
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="21">
-        <v>20</v>
-      </c>
-      <c r="D34" s="30">
-        <v>137</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="33">
-        <v>43</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="34" spans="1:91" s="3" customFormat="1">
+      <c r="A34" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="58">
+        <v>14</v>
+      </c>
+      <c r="D34" s="59">
+        <v>28</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:91" s="3" customFormat="1">
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="62">
+        <v>29</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="1:91" s="3" customFormat="1">
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="59">
         <v>30</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="22">
-        <v>66</v>
-      </c>
-      <c r="D36" s="31">
-        <v>141</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="31">
-        <v>142</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="31">
-        <v>143</v>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="31">
-        <v>144</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="E36" s="60"/>
+      <c r="F36" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="57"/>
+    </row>
+    <row r="37" spans="1:91">
+      <c r="A37" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="69">
+        <v>15</v>
+      </c>
+      <c r="D37" s="70">
         <v>31</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="21">
-        <v>67</v>
-      </c>
-      <c r="D40" s="30">
-        <v>145</v>
-      </c>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" s="68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:91">
+      <c r="A38" s="67"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70">
+        <v>32</v>
+      </c>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="H38" s="68"/>
+    </row>
+    <row r="39" spans="1:91">
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70">
+        <v>33</v>
+      </c>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" s="68"/>
+    </row>
+    <row r="40" spans="1:91">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="30">
-        <v>146</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="30">
-        <v>147</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="30">
-        <v>148</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="22">
-        <v>68</v>
-      </c>
-      <c r="D44" s="31">
-        <v>149</v>
-      </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="31">
-        <v>150</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:91">
+      <c r="A41" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="58">
+        <v>26</v>
+      </c>
+      <c r="D41" s="59">
+        <v>54</v>
+      </c>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="H41" s="57" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:91">
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59">
+        <v>55</v>
+      </c>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="57"/>
+    </row>
+    <row r="43" spans="1:91">
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59">
+        <v>56</v>
+      </c>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="H43" s="57"/>
+    </row>
+    <row r="44" spans="1:91">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:91" s="66" customFormat="1">
+      <c r="A45" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="58">
+        <v>27</v>
+      </c>
+      <c r="D45" s="59">
+        <v>57</v>
+      </c>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+      <c r="AW45"/>
+      <c r="AX45"/>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="BA45"/>
+      <c r="BB45"/>
+      <c r="BC45"/>
+      <c r="BD45"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+      <c r="BK45"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+      <c r="BR45"/>
+      <c r="BS45"/>
+      <c r="BT45"/>
+      <c r="BU45"/>
+      <c r="BV45"/>
+      <c r="BW45"/>
+      <c r="BX45"/>
+      <c r="BY45"/>
+      <c r="BZ45"/>
+      <c r="CA45"/>
+      <c r="CB45"/>
+      <c r="CC45"/>
+      <c r="CD45"/>
+      <c r="CE45"/>
+      <c r="CF45"/>
+      <c r="CG45"/>
+      <c r="CH45"/>
+      <c r="CI45"/>
+      <c r="CJ45"/>
+      <c r="CK45"/>
+      <c r="CL45"/>
+      <c r="CM45"/>
+    </row>
+    <row r="46" spans="1:91">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="31">
-        <v>151</v>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" s="54" t="s">
-        <v>104</v>
-      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="31">
-        <v>152</v>
-      </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="23">
-        <v>70</v>
-      </c>
-      <c r="D49" s="34">
-        <v>154</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+    <row r="47" spans="1:91">
+      <c r="A47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="29">
+        <v>137</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:91">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="32">
+        <v>43</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="21">
+        <v>66</v>
+      </c>
+      <c r="D49" s="30">
+        <v>141</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="30">
+        <v>142</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="21">
-        <v>71</v>
-      </c>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="30">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E51" s="25"/>
-      <c r="F51" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="9"/>
+      <c r="F51" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="21"/>
       <c r="D52" s="30">
+        <v>144</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" ht="28.8">
+      <c r="A53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="20">
+        <v>67</v>
+      </c>
+      <c r="D53" s="29">
+        <v>145</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="29">
+        <v>146</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="29">
+        <v>147</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="29">
+        <v>148</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" ht="28.8">
+      <c r="A57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="21">
+        <v>68</v>
+      </c>
+      <c r="D57" s="30">
+        <v>149</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="30">
+        <v>150</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="30">
+        <v>151</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="7"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="30">
+        <v>152</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="58">
+        <v>70</v>
+      </c>
+      <c r="D62" s="59">
+        <v>154</v>
+      </c>
+      <c r="E62" s="60"/>
+      <c r="F62" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="7"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="20">
+        <v>71</v>
+      </c>
+      <c r="D64" s="29">
+        <v>155</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="10"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="29">
         <v>156</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="50" t="s">
+      <c r="E65" s="24"/>
+      <c r="F65" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G52" s="50" t="s">
+      <c r="G65" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="30">
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="10"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="29">
         <v>157</v>
       </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="50" t="s">
+      <c r="E66" s="24"/>
+      <c r="F66" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="G66" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C67" s="21">
         <v>72</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D67" s="30">
         <v>158</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="54" t="s">
+      <c r="E67" s="25"/>
+      <c r="F67" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="G54" s="54" t="s">
+      <c r="G67" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="31">
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="30">
         <v>159</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="54" t="s">
+      <c r="E68" s="25"/>
+      <c r="F68" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="54" t="s">
+      <c r="G68" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="31">
-        <v>160</v>
-      </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="G56" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="21">
-        <v>73</v>
-      </c>
-      <c r="D57" s="30">
-        <v>161</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="24">
-        <v>74</v>
-      </c>
-      <c r="D58" s="35">
-        <v>162</v>
-      </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="G58" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="35">
-        <v>163</v>
-      </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="G59" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="35">
-        <v>164</v>
-      </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="G60" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="35">
-        <v>165</v>
-      </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="G61" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" s="13"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="35">
-        <v>166</v>
-      </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="G62" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="35">
-        <v>167</v>
-      </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="G63" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="35">
-        <v>168</v>
-      </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="G64" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="35">
-        <v>169</v>
-      </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="35">
-        <v>170</v>
-      </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="G66" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="35">
-        <v>171</v>
-      </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="G67" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="21">
-        <v>75</v>
-      </c>
-      <c r="D68" s="30">
-        <v>172</v>
-      </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G68" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="30">
+        <v>160</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>134</v>
+      </c>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="46" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="20">
+        <v>73</v>
+      </c>
+      <c r="D70" s="29">
+        <v>161</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="23">
+        <v>74</v>
+      </c>
+      <c r="D71" s="33">
+        <v>162</v>
+      </c>
+      <c r="E71" s="28"/>
+      <c r="F71" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="18"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="33">
+        <v>163</v>
+      </c>
+      <c r="E72" s="28"/>
+      <c r="F72" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="18"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="33">
+        <v>164</v>
+      </c>
+      <c r="E73" s="28"/>
+      <c r="F73" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="18"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="33">
+        <v>165</v>
+      </c>
+      <c r="E74" s="28"/>
+      <c r="F74" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="18"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="33">
+        <v>166</v>
+      </c>
+      <c r="E75" s="28"/>
+      <c r="F75" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="18"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="33">
         <v>167</v>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="48"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="E76" s="28"/>
+      <c r="F76" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="18"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="33">
+        <v>168</v>
+      </c>
+      <c r="E77" s="28"/>
+      <c r="F77" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="18"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="33">
+        <v>169</v>
+      </c>
+      <c r="E78" s="28"/>
+      <c r="F78" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="18"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="33">
+        <v>170</v>
+      </c>
+      <c r="E79" s="28"/>
+      <c r="F79" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="18"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="33">
+        <v>171</v>
+      </c>
+      <c r="E80" s="28"/>
+      <c r="F80" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="20">
+        <v>75</v>
+      </c>
+      <c r="D81" s="29">
+        <v>172</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="21">
+        <v>76</v>
+      </c>
+      <c r="D83" s="34">
+        <v>173</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1">
+      <c r="A84" s="7"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" ht="18.600000000000001" thickTop="1">
+      <c r="A85" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="79"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="36">
+      <c r="B86" s="6"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="34">
         <v>205</v>
       </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="6" t="s">
+      <c r="E86" s="25"/>
+      <c r="F86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="36">
+      <c r="B87" s="6"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="34">
         <v>201</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="6" t="s">
+      <c r="E87" s="25"/>
+      <c r="F87" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="36">
+      <c r="B88" s="6"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="34">
         <v>202</v>
       </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="6" t="s">
+      <c r="E88" s="25"/>
+      <c r="F88" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G88" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="36">
+      <c r="B89" s="6"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="34">
         <v>203</v>
       </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="6" t="s">
+      <c r="E89" s="25"/>
+      <c r="F89" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="36">
+      <c r="B90" s="6"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="34">
         <v>204</v>
       </c>
-      <c r="E77" s="26"/>
-      <c r="F77" s="6" t="s">
+      <c r="E90" s="25"/>
+      <c r="F90" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="36">
+      <c r="B91" s="6"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="34">
         <v>223</v>
       </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="6" t="s">
+      <c r="E91" s="25"/>
+      <c r="F91" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="36">
+      <c r="B92" s="6"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="34">
         <v>221</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="6" t="s">
+      <c r="E92" s="25"/>
+      <c r="F92" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G92" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="36">
+      <c r="B93" s="6"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="34">
         <v>242</v>
       </c>
-      <c r="E80" s="26"/>
-      <c r="F80" s="6" t="s">
+      <c r="E93" s="25"/>
+      <c r="F93" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="36">
+      <c r="B94" s="6"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="34">
         <v>243</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="6" t="s">
+      <c r="E94" s="25"/>
+      <c r="F94" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="36">
+      <c r="B95" s="6"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="34">
         <v>244</v>
       </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="6" t="s">
+      <c r="E95" s="25"/>
+      <c r="F95" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G95" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="H95" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+    <row r="96" spans="1:8">
+      <c r="A96" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="36">
+      <c r="B96" s="6"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="34">
         <v>245</v>
       </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="6" t="s">
+      <c r="E96" s="25"/>
+      <c r="F96" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G96" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="36">
+      <c r="B97" s="6"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="34">
         <v>248</v>
       </c>
-      <c r="E84" s="26"/>
-      <c r="F84" s="6" t="s">
+      <c r="E97" s="25"/>
+      <c r="F97" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="36">
+      <c r="B98" s="6"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="34">
         <v>249</v>
       </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="7" t="s">
+      <c r="E98" s="25"/>
+      <c r="F98" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H98" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+    <row r="99" spans="1:8">
+      <c r="A99" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="55">
+        <v>250</v>
+      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1">
+      <c r="A100" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="37">
+      <c r="B100" s="6"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="35">
         <v>261</v>
       </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="6" t="s">
+      <c r="E100" s="25"/>
+      <c r="F100" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G100" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" ht="15" thickBot="1">
+      <c r="A101" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="35">
+        <v>262</v>
+      </c>
+      <c r="E101" s="25"/>
+      <c r="F101" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A9:C19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C19">
     <sortCondition ref="C19"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A85:H85"/>
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AIOMFAC_Documents/List_of_AIOMFAC_Maingroups_and_Subgroups.xlsx
+++ b/AIOMFAC_Documents/List_of_AIOMFAC_Maingroups_and_Subgroups.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andiz\Dropbox\AIOMFAC_WebInterface\AIOMFAC-web_2.32\Additional_Files_For_GitHub_online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andiz\Dropbox\AIOMFAC_WebInterface\AIOMFAC-web_3.00\Additional_Files_For_GitHub_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1812571-1910-4F97-A782-297EAFE3A6A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC72FC7-246B-4EC8-A056-046B005AE342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="236">
   <si>
     <t>hydroxyl</t>
   </si>
@@ -138,6 +130,78 @@
     <t>aromatic carbon-alcohol</t>
   </si>
   <si>
+    <t>"(H+)"</t>
+  </si>
+  <si>
+    <t>"(Li+)"</t>
+  </si>
+  <si>
+    <t>"(K+)"</t>
+  </si>
+  <si>
+    <t>"(NH4+)"</t>
+  </si>
+  <si>
+    <t>"(Mg++)"</t>
+  </si>
+  <si>
+    <t>"(Ca++)"</t>
+  </si>
+  <si>
+    <t>"(Cl-)"</t>
+  </si>
+  <si>
+    <t>"(Br-)"</t>
+  </si>
+  <si>
+    <t>"(NO3-)"</t>
+  </si>
+  <si>
+    <t>"(HSO4-)"</t>
+  </si>
+  <si>
+    <t>"(SO4--)"</t>
+  </si>
+  <si>
+    <t>"(H$^+$)"</t>
+  </si>
+  <si>
+    <t>"(Li$^+$)"</t>
+  </si>
+  <si>
+    <t>"(Na+)"</t>
+  </si>
+  <si>
+    <t>"(Na$^+$)"</t>
+  </si>
+  <si>
+    <t>"(K$^+$)"</t>
+  </si>
+  <si>
+    <t>"(NH$_4$$^+$)"</t>
+  </si>
+  <si>
+    <t>"(Mg$^{2+}$)"</t>
+  </si>
+  <si>
+    <t>"(Ca$^{2+}$)"</t>
+  </si>
+  <si>
+    <t>"(Cl^-$)"</t>
+  </si>
+  <si>
+    <t>"(Br^-$)"</t>
+  </si>
+  <si>
+    <t>"(NO$_3$^-$)"</t>
+  </si>
+  <si>
+    <t>"(HSO$_4$^-$)"</t>
+  </si>
+  <si>
+    <t>"(SO$_4$^{2-}$)"</t>
+  </si>
+  <si>
     <t>[alc] = typical CHn in alcohols (only for use with "pure" alcohols, polyols); according to Marcolli and Peter (2005)</t>
   </si>
   <si>
@@ -510,6 +574,12 @@
     <t>CH3SO3-</t>
   </si>
   <si>
+    <t>"(CH3SO3-)"</t>
+  </si>
+  <si>
+    <t>(CH$_3$SO$_3$^-$)</t>
+  </si>
+  <si>
     <t>methanesulfonate anion</t>
   </si>
   <si>
@@ -526,9 +596,6 @@
   </si>
   <si>
     <t>these groups are not currently available in the model for interactions with ions</t>
-  </si>
-  <si>
-    <t>NOTE: we use subgroup 137 in AIOMFAC (unlike original UNIFAC)</t>
   </si>
   <si>
     <t>Inorganic ions</t>
@@ -580,248 +647,116 @@
     <t>AIOMFAC main groups and subgroups as available in the AIOMFAC-web model (exceptions indicated)</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>(H2O)</t>
-  </si>
-  <si>
-    <t>(H$_2$O)</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>(H+)</t>
-  </si>
-  <si>
-    <t>(H$^+$)</t>
-  </si>
-  <si>
-    <t>(Li+)</t>
-  </si>
-  <si>
-    <t>(Li$^+$)</t>
-  </si>
-  <si>
-    <t>(Na+)</t>
-  </si>
-  <si>
-    <t>(Na$^+$)</t>
-  </si>
-  <si>
-    <t>(K+)</t>
-  </si>
-  <si>
-    <t>(K$^+$)</t>
-  </si>
-  <si>
-    <t>(NH4+)</t>
-  </si>
-  <si>
-    <t>(NH$_4$$^+$)</t>
-  </si>
-  <si>
-    <t>(Mg++)</t>
-  </si>
-  <si>
-    <t>(Mg$^{2+}$)</t>
-  </si>
-  <si>
-    <t>(Ca++)</t>
-  </si>
-  <si>
-    <t>(Ca$^{2+}$)</t>
-  </si>
-  <si>
-    <t>(Cl-)</t>
-  </si>
-  <si>
-    <t>(Br-)</t>
-  </si>
-  <si>
-    <t>(NO3-)</t>
-  </si>
-  <si>
-    <t>(HSO4-)</t>
-  </si>
-  <si>
-    <t>(CH3SO3-)</t>
-  </si>
-  <si>
-    <t>(SO4--)</t>
-  </si>
-  <si>
     <t>I-</t>
   </si>
   <si>
-    <t>(I-)</t>
-  </si>
-  <si>
-    <t>(I$^-$)</t>
-  </si>
-  <si>
-    <t>(Br$^-$)</t>
-  </si>
-  <si>
-    <t>(Cl$^-$)</t>
-  </si>
-  <si>
-    <t>(NO$_3$$^-$)</t>
-  </si>
-  <si>
-    <t>(HSO$_4$$^-$)</t>
-  </si>
-  <si>
-    <t>(SO$_4$$^{2-}$)</t>
-  </si>
-  <si>
-    <t>(CH$_3$SO$_3$$^-$)</t>
-  </si>
-  <si>
-    <t>iodide is not yet available within the web-version of AIOMFAC (to be added in future)</t>
+    <t>"(I-)"</t>
+  </si>
+  <si>
+    <t>"(I$^-$)"</t>
+  </si>
+  <si>
+    <t>CO3--</t>
+  </si>
+  <si>
+    <t>"(CO3--)"</t>
+  </si>
+  <si>
+    <t>"(CO$_3$^{2-}$)"</t>
   </si>
   <si>
     <t>HCO3-</t>
   </si>
   <si>
-    <t>(HCO3-)</t>
-  </si>
-  <si>
-    <t>(HCO$_3$$^-$)</t>
-  </si>
-  <si>
-    <t>bicarbonate ion</t>
-  </si>
-  <si>
-    <t>CO3--</t>
-  </si>
-  <si>
-    <t>(CO3--)</t>
-  </si>
-  <si>
-    <t>(CO$_3$$^{2-}$)</t>
-  </si>
-  <si>
-    <t>CHnNH2</t>
-  </si>
-  <si>
-    <t>(CH2NH2)</t>
-  </si>
-  <si>
-    <t>(CH3NH2)</t>
-  </si>
-  <si>
-    <t>(CHNH2)</t>
-  </si>
-  <si>
-    <t>primary amines, also in amino acids; no interaction parameters with ions available presently; limited interaction parameters with other organic groups.</t>
-  </si>
-  <si>
-    <t>(CH$_3$NH$_2$)</t>
-  </si>
-  <si>
-    <t>(CH$_2$NH$_2$)</t>
-  </si>
-  <si>
-    <t>(CHNH$_2$)</t>
-  </si>
-  <si>
-    <t>65 (formerly 20)</t>
-  </si>
-  <si>
-    <t>CHnNO2</t>
-  </si>
-  <si>
-    <t>(CH3NO2)</t>
-  </si>
-  <si>
-    <t>(CH2NO2)</t>
-  </si>
-  <si>
-    <t>(CHNO2)</t>
-  </si>
-  <si>
-    <t>nitro groups are presently only supported in inorganic ion-free mixtures; limited interaction parameters with other organic groups;</t>
-  </si>
-  <si>
-    <t>(CH$_3$NO$_2$)</t>
-  </si>
-  <si>
-    <t>(CH$_2$NO$_2$)</t>
-  </si>
-  <si>
-    <t>(CHNO$_2$)</t>
-  </si>
-  <si>
-    <t>nitro (aliphatic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aromatic nitro </t>
-  </si>
-  <si>
-    <t>ACNO2</t>
-  </si>
-  <si>
-    <t>(ACNO2)</t>
-  </si>
-  <si>
-    <t>(ACNO$_2$)</t>
-  </si>
-  <si>
-    <t>aromatic nitro group; presently only supported in inorganic ion-free mixtures; limited interaction parameters with other organic groups;</t>
+    <t>"(HCO3-)"</t>
+  </si>
+  <si>
+    <t>"(HCO$_3$^-$)"</t>
+  </si>
+  <si>
+    <t>IO3-</t>
+  </si>
+  <si>
+    <t>"(IO3-)"</t>
+  </si>
+  <si>
+    <t>"(IO$_3$^-$)"</t>
+  </si>
+  <si>
+    <t>CO2(aq)</t>
   </si>
   <si>
     <t>CO2</t>
   </si>
   <si>
-    <t>(CO2)</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
-    <t>(CO$_2$)</t>
-  </si>
-  <si>
-    <t>carbon dioxide as an inorganic neutral molecule / main group and subgroup</t>
-  </si>
-  <si>
-    <t>amine (primary)</t>
-  </si>
-  <si>
-    <t>amine (secondary)</t>
-  </si>
-  <si>
-    <t>CHnNH</t>
-  </si>
-  <si>
-    <t>(CH3NH)</t>
-  </si>
-  <si>
-    <t>(CH2NH)</t>
-  </si>
-  <si>
-    <t>(CHNH)</t>
-  </si>
-  <si>
-    <t>(CH$_3$NH)</t>
-  </si>
-  <si>
-    <t>(CH$_2$NH)</t>
-  </si>
-  <si>
-    <t>secondary amines; no interaction parameters with ions available presently; limited interaction parameters with other organic groups.</t>
+    <t>(CO2[aq])</t>
+  </si>
+  <si>
+    <t>(CO$_2$[aq])</t>
+  </si>
+  <si>
+    <t>OH-</t>
+  </si>
+  <si>
+    <t>"(OH-)"</t>
+  </si>
+  <si>
+    <t>"(OH$^-$)"</t>
+  </si>
+  <si>
+    <t>"(HMalo-)"</t>
+  </si>
+  <si>
+    <t>Malo--</t>
+  </si>
+  <si>
+    <t>"(Malo--)"</t>
+  </si>
+  <si>
+    <t>"(Malo^{2-}$)"</t>
+  </si>
+  <si>
+    <t>HMalo-</t>
+  </si>
+  <si>
+    <t>HGlut-</t>
+  </si>
+  <si>
+    <t>Glut--</t>
+  </si>
+  <si>
+    <t>"(Glut--)"</t>
+  </si>
+  <si>
+    <t>"(Glut^{2-}$)"</t>
+  </si>
+  <si>
+    <t>"(HGlut-)"</t>
+  </si>
+  <si>
+    <t>"(HGlut$^-$)"</t>
+  </si>
+  <si>
+    <t>"(HMalo$^-$)"</t>
+  </si>
+  <si>
+    <t>20 (also 65)</t>
+  </si>
+  <si>
+    <t>NOTE: we use subgroup 137 in AIOMFAC (unlike original UNIFAC); main group 65 is the one from the Peng et al. modification of UNIFAC (e.g. used for dicarboxylic acids)</t>
+  </si>
+  <si>
+    <t>preliminary</t>
+  </si>
+  <si>
+    <t>as part of bicarbonate-containing mixtures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,6 +769,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -880,8 +822,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,29 +893,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1080,7 +1043,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -1098,7 +1061,7 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1167,184 +1130,141 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1683,10 +1603,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:UA114"/>
+  <dimension ref="A1:UA101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1702,17 +1622,17 @@
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:547" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+    <row r="1" spans="1:547" s="18" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="BN1"/>
       <c r="BO1"/>
       <c r="BP1"/>
@@ -2196,9 +2116,9 @@
       <c r="TZ1"/>
       <c r="UA1"/>
     </row>
-    <row r="2" spans="1:547" s="14" customFormat="1">
-      <c r="A2" s="14" t="s">
-        <v>169</v>
+    <row r="2" spans="1:547" s="17" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="BN2"/>
       <c r="BO2"/>
@@ -2683,9 +2603,9 @@
       <c r="TZ2"/>
       <c r="UA2"/>
     </row>
-    <row r="3" spans="1:547" s="14" customFormat="1">
-      <c r="A3" s="19" t="s">
-        <v>174</v>
+    <row r="3" spans="1:547" s="17" customFormat="1">
+      <c r="A3" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="BN3"/>
       <c r="BO3"/>
@@ -3170,7 +3090,7 @@
       <c r="TZ3"/>
       <c r="UA3"/>
     </row>
-    <row r="4" spans="1:547" s="14" customFormat="1" ht="15" thickBot="1">
+    <row r="4" spans="1:547" s="17" customFormat="1" ht="15" thickBot="1">
       <c r="BN4"/>
       <c r="BO4"/>
       <c r="BP4"/>
@@ -3655,292 +3575,1368 @@
       <c r="UA4"/>
     </row>
     <row r="5" spans="1:547" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A5" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:547" ht="18">
-      <c r="A6" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="76"/>
+      <c r="H5" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:547" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A6" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:547">
-      <c r="A7" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="49">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:547">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="36">
+        <v>2</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:547">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="36">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:547">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="36">
+        <v>4</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:547">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="27">
+        <v>2</v>
+      </c>
+      <c r="D11" s="37">
+        <v>5</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:547">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="37">
+        <v>6</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:547">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="37">
         <v>7</v>
       </c>
-      <c r="D7" s="50">
-        <v>16</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="1:547" ht="21.75" customHeight="1">
-      <c r="A8" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="76"/>
-    </row>
-    <row r="9" spans="1:547">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="E13" s="31"/>
+      <c r="F13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:547">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="37">
+        <v>8</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:547">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="37">
+        <v>70</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:547">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="26">
+        <v>3</v>
+      </c>
+      <c r="D16" s="36">
         <v>9</v>
       </c>
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="40">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:547">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="29">
-        <v>2</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:547">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="29">
-        <v>3</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:547">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="29">
+      <c r="E16" s="30"/>
+      <c r="F16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:547">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="36">
+        <v>10</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:547" s="2" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="28">
         <v>4</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:547">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="21">
-        <v>2</v>
-      </c>
-      <c r="D13" s="30">
-        <v>5</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:547">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="30">
-        <v>6</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:547">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="30">
-        <v>7</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:547">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="30">
-        <v>8</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:547">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="30">
-        <v>70</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:547">
-      <c r="A18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="20">
-        <v>3</v>
-      </c>
-      <c r="D18" s="29">
-        <v>9</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:547">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="29">
-        <v>10</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="D18" s="38">
+        <v>11</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
+      <c r="CI18"/>
+      <c r="CJ18"/>
+      <c r="CK18"/>
+      <c r="CL18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CO18"/>
+      <c r="CP18"/>
+      <c r="CQ18"/>
+      <c r="CR18"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
+      <c r="CU18"/>
+      <c r="CV18"/>
+      <c r="CW18"/>
+      <c r="CX18"/>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
+      <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+      <c r="DP18"/>
+      <c r="DQ18"/>
+      <c r="DR18"/>
+      <c r="DS18"/>
+      <c r="DT18"/>
+      <c r="DU18"/>
+      <c r="DV18"/>
+      <c r="DW18"/>
+      <c r="DX18"/>
+      <c r="DY18"/>
+      <c r="DZ18"/>
+      <c r="EA18"/>
+      <c r="EB18"/>
+      <c r="EC18"/>
+      <c r="ED18"/>
+      <c r="EE18"/>
+      <c r="EF18"/>
+      <c r="EG18"/>
+      <c r="EH18"/>
+      <c r="EI18"/>
+      <c r="EJ18"/>
+      <c r="EK18"/>
+      <c r="EL18"/>
+      <c r="EM18"/>
+      <c r="EN18"/>
+      <c r="EO18"/>
+      <c r="EP18"/>
+      <c r="EQ18"/>
+      <c r="ER18"/>
+      <c r="ES18"/>
+      <c r="ET18"/>
+      <c r="EU18"/>
+      <c r="EV18"/>
+      <c r="EW18"/>
+      <c r="EX18"/>
+      <c r="EY18"/>
+      <c r="EZ18"/>
+      <c r="FA18"/>
+      <c r="FB18"/>
+      <c r="FC18"/>
+      <c r="FD18"/>
+      <c r="FE18"/>
+      <c r="FF18"/>
+      <c r="FG18"/>
+      <c r="FH18"/>
+      <c r="FI18"/>
+      <c r="FJ18"/>
+      <c r="FK18"/>
+      <c r="FL18"/>
+      <c r="FM18"/>
+      <c r="FN18"/>
+      <c r="FO18"/>
+      <c r="FP18"/>
+      <c r="FQ18"/>
+      <c r="FR18"/>
+      <c r="FS18"/>
+      <c r="FT18"/>
+      <c r="FU18"/>
+      <c r="FV18"/>
+      <c r="FW18"/>
+      <c r="FX18"/>
+      <c r="FY18"/>
+      <c r="FZ18"/>
+      <c r="GA18"/>
+      <c r="GB18"/>
+      <c r="GC18"/>
+      <c r="GD18"/>
+      <c r="GE18"/>
+      <c r="GF18"/>
+      <c r="GG18"/>
+      <c r="GH18"/>
+      <c r="GI18"/>
+      <c r="GJ18"/>
+      <c r="GK18"/>
+      <c r="GL18"/>
+      <c r="GM18"/>
+      <c r="GN18"/>
+      <c r="GO18"/>
+      <c r="GP18"/>
+      <c r="GQ18"/>
+      <c r="GR18"/>
+      <c r="GS18"/>
+      <c r="GT18"/>
+      <c r="GU18"/>
+      <c r="GV18"/>
+      <c r="GW18"/>
+      <c r="GX18"/>
+      <c r="GY18"/>
+      <c r="GZ18"/>
+      <c r="HA18"/>
+      <c r="HB18"/>
+      <c r="HC18"/>
+      <c r="HD18"/>
+      <c r="HE18"/>
+      <c r="HF18"/>
+      <c r="HG18"/>
+      <c r="HH18"/>
+      <c r="HI18"/>
+      <c r="HJ18"/>
+      <c r="HK18"/>
+      <c r="HL18"/>
+      <c r="HM18"/>
+      <c r="HN18"/>
+      <c r="HO18"/>
+      <c r="HP18"/>
+      <c r="HQ18"/>
+      <c r="HR18"/>
+      <c r="HS18"/>
+      <c r="HT18"/>
+      <c r="HU18"/>
+      <c r="HV18"/>
+      <c r="HW18"/>
+      <c r="HX18"/>
+      <c r="HY18"/>
+      <c r="HZ18"/>
+      <c r="IA18"/>
+      <c r="IB18"/>
+      <c r="IC18"/>
+      <c r="ID18"/>
+      <c r="IE18"/>
+      <c r="IF18"/>
+      <c r="IG18"/>
+      <c r="IH18"/>
+      <c r="II18"/>
+      <c r="IJ18"/>
+      <c r="IK18"/>
+      <c r="IL18"/>
+      <c r="IM18"/>
+      <c r="IN18"/>
+      <c r="IO18"/>
+      <c r="IP18"/>
+      <c r="IQ18"/>
+      <c r="IR18"/>
+      <c r="IS18"/>
+      <c r="IT18"/>
+      <c r="IU18"/>
+      <c r="IV18"/>
+      <c r="IW18"/>
+      <c r="IX18"/>
+      <c r="IY18"/>
+      <c r="IZ18"/>
+      <c r="JA18"/>
+      <c r="JB18"/>
+      <c r="JC18"/>
+      <c r="JD18"/>
+      <c r="JE18"/>
+      <c r="JF18"/>
+      <c r="JG18"/>
+      <c r="JH18"/>
+      <c r="JI18"/>
+      <c r="JJ18"/>
+      <c r="JK18"/>
+      <c r="JL18"/>
+      <c r="JM18"/>
+      <c r="JN18"/>
+      <c r="JO18"/>
+      <c r="JP18"/>
+      <c r="JQ18"/>
+      <c r="JR18"/>
+      <c r="JS18"/>
+      <c r="JT18"/>
+      <c r="JU18"/>
+      <c r="JV18"/>
+      <c r="JW18"/>
+      <c r="JX18"/>
+      <c r="JY18"/>
+      <c r="JZ18"/>
+      <c r="KA18"/>
+      <c r="KB18"/>
+      <c r="KC18"/>
+      <c r="KD18"/>
+      <c r="KE18"/>
+      <c r="KF18"/>
+      <c r="KG18"/>
+      <c r="KH18"/>
+      <c r="KI18"/>
+      <c r="KJ18"/>
+      <c r="KK18"/>
+      <c r="KL18"/>
+      <c r="KM18"/>
+      <c r="KN18"/>
+      <c r="KO18"/>
+      <c r="KP18"/>
+      <c r="KQ18"/>
+      <c r="KR18"/>
+      <c r="KS18"/>
+      <c r="KT18"/>
+      <c r="KU18"/>
+      <c r="KV18"/>
+      <c r="KW18"/>
+      <c r="KX18"/>
+      <c r="KY18"/>
+      <c r="KZ18"/>
+      <c r="LA18"/>
+      <c r="LB18"/>
+      <c r="LC18"/>
+      <c r="LD18"/>
+      <c r="LE18"/>
+      <c r="LF18"/>
+      <c r="LG18"/>
+      <c r="LH18"/>
+      <c r="LI18"/>
+      <c r="LJ18"/>
+      <c r="LK18"/>
+      <c r="LL18"/>
+      <c r="LM18"/>
+      <c r="LN18"/>
+      <c r="LO18"/>
+      <c r="LP18"/>
+      <c r="LQ18"/>
+      <c r="LR18"/>
+      <c r="LS18"/>
+      <c r="LT18"/>
+      <c r="LU18"/>
+      <c r="LV18"/>
+      <c r="LW18"/>
+      <c r="LX18"/>
+      <c r="LY18"/>
+      <c r="LZ18"/>
+      <c r="MA18"/>
+      <c r="MB18"/>
+      <c r="MC18"/>
+      <c r="MD18"/>
+      <c r="ME18"/>
+      <c r="MF18"/>
+      <c r="MG18"/>
+      <c r="MH18"/>
+      <c r="MI18"/>
+      <c r="MJ18"/>
+      <c r="MK18"/>
+      <c r="ML18"/>
+      <c r="MM18"/>
+      <c r="MN18"/>
+      <c r="MO18"/>
+      <c r="MP18"/>
+      <c r="MQ18"/>
+      <c r="MR18"/>
+      <c r="MS18"/>
+      <c r="MT18"/>
+      <c r="MU18"/>
+      <c r="MV18"/>
+      <c r="MW18"/>
+      <c r="MX18"/>
+      <c r="MY18"/>
+      <c r="MZ18"/>
+      <c r="NA18"/>
+      <c r="NB18"/>
+      <c r="NC18"/>
+      <c r="ND18"/>
+      <c r="NE18"/>
+      <c r="NF18"/>
+      <c r="NG18"/>
+      <c r="NH18"/>
+      <c r="NI18"/>
+      <c r="NJ18"/>
+      <c r="NK18"/>
+      <c r="NL18"/>
+      <c r="NM18"/>
+      <c r="NN18"/>
+      <c r="NO18"/>
+      <c r="NP18"/>
+      <c r="NQ18"/>
+      <c r="NR18"/>
+      <c r="NS18"/>
+      <c r="NT18"/>
+      <c r="NU18"/>
+      <c r="NV18"/>
+      <c r="NW18"/>
+      <c r="NX18"/>
+      <c r="NY18"/>
+      <c r="NZ18"/>
+      <c r="OA18"/>
+      <c r="OB18"/>
+      <c r="OC18"/>
+      <c r="OD18"/>
+      <c r="OE18"/>
+      <c r="OF18"/>
+      <c r="OG18"/>
+      <c r="OH18"/>
+      <c r="OI18"/>
+      <c r="OJ18"/>
+      <c r="OK18"/>
+      <c r="OL18"/>
+      <c r="OM18"/>
+      <c r="ON18"/>
+      <c r="OO18"/>
+      <c r="OP18"/>
+      <c r="OQ18"/>
+      <c r="OR18"/>
+      <c r="OS18"/>
+      <c r="OT18"/>
+      <c r="OU18"/>
+      <c r="OV18"/>
+      <c r="OW18"/>
+      <c r="OX18"/>
+      <c r="OY18"/>
+      <c r="OZ18"/>
+      <c r="PA18"/>
+      <c r="PB18"/>
+      <c r="PC18"/>
+      <c r="PD18"/>
+      <c r="PE18"/>
+      <c r="PF18"/>
+      <c r="PG18"/>
+      <c r="PH18"/>
+      <c r="PI18"/>
+      <c r="PJ18"/>
+      <c r="PK18"/>
+      <c r="PL18"/>
+      <c r="PM18"/>
+      <c r="PN18"/>
+      <c r="PO18"/>
+      <c r="PP18"/>
+      <c r="PQ18"/>
+      <c r="PR18"/>
+      <c r="PS18"/>
+      <c r="PT18"/>
+      <c r="PU18"/>
+      <c r="PV18"/>
+      <c r="PW18"/>
+      <c r="PX18"/>
+      <c r="PY18"/>
+      <c r="PZ18"/>
+      <c r="QA18"/>
+      <c r="QB18"/>
+      <c r="QC18"/>
+      <c r="QD18"/>
+      <c r="QE18"/>
+      <c r="QF18"/>
+      <c r="QG18"/>
+      <c r="QH18"/>
+      <c r="QI18"/>
+      <c r="QJ18"/>
+      <c r="QK18"/>
+      <c r="QL18"/>
+      <c r="QM18"/>
+      <c r="QN18"/>
+      <c r="QO18"/>
+      <c r="QP18"/>
+      <c r="QQ18"/>
+      <c r="QR18"/>
+      <c r="QS18"/>
+      <c r="QT18"/>
+      <c r="QU18"/>
+      <c r="QV18"/>
+      <c r="QW18"/>
+      <c r="QX18"/>
+      <c r="QY18"/>
+      <c r="QZ18"/>
+      <c r="RA18"/>
+      <c r="RB18"/>
+      <c r="RC18"/>
+      <c r="RD18"/>
+      <c r="RE18"/>
+      <c r="RF18"/>
+      <c r="RG18"/>
+      <c r="RH18"/>
+      <c r="RI18"/>
+      <c r="RJ18"/>
+      <c r="RK18"/>
+      <c r="RL18"/>
+      <c r="RM18"/>
+      <c r="RN18"/>
+      <c r="RO18"/>
+      <c r="RP18"/>
+      <c r="RQ18"/>
+      <c r="RR18"/>
+      <c r="RS18"/>
+      <c r="RT18"/>
+      <c r="RU18"/>
+      <c r="RV18"/>
+      <c r="RW18"/>
+      <c r="RX18"/>
+      <c r="RY18"/>
+      <c r="RZ18"/>
+      <c r="SA18"/>
+      <c r="SB18"/>
+      <c r="SC18"/>
+      <c r="SD18"/>
+      <c r="SE18"/>
+      <c r="SF18"/>
+      <c r="SG18"/>
+      <c r="SH18"/>
+      <c r="SI18"/>
+      <c r="SJ18"/>
+      <c r="SK18"/>
+      <c r="SL18"/>
+      <c r="SM18"/>
+      <c r="SN18"/>
+      <c r="SO18"/>
+      <c r="SP18"/>
+      <c r="SQ18"/>
+      <c r="SR18"/>
+      <c r="SS18"/>
+      <c r="ST18"/>
+      <c r="SU18"/>
+      <c r="SV18"/>
+      <c r="SW18"/>
+      <c r="SX18"/>
+      <c r="SY18"/>
+      <c r="SZ18"/>
+      <c r="TA18"/>
+      <c r="TB18"/>
+      <c r="TC18"/>
+      <c r="TD18"/>
+      <c r="TE18"/>
+      <c r="TF18"/>
+      <c r="TG18"/>
+      <c r="TH18"/>
+      <c r="TI18"/>
+      <c r="TJ18"/>
+      <c r="TK18"/>
+      <c r="TL18"/>
+      <c r="TM18"/>
+      <c r="TN18"/>
+      <c r="TO18"/>
+      <c r="TP18"/>
+      <c r="TQ18"/>
+      <c r="TR18"/>
+      <c r="TS18"/>
+      <c r="TT18"/>
+      <c r="TU18"/>
+      <c r="TV18"/>
+      <c r="TW18"/>
+      <c r="TX18"/>
+      <c r="TY18"/>
+      <c r="TZ18"/>
+      <c r="UA18"/>
+    </row>
+    <row r="19" spans="1:547" s="2" customFormat="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="38">
+        <v>12</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
+      <c r="CJ19"/>
+      <c r="CK19"/>
+      <c r="CL19"/>
+      <c r="CM19"/>
+      <c r="CN19"/>
+      <c r="CO19"/>
+      <c r="CP19"/>
+      <c r="CQ19"/>
+      <c r="CR19"/>
+      <c r="CS19"/>
+      <c r="CT19"/>
+      <c r="CU19"/>
+      <c r="CV19"/>
+      <c r="CW19"/>
+      <c r="CX19"/>
+      <c r="CY19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DB19"/>
+      <c r="DC19"/>
+      <c r="DD19"/>
+      <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19"/>
+      <c r="DH19"/>
+      <c r="DI19"/>
+      <c r="DJ19"/>
+      <c r="DK19"/>
+      <c r="DL19"/>
+      <c r="DM19"/>
+      <c r="DN19"/>
+      <c r="DO19"/>
+      <c r="DP19"/>
+      <c r="DQ19"/>
+      <c r="DR19"/>
+      <c r="DS19"/>
+      <c r="DT19"/>
+      <c r="DU19"/>
+      <c r="DV19"/>
+      <c r="DW19"/>
+      <c r="DX19"/>
+      <c r="DY19"/>
+      <c r="DZ19"/>
+      <c r="EA19"/>
+      <c r="EB19"/>
+      <c r="EC19"/>
+      <c r="ED19"/>
+      <c r="EE19"/>
+      <c r="EF19"/>
+      <c r="EG19"/>
+      <c r="EH19"/>
+      <c r="EI19"/>
+      <c r="EJ19"/>
+      <c r="EK19"/>
+      <c r="EL19"/>
+      <c r="EM19"/>
+      <c r="EN19"/>
+      <c r="EO19"/>
+      <c r="EP19"/>
+      <c r="EQ19"/>
+      <c r="ER19"/>
+      <c r="ES19"/>
+      <c r="ET19"/>
+      <c r="EU19"/>
+      <c r="EV19"/>
+      <c r="EW19"/>
+      <c r="EX19"/>
+      <c r="EY19"/>
+      <c r="EZ19"/>
+      <c r="FA19"/>
+      <c r="FB19"/>
+      <c r="FC19"/>
+      <c r="FD19"/>
+      <c r="FE19"/>
+      <c r="FF19"/>
+      <c r="FG19"/>
+      <c r="FH19"/>
+      <c r="FI19"/>
+      <c r="FJ19"/>
+      <c r="FK19"/>
+      <c r="FL19"/>
+      <c r="FM19"/>
+      <c r="FN19"/>
+      <c r="FO19"/>
+      <c r="FP19"/>
+      <c r="FQ19"/>
+      <c r="FR19"/>
+      <c r="FS19"/>
+      <c r="FT19"/>
+      <c r="FU19"/>
+      <c r="FV19"/>
+      <c r="FW19"/>
+      <c r="FX19"/>
+      <c r="FY19"/>
+      <c r="FZ19"/>
+      <c r="GA19"/>
+      <c r="GB19"/>
+      <c r="GC19"/>
+      <c r="GD19"/>
+      <c r="GE19"/>
+      <c r="GF19"/>
+      <c r="GG19"/>
+      <c r="GH19"/>
+      <c r="GI19"/>
+      <c r="GJ19"/>
+      <c r="GK19"/>
+      <c r="GL19"/>
+      <c r="GM19"/>
+      <c r="GN19"/>
+      <c r="GO19"/>
+      <c r="GP19"/>
+      <c r="GQ19"/>
+      <c r="GR19"/>
+      <c r="GS19"/>
+      <c r="GT19"/>
+      <c r="GU19"/>
+      <c r="GV19"/>
+      <c r="GW19"/>
+      <c r="GX19"/>
+      <c r="GY19"/>
+      <c r="GZ19"/>
+      <c r="HA19"/>
+      <c r="HB19"/>
+      <c r="HC19"/>
+      <c r="HD19"/>
+      <c r="HE19"/>
+      <c r="HF19"/>
+      <c r="HG19"/>
+      <c r="HH19"/>
+      <c r="HI19"/>
+      <c r="HJ19"/>
+      <c r="HK19"/>
+      <c r="HL19"/>
+      <c r="HM19"/>
+      <c r="HN19"/>
+      <c r="HO19"/>
+      <c r="HP19"/>
+      <c r="HQ19"/>
+      <c r="HR19"/>
+      <c r="HS19"/>
+      <c r="HT19"/>
+      <c r="HU19"/>
+      <c r="HV19"/>
+      <c r="HW19"/>
+      <c r="HX19"/>
+      <c r="HY19"/>
+      <c r="HZ19"/>
+      <c r="IA19"/>
+      <c r="IB19"/>
+      <c r="IC19"/>
+      <c r="ID19"/>
+      <c r="IE19"/>
+      <c r="IF19"/>
+      <c r="IG19"/>
+      <c r="IH19"/>
+      <c r="II19"/>
+      <c r="IJ19"/>
+      <c r="IK19"/>
+      <c r="IL19"/>
+      <c r="IM19"/>
+      <c r="IN19"/>
+      <c r="IO19"/>
+      <c r="IP19"/>
+      <c r="IQ19"/>
+      <c r="IR19"/>
+      <c r="IS19"/>
+      <c r="IT19"/>
+      <c r="IU19"/>
+      <c r="IV19"/>
+      <c r="IW19"/>
+      <c r="IX19"/>
+      <c r="IY19"/>
+      <c r="IZ19"/>
+      <c r="JA19"/>
+      <c r="JB19"/>
+      <c r="JC19"/>
+      <c r="JD19"/>
+      <c r="JE19"/>
+      <c r="JF19"/>
+      <c r="JG19"/>
+      <c r="JH19"/>
+      <c r="JI19"/>
+      <c r="JJ19"/>
+      <c r="JK19"/>
+      <c r="JL19"/>
+      <c r="JM19"/>
+      <c r="JN19"/>
+      <c r="JO19"/>
+      <c r="JP19"/>
+      <c r="JQ19"/>
+      <c r="JR19"/>
+      <c r="JS19"/>
+      <c r="JT19"/>
+      <c r="JU19"/>
+      <c r="JV19"/>
+      <c r="JW19"/>
+      <c r="JX19"/>
+      <c r="JY19"/>
+      <c r="JZ19"/>
+      <c r="KA19"/>
+      <c r="KB19"/>
+      <c r="KC19"/>
+      <c r="KD19"/>
+      <c r="KE19"/>
+      <c r="KF19"/>
+      <c r="KG19"/>
+      <c r="KH19"/>
+      <c r="KI19"/>
+      <c r="KJ19"/>
+      <c r="KK19"/>
+      <c r="KL19"/>
+      <c r="KM19"/>
+      <c r="KN19"/>
+      <c r="KO19"/>
+      <c r="KP19"/>
+      <c r="KQ19"/>
+      <c r="KR19"/>
+      <c r="KS19"/>
+      <c r="KT19"/>
+      <c r="KU19"/>
+      <c r="KV19"/>
+      <c r="KW19"/>
+      <c r="KX19"/>
+      <c r="KY19"/>
+      <c r="KZ19"/>
+      <c r="LA19"/>
+      <c r="LB19"/>
+      <c r="LC19"/>
+      <c r="LD19"/>
+      <c r="LE19"/>
+      <c r="LF19"/>
+      <c r="LG19"/>
+      <c r="LH19"/>
+      <c r="LI19"/>
+      <c r="LJ19"/>
+      <c r="LK19"/>
+      <c r="LL19"/>
+      <c r="LM19"/>
+      <c r="LN19"/>
+      <c r="LO19"/>
+      <c r="LP19"/>
+      <c r="LQ19"/>
+      <c r="LR19"/>
+      <c r="LS19"/>
+      <c r="LT19"/>
+      <c r="LU19"/>
+      <c r="LV19"/>
+      <c r="LW19"/>
+      <c r="LX19"/>
+      <c r="LY19"/>
+      <c r="LZ19"/>
+      <c r="MA19"/>
+      <c r="MB19"/>
+      <c r="MC19"/>
+      <c r="MD19"/>
+      <c r="ME19"/>
+      <c r="MF19"/>
+      <c r="MG19"/>
+      <c r="MH19"/>
+      <c r="MI19"/>
+      <c r="MJ19"/>
+      <c r="MK19"/>
+      <c r="ML19"/>
+      <c r="MM19"/>
+      <c r="MN19"/>
+      <c r="MO19"/>
+      <c r="MP19"/>
+      <c r="MQ19"/>
+      <c r="MR19"/>
+      <c r="MS19"/>
+      <c r="MT19"/>
+      <c r="MU19"/>
+      <c r="MV19"/>
+      <c r="MW19"/>
+      <c r="MX19"/>
+      <c r="MY19"/>
+      <c r="MZ19"/>
+      <c r="NA19"/>
+      <c r="NB19"/>
+      <c r="NC19"/>
+      <c r="ND19"/>
+      <c r="NE19"/>
+      <c r="NF19"/>
+      <c r="NG19"/>
+      <c r="NH19"/>
+      <c r="NI19"/>
+      <c r="NJ19"/>
+      <c r="NK19"/>
+      <c r="NL19"/>
+      <c r="NM19"/>
+      <c r="NN19"/>
+      <c r="NO19"/>
+      <c r="NP19"/>
+      <c r="NQ19"/>
+      <c r="NR19"/>
+      <c r="NS19"/>
+      <c r="NT19"/>
+      <c r="NU19"/>
+      <c r="NV19"/>
+      <c r="NW19"/>
+      <c r="NX19"/>
+      <c r="NY19"/>
+      <c r="NZ19"/>
+      <c r="OA19"/>
+      <c r="OB19"/>
+      <c r="OC19"/>
+      <c r="OD19"/>
+      <c r="OE19"/>
+      <c r="OF19"/>
+      <c r="OG19"/>
+      <c r="OH19"/>
+      <c r="OI19"/>
+      <c r="OJ19"/>
+      <c r="OK19"/>
+      <c r="OL19"/>
+      <c r="OM19"/>
+      <c r="ON19"/>
+      <c r="OO19"/>
+      <c r="OP19"/>
+      <c r="OQ19"/>
+      <c r="OR19"/>
+      <c r="OS19"/>
+      <c r="OT19"/>
+      <c r="OU19"/>
+      <c r="OV19"/>
+      <c r="OW19"/>
+      <c r="OX19"/>
+      <c r="OY19"/>
+      <c r="OZ19"/>
+      <c r="PA19"/>
+      <c r="PB19"/>
+      <c r="PC19"/>
+      <c r="PD19"/>
+      <c r="PE19"/>
+      <c r="PF19"/>
+      <c r="PG19"/>
+      <c r="PH19"/>
+      <c r="PI19"/>
+      <c r="PJ19"/>
+      <c r="PK19"/>
+      <c r="PL19"/>
+      <c r="PM19"/>
+      <c r="PN19"/>
+      <c r="PO19"/>
+      <c r="PP19"/>
+      <c r="PQ19"/>
+      <c r="PR19"/>
+      <c r="PS19"/>
+      <c r="PT19"/>
+      <c r="PU19"/>
+      <c r="PV19"/>
+      <c r="PW19"/>
+      <c r="PX19"/>
+      <c r="PY19"/>
+      <c r="PZ19"/>
+      <c r="QA19"/>
+      <c r="QB19"/>
+      <c r="QC19"/>
+      <c r="QD19"/>
+      <c r="QE19"/>
+      <c r="QF19"/>
+      <c r="QG19"/>
+      <c r="QH19"/>
+      <c r="QI19"/>
+      <c r="QJ19"/>
+      <c r="QK19"/>
+      <c r="QL19"/>
+      <c r="QM19"/>
+      <c r="QN19"/>
+      <c r="QO19"/>
+      <c r="QP19"/>
+      <c r="QQ19"/>
+      <c r="QR19"/>
+      <c r="QS19"/>
+      <c r="QT19"/>
+      <c r="QU19"/>
+      <c r="QV19"/>
+      <c r="QW19"/>
+      <c r="QX19"/>
+      <c r="QY19"/>
+      <c r="QZ19"/>
+      <c r="RA19"/>
+      <c r="RB19"/>
+      <c r="RC19"/>
+      <c r="RD19"/>
+      <c r="RE19"/>
+      <c r="RF19"/>
+      <c r="RG19"/>
+      <c r="RH19"/>
+      <c r="RI19"/>
+      <c r="RJ19"/>
+      <c r="RK19"/>
+      <c r="RL19"/>
+      <c r="RM19"/>
+      <c r="RN19"/>
+      <c r="RO19"/>
+      <c r="RP19"/>
+      <c r="RQ19"/>
+      <c r="RR19"/>
+      <c r="RS19"/>
+      <c r="RT19"/>
+      <c r="RU19"/>
+      <c r="RV19"/>
+      <c r="RW19"/>
+      <c r="RX19"/>
+      <c r="RY19"/>
+      <c r="RZ19"/>
+      <c r="SA19"/>
+      <c r="SB19"/>
+      <c r="SC19"/>
+      <c r="SD19"/>
+      <c r="SE19"/>
+      <c r="SF19"/>
+      <c r="SG19"/>
+      <c r="SH19"/>
+      <c r="SI19"/>
+      <c r="SJ19"/>
+      <c r="SK19"/>
+      <c r="SL19"/>
+      <c r="SM19"/>
+      <c r="SN19"/>
+      <c r="SO19"/>
+      <c r="SP19"/>
+      <c r="SQ19"/>
+      <c r="SR19"/>
+      <c r="SS19"/>
+      <c r="ST19"/>
+      <c r="SU19"/>
+      <c r="SV19"/>
+      <c r="SW19"/>
+      <c r="SX19"/>
+      <c r="SY19"/>
+      <c r="SZ19"/>
+      <c r="TA19"/>
+      <c r="TB19"/>
+      <c r="TC19"/>
+      <c r="TD19"/>
+      <c r="TE19"/>
+      <c r="TF19"/>
+      <c r="TG19"/>
+      <c r="TH19"/>
+      <c r="TI19"/>
+      <c r="TJ19"/>
+      <c r="TK19"/>
+      <c r="TL19"/>
+      <c r="TM19"/>
+      <c r="TN19"/>
+      <c r="TO19"/>
+      <c r="TP19"/>
+      <c r="TQ19"/>
+      <c r="TR19"/>
+      <c r="TS19"/>
+      <c r="TT19"/>
+      <c r="TU19"/>
+      <c r="TV19"/>
+      <c r="TW19"/>
+      <c r="TX19"/>
+      <c r="TY19"/>
+      <c r="TZ19"/>
+      <c r="UA19"/>
     </row>
     <row r="20" spans="1:547" s="2" customFormat="1">
-      <c r="A20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="22">
-        <v>4</v>
-      </c>
-      <c r="D20" s="31">
-        <v>11</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>165</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="38">
+        <v>13</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="14"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -4481,2663 +5477,1894 @@
       <c r="TZ20"/>
       <c r="UA20"/>
     </row>
-    <row r="21" spans="1:547" s="2" customFormat="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="31">
+    <row r="21" spans="1:547">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="27">
+        <v>69</v>
+      </c>
+      <c r="D21" s="37">
+        <v>153</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:547">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="26">
+        <v>8</v>
+      </c>
+      <c r="D22" s="36">
+        <v>17</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:547">
+      <c r="A23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="26">
+        <v>9</v>
+      </c>
+      <c r="D23" s="36">
+        <v>18</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:547">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="36">
+        <v>19</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:547">
+      <c r="A25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="27">
+        <v>10</v>
+      </c>
+      <c r="D25" s="37">
+        <v>20</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:547">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="26">
+        <v>11</v>
+      </c>
+      <c r="D26" s="36">
+        <v>21</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:547">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="36">
+        <v>22</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:547">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="27">
+        <v>13</v>
+      </c>
+      <c r="D28" s="37">
+        <v>24</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:547">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="37">
+        <v>25</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:547">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="37">
+        <v>26</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:547">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="37">
+        <v>27</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:547">
+      <c r="A32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="44" t="s">
+      <c r="C32" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="36">
+        <v>137</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="39">
+        <v>43</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="27">
+        <v>66</v>
+      </c>
+      <c r="D34" s="37">
+        <v>141</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="37">
+        <v>142</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="37">
+        <v>143</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="37">
+        <v>144</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="28.8">
+      <c r="A38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="26">
+        <v>67</v>
+      </c>
+      <c r="D38" s="36">
+        <v>145</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="36">
+        <v>146</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="36">
+        <v>147</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="36">
+        <v>148</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" ht="28.8">
+      <c r="A42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="27">
+        <v>68</v>
+      </c>
+      <c r="D42" s="37">
+        <v>149</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="37">
+        <v>150</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="37">
+        <v>151</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="37">
+        <v>152</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="9"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="28">
+        <v>70</v>
+      </c>
+      <c r="D47" s="40">
+        <v>154</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="9"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="26">
+        <v>71</v>
+      </c>
+      <c r="D49" s="36">
+        <v>155</v>
+      </c>
+      <c r="E49" s="30"/>
+      <c r="F49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="36">
+        <v>156</v>
+      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="36">
+        <v>157</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="27">
+        <v>72</v>
+      </c>
+      <c r="D52" s="37">
+        <v>158</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="37">
+        <v>159</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="9"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="37">
+        <v>160</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="26">
+        <v>73</v>
+      </c>
+      <c r="D55" s="36">
+        <v>161</v>
+      </c>
+      <c r="E55" s="30"/>
+      <c r="F55" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="29">
+        <v>74</v>
+      </c>
+      <c r="D56" s="41">
+        <v>162</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="23"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="41">
+        <v>163</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="F57" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="23"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="41">
+        <v>164</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="23"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="41">
+        <v>165</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="23"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="41">
+        <v>166</v>
+      </c>
+      <c r="E60" s="34"/>
+      <c r="F60" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="23"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="41">
+        <v>167</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="23"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="41">
+        <v>168</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="23"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="41">
+        <v>169</v>
+      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="23"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="41">
+        <v>170</v>
+      </c>
+      <c r="E64" s="34"/>
+      <c r="F64" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="1:547">
+      <c r="A65" s="23"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="41">
+        <v>171</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:547">
+      <c r="A66" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="26">
+        <v>75</v>
+      </c>
+      <c r="D66" s="36">
+        <v>172</v>
+      </c>
+      <c r="E66" s="30"/>
+      <c r="F66" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:547" s="47" customFormat="1">
+      <c r="A67" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="26">
+        <v>76</v>
+      </c>
+      <c r="D67" s="36">
+        <v>173</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:547">
+      <c r="A68" s="9"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:547">
+      <c r="A69" s="9"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:547" s="4" customFormat="1" ht="15" thickBot="1">
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
+      <c r="AL70"/>
+      <c r="AM70"/>
+      <c r="AN70"/>
+      <c r="AO70"/>
+      <c r="AP70"/>
+      <c r="AQ70"/>
+      <c r="AR70"/>
+      <c r="AS70"/>
+      <c r="AT70"/>
+      <c r="AU70"/>
+      <c r="AV70"/>
+      <c r="AW70"/>
+      <c r="AX70"/>
+      <c r="AY70"/>
+      <c r="AZ70"/>
+      <c r="BA70"/>
+      <c r="BB70"/>
+      <c r="BC70"/>
+      <c r="BD70"/>
+      <c r="BE70"/>
+      <c r="BF70"/>
+      <c r="BG70"/>
+      <c r="BH70"/>
+      <c r="BI70"/>
+      <c r="BJ70"/>
+      <c r="BK70"/>
+      <c r="BL70"/>
+      <c r="BM70"/>
+      <c r="BN70"/>
+      <c r="BO70"/>
+      <c r="BP70"/>
+      <c r="BQ70"/>
+      <c r="BR70"/>
+      <c r="BS70"/>
+      <c r="BT70"/>
+      <c r="BU70"/>
+      <c r="BV70"/>
+      <c r="BW70"/>
+      <c r="BX70"/>
+      <c r="BY70"/>
+      <c r="BZ70"/>
+      <c r="CA70"/>
+      <c r="CB70"/>
+      <c r="CC70"/>
+      <c r="CD70"/>
+      <c r="CE70"/>
+      <c r="CF70"/>
+      <c r="CG70"/>
+      <c r="CH70"/>
+      <c r="CI70"/>
+      <c r="CJ70"/>
+      <c r="CK70"/>
+      <c r="CL70"/>
+      <c r="CM70"/>
+      <c r="CN70"/>
+      <c r="CO70"/>
+      <c r="CP70"/>
+      <c r="CQ70"/>
+      <c r="CR70"/>
+      <c r="CS70"/>
+      <c r="CT70"/>
+      <c r="CU70"/>
+      <c r="CV70"/>
+      <c r="CW70"/>
+      <c r="CX70"/>
+      <c r="CY70"/>
+      <c r="CZ70"/>
+      <c r="DA70"/>
+      <c r="DB70"/>
+      <c r="DC70"/>
+      <c r="DD70"/>
+      <c r="DE70"/>
+      <c r="DF70"/>
+      <c r="DG70"/>
+      <c r="DH70"/>
+      <c r="DI70"/>
+      <c r="DJ70"/>
+      <c r="DK70"/>
+      <c r="DL70"/>
+      <c r="DM70"/>
+      <c r="DN70"/>
+      <c r="DO70"/>
+      <c r="DP70"/>
+      <c r="DQ70"/>
+      <c r="DR70"/>
+      <c r="DS70"/>
+      <c r="DT70"/>
+      <c r="DU70"/>
+      <c r="DV70"/>
+      <c r="DW70"/>
+      <c r="DX70"/>
+      <c r="DY70"/>
+      <c r="DZ70"/>
+      <c r="EA70"/>
+      <c r="EB70"/>
+      <c r="EC70"/>
+      <c r="ED70"/>
+      <c r="EE70"/>
+      <c r="EF70"/>
+      <c r="EG70"/>
+      <c r="EH70"/>
+      <c r="EI70"/>
+      <c r="EJ70"/>
+      <c r="EK70"/>
+      <c r="EL70"/>
+      <c r="EM70"/>
+      <c r="EN70"/>
+      <c r="EO70"/>
+      <c r="EP70"/>
+      <c r="EQ70"/>
+      <c r="ER70"/>
+      <c r="ES70"/>
+      <c r="ET70"/>
+      <c r="EU70"/>
+      <c r="EV70"/>
+      <c r="EW70"/>
+      <c r="EX70"/>
+      <c r="EY70"/>
+      <c r="EZ70"/>
+      <c r="FA70"/>
+      <c r="FB70"/>
+      <c r="FC70"/>
+      <c r="FD70"/>
+      <c r="FE70"/>
+      <c r="FF70"/>
+      <c r="FG70"/>
+      <c r="FH70"/>
+      <c r="FI70"/>
+      <c r="FJ70"/>
+      <c r="FK70"/>
+      <c r="FL70"/>
+      <c r="FM70"/>
+      <c r="FN70"/>
+      <c r="FO70"/>
+      <c r="FP70"/>
+      <c r="FQ70"/>
+      <c r="FR70"/>
+      <c r="FS70"/>
+      <c r="FT70"/>
+      <c r="FU70"/>
+      <c r="FV70"/>
+      <c r="FW70"/>
+      <c r="FX70"/>
+      <c r="FY70"/>
+      <c r="FZ70"/>
+      <c r="GA70"/>
+      <c r="GB70"/>
+      <c r="GC70"/>
+      <c r="GD70"/>
+      <c r="GE70"/>
+      <c r="GF70"/>
+      <c r="GG70"/>
+      <c r="GH70"/>
+      <c r="GI70"/>
+      <c r="GJ70"/>
+      <c r="GK70"/>
+      <c r="GL70"/>
+      <c r="GM70"/>
+      <c r="GN70"/>
+      <c r="GO70"/>
+      <c r="GP70"/>
+      <c r="GQ70"/>
+      <c r="GR70"/>
+      <c r="GS70"/>
+      <c r="GT70"/>
+      <c r="GU70"/>
+      <c r="GV70"/>
+      <c r="GW70"/>
+      <c r="GX70"/>
+      <c r="GY70"/>
+      <c r="GZ70"/>
+      <c r="HA70"/>
+      <c r="HB70"/>
+      <c r="HC70"/>
+      <c r="HD70"/>
+      <c r="HE70"/>
+      <c r="HF70"/>
+      <c r="HG70"/>
+      <c r="HH70"/>
+      <c r="HI70"/>
+      <c r="HJ70"/>
+      <c r="HK70"/>
+      <c r="HL70"/>
+      <c r="HM70"/>
+      <c r="HN70"/>
+      <c r="HO70"/>
+      <c r="HP70"/>
+      <c r="HQ70"/>
+      <c r="HR70"/>
+      <c r="HS70"/>
+      <c r="HT70"/>
+      <c r="HU70"/>
+      <c r="HV70"/>
+      <c r="HW70"/>
+      <c r="HX70"/>
+      <c r="HY70"/>
+      <c r="HZ70"/>
+      <c r="IA70"/>
+      <c r="IB70"/>
+      <c r="IC70"/>
+      <c r="ID70"/>
+      <c r="IE70"/>
+      <c r="IF70"/>
+      <c r="IG70"/>
+      <c r="IH70"/>
+      <c r="II70"/>
+      <c r="IJ70"/>
+      <c r="IK70"/>
+      <c r="IL70"/>
+      <c r="IM70"/>
+      <c r="IN70"/>
+      <c r="IO70"/>
+      <c r="IP70"/>
+      <c r="IQ70"/>
+      <c r="IR70"/>
+      <c r="IS70"/>
+      <c r="IT70"/>
+      <c r="IU70"/>
+      <c r="IV70"/>
+      <c r="IW70"/>
+      <c r="IX70"/>
+      <c r="IY70"/>
+      <c r="IZ70"/>
+      <c r="JA70"/>
+      <c r="JB70"/>
+      <c r="JC70"/>
+      <c r="JD70"/>
+      <c r="JE70"/>
+      <c r="JF70"/>
+      <c r="JG70"/>
+      <c r="JH70"/>
+      <c r="JI70"/>
+      <c r="JJ70"/>
+      <c r="JK70"/>
+      <c r="JL70"/>
+      <c r="JM70"/>
+      <c r="JN70"/>
+      <c r="JO70"/>
+      <c r="JP70"/>
+      <c r="JQ70"/>
+      <c r="JR70"/>
+      <c r="JS70"/>
+      <c r="JT70"/>
+      <c r="JU70"/>
+      <c r="JV70"/>
+      <c r="JW70"/>
+      <c r="JX70"/>
+      <c r="JY70"/>
+      <c r="JZ70"/>
+      <c r="KA70"/>
+      <c r="KB70"/>
+      <c r="KC70"/>
+      <c r="KD70"/>
+      <c r="KE70"/>
+      <c r="KF70"/>
+      <c r="KG70"/>
+      <c r="KH70"/>
+      <c r="KI70"/>
+      <c r="KJ70"/>
+      <c r="KK70"/>
+      <c r="KL70"/>
+      <c r="KM70"/>
+      <c r="KN70"/>
+      <c r="KO70"/>
+      <c r="KP70"/>
+      <c r="KQ70"/>
+      <c r="KR70"/>
+      <c r="KS70"/>
+      <c r="KT70"/>
+      <c r="KU70"/>
+      <c r="KV70"/>
+      <c r="KW70"/>
+      <c r="KX70"/>
+      <c r="KY70"/>
+      <c r="KZ70"/>
+      <c r="LA70"/>
+      <c r="LB70"/>
+      <c r="LC70"/>
+      <c r="LD70"/>
+      <c r="LE70"/>
+      <c r="LF70"/>
+      <c r="LG70"/>
+      <c r="LH70"/>
+      <c r="LI70"/>
+      <c r="LJ70"/>
+      <c r="LK70"/>
+      <c r="LL70"/>
+      <c r="LM70"/>
+      <c r="LN70"/>
+      <c r="LO70"/>
+      <c r="LP70"/>
+      <c r="LQ70"/>
+      <c r="LR70"/>
+      <c r="LS70"/>
+      <c r="LT70"/>
+      <c r="LU70"/>
+      <c r="LV70"/>
+      <c r="LW70"/>
+      <c r="LX70"/>
+      <c r="LY70"/>
+      <c r="LZ70"/>
+      <c r="MA70"/>
+      <c r="MB70"/>
+      <c r="MC70"/>
+      <c r="MD70"/>
+      <c r="ME70"/>
+      <c r="MF70"/>
+      <c r="MG70"/>
+      <c r="MH70"/>
+      <c r="MI70"/>
+      <c r="MJ70"/>
+      <c r="MK70"/>
+      <c r="ML70"/>
+      <c r="MM70"/>
+      <c r="MN70"/>
+      <c r="MO70"/>
+      <c r="MP70"/>
+      <c r="MQ70"/>
+      <c r="MR70"/>
+      <c r="MS70"/>
+      <c r="MT70"/>
+      <c r="MU70"/>
+      <c r="MV70"/>
+      <c r="MW70"/>
+      <c r="MX70"/>
+      <c r="MY70"/>
+      <c r="MZ70"/>
+      <c r="NA70"/>
+      <c r="NB70"/>
+      <c r="NC70"/>
+      <c r="ND70"/>
+      <c r="NE70"/>
+      <c r="NF70"/>
+      <c r="NG70"/>
+      <c r="NH70"/>
+      <c r="NI70"/>
+      <c r="NJ70"/>
+      <c r="NK70"/>
+      <c r="NL70"/>
+      <c r="NM70"/>
+      <c r="NN70"/>
+      <c r="NO70"/>
+      <c r="NP70"/>
+      <c r="NQ70"/>
+      <c r="NR70"/>
+      <c r="NS70"/>
+      <c r="NT70"/>
+      <c r="NU70"/>
+      <c r="NV70"/>
+      <c r="NW70"/>
+      <c r="NX70"/>
+      <c r="NY70"/>
+      <c r="NZ70"/>
+      <c r="OA70"/>
+      <c r="OB70"/>
+      <c r="OC70"/>
+      <c r="OD70"/>
+      <c r="OE70"/>
+      <c r="OF70"/>
+      <c r="OG70"/>
+      <c r="OH70"/>
+      <c r="OI70"/>
+      <c r="OJ70"/>
+      <c r="OK70"/>
+      <c r="OL70"/>
+      <c r="OM70"/>
+      <c r="ON70"/>
+      <c r="OO70"/>
+      <c r="OP70"/>
+      <c r="OQ70"/>
+      <c r="OR70"/>
+      <c r="OS70"/>
+      <c r="OT70"/>
+      <c r="OU70"/>
+      <c r="OV70"/>
+      <c r="OW70"/>
+      <c r="OX70"/>
+      <c r="OY70"/>
+      <c r="OZ70"/>
+      <c r="PA70"/>
+      <c r="PB70"/>
+      <c r="PC70"/>
+      <c r="PD70"/>
+      <c r="PE70"/>
+      <c r="PF70"/>
+      <c r="PG70"/>
+      <c r="PH70"/>
+      <c r="PI70"/>
+      <c r="PJ70"/>
+      <c r="PK70"/>
+      <c r="PL70"/>
+      <c r="PM70"/>
+      <c r="PN70"/>
+      <c r="PO70"/>
+      <c r="PP70"/>
+      <c r="PQ70"/>
+      <c r="PR70"/>
+      <c r="PS70"/>
+      <c r="PT70"/>
+      <c r="PU70"/>
+      <c r="PV70"/>
+      <c r="PW70"/>
+      <c r="PX70"/>
+      <c r="PY70"/>
+      <c r="PZ70"/>
+      <c r="QA70"/>
+      <c r="QB70"/>
+      <c r="QC70"/>
+      <c r="QD70"/>
+      <c r="QE70"/>
+      <c r="QF70"/>
+      <c r="QG70"/>
+      <c r="QH70"/>
+      <c r="QI70"/>
+      <c r="QJ70"/>
+      <c r="QK70"/>
+      <c r="QL70"/>
+      <c r="QM70"/>
+      <c r="QN70"/>
+      <c r="QO70"/>
+      <c r="QP70"/>
+      <c r="QQ70"/>
+      <c r="QR70"/>
+      <c r="QS70"/>
+      <c r="QT70"/>
+      <c r="QU70"/>
+      <c r="QV70"/>
+      <c r="QW70"/>
+      <c r="QX70"/>
+      <c r="QY70"/>
+      <c r="QZ70"/>
+      <c r="RA70"/>
+      <c r="RB70"/>
+      <c r="RC70"/>
+      <c r="RD70"/>
+      <c r="RE70"/>
+      <c r="RF70"/>
+      <c r="RG70"/>
+      <c r="RH70"/>
+      <c r="RI70"/>
+      <c r="RJ70"/>
+      <c r="RK70"/>
+      <c r="RL70"/>
+      <c r="RM70"/>
+      <c r="RN70"/>
+      <c r="RO70"/>
+      <c r="RP70"/>
+      <c r="RQ70"/>
+      <c r="RR70"/>
+      <c r="RS70"/>
+      <c r="RT70"/>
+      <c r="RU70"/>
+      <c r="RV70"/>
+      <c r="RW70"/>
+      <c r="RX70"/>
+      <c r="RY70"/>
+      <c r="RZ70"/>
+      <c r="SA70"/>
+      <c r="SB70"/>
+      <c r="SC70"/>
+      <c r="SD70"/>
+      <c r="SE70"/>
+      <c r="SF70"/>
+      <c r="SG70"/>
+      <c r="SH70"/>
+      <c r="SI70"/>
+      <c r="SJ70"/>
+      <c r="SK70"/>
+      <c r="SL70"/>
+      <c r="SM70"/>
+      <c r="SN70"/>
+      <c r="SO70"/>
+      <c r="SP70"/>
+      <c r="SQ70"/>
+      <c r="SR70"/>
+      <c r="SS70"/>
+      <c r="ST70"/>
+      <c r="SU70"/>
+      <c r="SV70"/>
+      <c r="SW70"/>
+      <c r="SX70"/>
+      <c r="SY70"/>
+      <c r="SZ70"/>
+      <c r="TA70"/>
+      <c r="TB70"/>
+      <c r="TC70"/>
+      <c r="TD70"/>
+      <c r="TE70"/>
+      <c r="TF70"/>
+      <c r="TG70"/>
+      <c r="TH70"/>
+      <c r="TI70"/>
+      <c r="TJ70"/>
+      <c r="TK70"/>
+      <c r="TL70"/>
+      <c r="TM70"/>
+      <c r="TN70"/>
+      <c r="TO70"/>
+      <c r="TP70"/>
+      <c r="TQ70"/>
+      <c r="TR70"/>
+      <c r="TS70"/>
+      <c r="TT70"/>
+      <c r="TU70"/>
+      <c r="TV70"/>
+      <c r="TW70"/>
+      <c r="TX70"/>
+      <c r="TY70"/>
+      <c r="TZ70"/>
+      <c r="UA70"/>
+    </row>
+    <row r="71" spans="1:547" ht="18.600000000000001" thickTop="1">
+      <c r="A71" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="57"/>
+    </row>
+    <row r="72" spans="1:547">
+      <c r="A72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="42">
+        <v>205</v>
+      </c>
+      <c r="E72" s="31"/>
+      <c r="F72" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:547">
+      <c r="A73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="42">
+        <v>201</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:547">
+      <c r="A74" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="42">
+        <v>202</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:547">
+      <c r="A75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="42">
+        <v>203</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="F75" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:547">
+      <c r="A76" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="42">
+        <v>204</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:547">
+      <c r="A77" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="42">
+        <v>223</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:547">
+      <c r="A78" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="42">
+        <v>221</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:547">
+      <c r="A79" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="42">
+        <v>242</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="F79" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21"/>
-      <c r="BO21"/>
-      <c r="BP21"/>
-      <c r="BQ21"/>
-      <c r="BR21"/>
-      <c r="BS21"/>
-      <c r="BT21"/>
-      <c r="BU21"/>
-      <c r="BV21"/>
-      <c r="BW21"/>
-      <c r="BX21"/>
-      <c r="BY21"/>
-      <c r="BZ21"/>
-      <c r="CA21"/>
-      <c r="CB21"/>
-      <c r="CC21"/>
-      <c r="CD21"/>
-      <c r="CE21"/>
-      <c r="CF21"/>
-      <c r="CG21"/>
-      <c r="CH21"/>
-      <c r="CI21"/>
-      <c r="CJ21"/>
-      <c r="CK21"/>
-      <c r="CL21"/>
-      <c r="CM21"/>
-      <c r="CN21"/>
-      <c r="CO21"/>
-      <c r="CP21"/>
-      <c r="CQ21"/>
-      <c r="CR21"/>
-      <c r="CS21"/>
-      <c r="CT21"/>
-      <c r="CU21"/>
-      <c r="CV21"/>
-      <c r="CW21"/>
-      <c r="CX21"/>
-      <c r="CY21"/>
-      <c r="CZ21"/>
-      <c r="DA21"/>
-      <c r="DB21"/>
-      <c r="DC21"/>
-      <c r="DD21"/>
-      <c r="DE21"/>
-      <c r="DF21"/>
-      <c r="DG21"/>
-      <c r="DH21"/>
-      <c r="DI21"/>
-      <c r="DJ21"/>
-      <c r="DK21"/>
-      <c r="DL21"/>
-      <c r="DM21"/>
-      <c r="DN21"/>
-      <c r="DO21"/>
-      <c r="DP21"/>
-      <c r="DQ21"/>
-      <c r="DR21"/>
-      <c r="DS21"/>
-      <c r="DT21"/>
-      <c r="DU21"/>
-      <c r="DV21"/>
-      <c r="DW21"/>
-      <c r="DX21"/>
-      <c r="DY21"/>
-      <c r="DZ21"/>
-      <c r="EA21"/>
-      <c r="EB21"/>
-      <c r="EC21"/>
-      <c r="ED21"/>
-      <c r="EE21"/>
-      <c r="EF21"/>
-      <c r="EG21"/>
-      <c r="EH21"/>
-      <c r="EI21"/>
-      <c r="EJ21"/>
-      <c r="EK21"/>
-      <c r="EL21"/>
-      <c r="EM21"/>
-      <c r="EN21"/>
-      <c r="EO21"/>
-      <c r="EP21"/>
-      <c r="EQ21"/>
-      <c r="ER21"/>
-      <c r="ES21"/>
-      <c r="ET21"/>
-      <c r="EU21"/>
-      <c r="EV21"/>
-      <c r="EW21"/>
-      <c r="EX21"/>
-      <c r="EY21"/>
-      <c r="EZ21"/>
-      <c r="FA21"/>
-      <c r="FB21"/>
-      <c r="FC21"/>
-      <c r="FD21"/>
-      <c r="FE21"/>
-      <c r="FF21"/>
-      <c r="FG21"/>
-      <c r="FH21"/>
-      <c r="FI21"/>
-      <c r="FJ21"/>
-      <c r="FK21"/>
-      <c r="FL21"/>
-      <c r="FM21"/>
-      <c r="FN21"/>
-      <c r="FO21"/>
-      <c r="FP21"/>
-      <c r="FQ21"/>
-      <c r="FR21"/>
-      <c r="FS21"/>
-      <c r="FT21"/>
-      <c r="FU21"/>
-      <c r="FV21"/>
-      <c r="FW21"/>
-      <c r="FX21"/>
-      <c r="FY21"/>
-      <c r="FZ21"/>
-      <c r="GA21"/>
-      <c r="GB21"/>
-      <c r="GC21"/>
-      <c r="GD21"/>
-      <c r="GE21"/>
-      <c r="GF21"/>
-      <c r="GG21"/>
-      <c r="GH21"/>
-      <c r="GI21"/>
-      <c r="GJ21"/>
-      <c r="GK21"/>
-      <c r="GL21"/>
-      <c r="GM21"/>
-      <c r="GN21"/>
-      <c r="GO21"/>
-      <c r="GP21"/>
-      <c r="GQ21"/>
-      <c r="GR21"/>
-      <c r="GS21"/>
-      <c r="GT21"/>
-      <c r="GU21"/>
-      <c r="GV21"/>
-      <c r="GW21"/>
-      <c r="GX21"/>
-      <c r="GY21"/>
-      <c r="GZ21"/>
-      <c r="HA21"/>
-      <c r="HB21"/>
-      <c r="HC21"/>
-      <c r="HD21"/>
-      <c r="HE21"/>
-      <c r="HF21"/>
-      <c r="HG21"/>
-      <c r="HH21"/>
-      <c r="HI21"/>
-      <c r="HJ21"/>
-      <c r="HK21"/>
-      <c r="HL21"/>
-      <c r="HM21"/>
-      <c r="HN21"/>
-      <c r="HO21"/>
-      <c r="HP21"/>
-      <c r="HQ21"/>
-      <c r="HR21"/>
-      <c r="HS21"/>
-      <c r="HT21"/>
-      <c r="HU21"/>
-      <c r="HV21"/>
-      <c r="HW21"/>
-      <c r="HX21"/>
-      <c r="HY21"/>
-      <c r="HZ21"/>
-      <c r="IA21"/>
-      <c r="IB21"/>
-      <c r="IC21"/>
-      <c r="ID21"/>
-      <c r="IE21"/>
-      <c r="IF21"/>
-      <c r="IG21"/>
-      <c r="IH21"/>
-      <c r="II21"/>
-      <c r="IJ21"/>
-      <c r="IK21"/>
-      <c r="IL21"/>
-      <c r="IM21"/>
-      <c r="IN21"/>
-      <c r="IO21"/>
-      <c r="IP21"/>
-      <c r="IQ21"/>
-      <c r="IR21"/>
-      <c r="IS21"/>
-      <c r="IT21"/>
-      <c r="IU21"/>
-      <c r="IV21"/>
-      <c r="IW21"/>
-      <c r="IX21"/>
-      <c r="IY21"/>
-      <c r="IZ21"/>
-      <c r="JA21"/>
-      <c r="JB21"/>
-      <c r="JC21"/>
-      <c r="JD21"/>
-      <c r="JE21"/>
-      <c r="JF21"/>
-      <c r="JG21"/>
-      <c r="JH21"/>
-      <c r="JI21"/>
-      <c r="JJ21"/>
-      <c r="JK21"/>
-      <c r="JL21"/>
-      <c r="JM21"/>
-      <c r="JN21"/>
-      <c r="JO21"/>
-      <c r="JP21"/>
-      <c r="JQ21"/>
-      <c r="JR21"/>
-      <c r="JS21"/>
-      <c r="JT21"/>
-      <c r="JU21"/>
-      <c r="JV21"/>
-      <c r="JW21"/>
-      <c r="JX21"/>
-      <c r="JY21"/>
-      <c r="JZ21"/>
-      <c r="KA21"/>
-      <c r="KB21"/>
-      <c r="KC21"/>
-      <c r="KD21"/>
-      <c r="KE21"/>
-      <c r="KF21"/>
-      <c r="KG21"/>
-      <c r="KH21"/>
-      <c r="KI21"/>
-      <c r="KJ21"/>
-      <c r="KK21"/>
-      <c r="KL21"/>
-      <c r="KM21"/>
-      <c r="KN21"/>
-      <c r="KO21"/>
-      <c r="KP21"/>
-      <c r="KQ21"/>
-      <c r="KR21"/>
-      <c r="KS21"/>
-      <c r="KT21"/>
-      <c r="KU21"/>
-      <c r="KV21"/>
-      <c r="KW21"/>
-      <c r="KX21"/>
-      <c r="KY21"/>
-      <c r="KZ21"/>
-      <c r="LA21"/>
-      <c r="LB21"/>
-      <c r="LC21"/>
-      <c r="LD21"/>
-      <c r="LE21"/>
-      <c r="LF21"/>
-      <c r="LG21"/>
-      <c r="LH21"/>
-      <c r="LI21"/>
-      <c r="LJ21"/>
-      <c r="LK21"/>
-      <c r="LL21"/>
-      <c r="LM21"/>
-      <c r="LN21"/>
-      <c r="LO21"/>
-      <c r="LP21"/>
-      <c r="LQ21"/>
-      <c r="LR21"/>
-      <c r="LS21"/>
-      <c r="LT21"/>
-      <c r="LU21"/>
-      <c r="LV21"/>
-      <c r="LW21"/>
-      <c r="LX21"/>
-      <c r="LY21"/>
-      <c r="LZ21"/>
-      <c r="MA21"/>
-      <c r="MB21"/>
-      <c r="MC21"/>
-      <c r="MD21"/>
-      <c r="ME21"/>
-      <c r="MF21"/>
-      <c r="MG21"/>
-      <c r="MH21"/>
-      <c r="MI21"/>
-      <c r="MJ21"/>
-      <c r="MK21"/>
-      <c r="ML21"/>
-      <c r="MM21"/>
-      <c r="MN21"/>
-      <c r="MO21"/>
-      <c r="MP21"/>
-      <c r="MQ21"/>
-      <c r="MR21"/>
-      <c r="MS21"/>
-      <c r="MT21"/>
-      <c r="MU21"/>
-      <c r="MV21"/>
-      <c r="MW21"/>
-      <c r="MX21"/>
-      <c r="MY21"/>
-      <c r="MZ21"/>
-      <c r="NA21"/>
-      <c r="NB21"/>
-      <c r="NC21"/>
-      <c r="ND21"/>
-      <c r="NE21"/>
-      <c r="NF21"/>
-      <c r="NG21"/>
-      <c r="NH21"/>
-      <c r="NI21"/>
-      <c r="NJ21"/>
-      <c r="NK21"/>
-      <c r="NL21"/>
-      <c r="NM21"/>
-      <c r="NN21"/>
-      <c r="NO21"/>
-      <c r="NP21"/>
-      <c r="NQ21"/>
-      <c r="NR21"/>
-      <c r="NS21"/>
-      <c r="NT21"/>
-      <c r="NU21"/>
-      <c r="NV21"/>
-      <c r="NW21"/>
-      <c r="NX21"/>
-      <c r="NY21"/>
-      <c r="NZ21"/>
-      <c r="OA21"/>
-      <c r="OB21"/>
-      <c r="OC21"/>
-      <c r="OD21"/>
-      <c r="OE21"/>
-      <c r="OF21"/>
-      <c r="OG21"/>
-      <c r="OH21"/>
-      <c r="OI21"/>
-      <c r="OJ21"/>
-      <c r="OK21"/>
-      <c r="OL21"/>
-      <c r="OM21"/>
-      <c r="ON21"/>
-      <c r="OO21"/>
-      <c r="OP21"/>
-      <c r="OQ21"/>
-      <c r="OR21"/>
-      <c r="OS21"/>
-      <c r="OT21"/>
-      <c r="OU21"/>
-      <c r="OV21"/>
-      <c r="OW21"/>
-      <c r="OX21"/>
-      <c r="OY21"/>
-      <c r="OZ21"/>
-      <c r="PA21"/>
-      <c r="PB21"/>
-      <c r="PC21"/>
-      <c r="PD21"/>
-      <c r="PE21"/>
-      <c r="PF21"/>
-      <c r="PG21"/>
-      <c r="PH21"/>
-      <c r="PI21"/>
-      <c r="PJ21"/>
-      <c r="PK21"/>
-      <c r="PL21"/>
-      <c r="PM21"/>
-      <c r="PN21"/>
-      <c r="PO21"/>
-      <c r="PP21"/>
-      <c r="PQ21"/>
-      <c r="PR21"/>
-      <c r="PS21"/>
-      <c r="PT21"/>
-      <c r="PU21"/>
-      <c r="PV21"/>
-      <c r="PW21"/>
-      <c r="PX21"/>
-      <c r="PY21"/>
-      <c r="PZ21"/>
-      <c r="QA21"/>
-      <c r="QB21"/>
-      <c r="QC21"/>
-      <c r="QD21"/>
-      <c r="QE21"/>
-      <c r="QF21"/>
-      <c r="QG21"/>
-      <c r="QH21"/>
-      <c r="QI21"/>
-      <c r="QJ21"/>
-      <c r="QK21"/>
-      <c r="QL21"/>
-      <c r="QM21"/>
-      <c r="QN21"/>
-      <c r="QO21"/>
-      <c r="QP21"/>
-      <c r="QQ21"/>
-      <c r="QR21"/>
-      <c r="QS21"/>
-      <c r="QT21"/>
-      <c r="QU21"/>
-      <c r="QV21"/>
-      <c r="QW21"/>
-      <c r="QX21"/>
-      <c r="QY21"/>
-      <c r="QZ21"/>
-      <c r="RA21"/>
-      <c r="RB21"/>
-      <c r="RC21"/>
-      <c r="RD21"/>
-      <c r="RE21"/>
-      <c r="RF21"/>
-      <c r="RG21"/>
-      <c r="RH21"/>
-      <c r="RI21"/>
-      <c r="RJ21"/>
-      <c r="RK21"/>
-      <c r="RL21"/>
-      <c r="RM21"/>
-      <c r="RN21"/>
-      <c r="RO21"/>
-      <c r="RP21"/>
-      <c r="RQ21"/>
-      <c r="RR21"/>
-      <c r="RS21"/>
-      <c r="RT21"/>
-      <c r="RU21"/>
-      <c r="RV21"/>
-      <c r="RW21"/>
-      <c r="RX21"/>
-      <c r="RY21"/>
-      <c r="RZ21"/>
-      <c r="SA21"/>
-      <c r="SB21"/>
-      <c r="SC21"/>
-      <c r="SD21"/>
-      <c r="SE21"/>
-      <c r="SF21"/>
-      <c r="SG21"/>
-      <c r="SH21"/>
-      <c r="SI21"/>
-      <c r="SJ21"/>
-      <c r="SK21"/>
-      <c r="SL21"/>
-      <c r="SM21"/>
-      <c r="SN21"/>
-      <c r="SO21"/>
-      <c r="SP21"/>
-      <c r="SQ21"/>
-      <c r="SR21"/>
-      <c r="SS21"/>
-      <c r="ST21"/>
-      <c r="SU21"/>
-      <c r="SV21"/>
-      <c r="SW21"/>
-      <c r="SX21"/>
-      <c r="SY21"/>
-      <c r="SZ21"/>
-      <c r="TA21"/>
-      <c r="TB21"/>
-      <c r="TC21"/>
-      <c r="TD21"/>
-      <c r="TE21"/>
-      <c r="TF21"/>
-      <c r="TG21"/>
-      <c r="TH21"/>
-      <c r="TI21"/>
-      <c r="TJ21"/>
-      <c r="TK21"/>
-      <c r="TL21"/>
-      <c r="TM21"/>
-      <c r="TN21"/>
-      <c r="TO21"/>
-      <c r="TP21"/>
-      <c r="TQ21"/>
-      <c r="TR21"/>
-      <c r="TS21"/>
-      <c r="TT21"/>
-      <c r="TU21"/>
-      <c r="TV21"/>
-      <c r="TW21"/>
-      <c r="TX21"/>
-      <c r="TY21"/>
-      <c r="TZ21"/>
-      <c r="UA21"/>
-    </row>
-    <row r="22" spans="1:547" s="2" customFormat="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="31">
-        <v>13</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22"/>
-      <c r="BO22"/>
-      <c r="BP22"/>
-      <c r="BQ22"/>
-      <c r="BR22"/>
-      <c r="BS22"/>
-      <c r="BT22"/>
-      <c r="BU22"/>
-      <c r="BV22"/>
-      <c r="BW22"/>
-      <c r="BX22"/>
-      <c r="BY22"/>
-      <c r="BZ22"/>
-      <c r="CA22"/>
-      <c r="CB22"/>
-      <c r="CC22"/>
-      <c r="CD22"/>
-      <c r="CE22"/>
-      <c r="CF22"/>
-      <c r="CG22"/>
-      <c r="CH22"/>
-      <c r="CI22"/>
-      <c r="CJ22"/>
-      <c r="CK22"/>
-      <c r="CL22"/>
-      <c r="CM22"/>
-      <c r="CN22"/>
-      <c r="CO22"/>
-      <c r="CP22"/>
-      <c r="CQ22"/>
-      <c r="CR22"/>
-      <c r="CS22"/>
-      <c r="CT22"/>
-      <c r="CU22"/>
-      <c r="CV22"/>
-      <c r="CW22"/>
-      <c r="CX22"/>
-      <c r="CY22"/>
-      <c r="CZ22"/>
-      <c r="DA22"/>
-      <c r="DB22"/>
-      <c r="DC22"/>
-      <c r="DD22"/>
-      <c r="DE22"/>
-      <c r="DF22"/>
-      <c r="DG22"/>
-      <c r="DH22"/>
-      <c r="DI22"/>
-      <c r="DJ22"/>
-      <c r="DK22"/>
-      <c r="DL22"/>
-      <c r="DM22"/>
-      <c r="DN22"/>
-      <c r="DO22"/>
-      <c r="DP22"/>
-      <c r="DQ22"/>
-      <c r="DR22"/>
-      <c r="DS22"/>
-      <c r="DT22"/>
-      <c r="DU22"/>
-      <c r="DV22"/>
-      <c r="DW22"/>
-      <c r="DX22"/>
-      <c r="DY22"/>
-      <c r="DZ22"/>
-      <c r="EA22"/>
-      <c r="EB22"/>
-      <c r="EC22"/>
-      <c r="ED22"/>
-      <c r="EE22"/>
-      <c r="EF22"/>
-      <c r="EG22"/>
-      <c r="EH22"/>
-      <c r="EI22"/>
-      <c r="EJ22"/>
-      <c r="EK22"/>
-      <c r="EL22"/>
-      <c r="EM22"/>
-      <c r="EN22"/>
-      <c r="EO22"/>
-      <c r="EP22"/>
-      <c r="EQ22"/>
-      <c r="ER22"/>
-      <c r="ES22"/>
-      <c r="ET22"/>
-      <c r="EU22"/>
-      <c r="EV22"/>
-      <c r="EW22"/>
-      <c r="EX22"/>
-      <c r="EY22"/>
-      <c r="EZ22"/>
-      <c r="FA22"/>
-      <c r="FB22"/>
-      <c r="FC22"/>
-      <c r="FD22"/>
-      <c r="FE22"/>
-      <c r="FF22"/>
-      <c r="FG22"/>
-      <c r="FH22"/>
-      <c r="FI22"/>
-      <c r="FJ22"/>
-      <c r="FK22"/>
-      <c r="FL22"/>
-      <c r="FM22"/>
-      <c r="FN22"/>
-      <c r="FO22"/>
-      <c r="FP22"/>
-      <c r="FQ22"/>
-      <c r="FR22"/>
-      <c r="FS22"/>
-      <c r="FT22"/>
-      <c r="FU22"/>
-      <c r="FV22"/>
-      <c r="FW22"/>
-      <c r="FX22"/>
-      <c r="FY22"/>
-      <c r="FZ22"/>
-      <c r="GA22"/>
-      <c r="GB22"/>
-      <c r="GC22"/>
-      <c r="GD22"/>
-      <c r="GE22"/>
-      <c r="GF22"/>
-      <c r="GG22"/>
-      <c r="GH22"/>
-      <c r="GI22"/>
-      <c r="GJ22"/>
-      <c r="GK22"/>
-      <c r="GL22"/>
-      <c r="GM22"/>
-      <c r="GN22"/>
-      <c r="GO22"/>
-      <c r="GP22"/>
-      <c r="GQ22"/>
-      <c r="GR22"/>
-      <c r="GS22"/>
-      <c r="GT22"/>
-      <c r="GU22"/>
-      <c r="GV22"/>
-      <c r="GW22"/>
-      <c r="GX22"/>
-      <c r="GY22"/>
-      <c r="GZ22"/>
-      <c r="HA22"/>
-      <c r="HB22"/>
-      <c r="HC22"/>
-      <c r="HD22"/>
-      <c r="HE22"/>
-      <c r="HF22"/>
-      <c r="HG22"/>
-      <c r="HH22"/>
-      <c r="HI22"/>
-      <c r="HJ22"/>
-      <c r="HK22"/>
-      <c r="HL22"/>
-      <c r="HM22"/>
-      <c r="HN22"/>
-      <c r="HO22"/>
-      <c r="HP22"/>
-      <c r="HQ22"/>
-      <c r="HR22"/>
-      <c r="HS22"/>
-      <c r="HT22"/>
-      <c r="HU22"/>
-      <c r="HV22"/>
-      <c r="HW22"/>
-      <c r="HX22"/>
-      <c r="HY22"/>
-      <c r="HZ22"/>
-      <c r="IA22"/>
-      <c r="IB22"/>
-      <c r="IC22"/>
-      <c r="ID22"/>
-      <c r="IE22"/>
-      <c r="IF22"/>
-      <c r="IG22"/>
-      <c r="IH22"/>
-      <c r="II22"/>
-      <c r="IJ22"/>
-      <c r="IK22"/>
-      <c r="IL22"/>
-      <c r="IM22"/>
-      <c r="IN22"/>
-      <c r="IO22"/>
-      <c r="IP22"/>
-      <c r="IQ22"/>
-      <c r="IR22"/>
-      <c r="IS22"/>
-      <c r="IT22"/>
-      <c r="IU22"/>
-      <c r="IV22"/>
-      <c r="IW22"/>
-      <c r="IX22"/>
-      <c r="IY22"/>
-      <c r="IZ22"/>
-      <c r="JA22"/>
-      <c r="JB22"/>
-      <c r="JC22"/>
-      <c r="JD22"/>
-      <c r="JE22"/>
-      <c r="JF22"/>
-      <c r="JG22"/>
-      <c r="JH22"/>
-      <c r="JI22"/>
-      <c r="JJ22"/>
-      <c r="JK22"/>
-      <c r="JL22"/>
-      <c r="JM22"/>
-      <c r="JN22"/>
-      <c r="JO22"/>
-      <c r="JP22"/>
-      <c r="JQ22"/>
-      <c r="JR22"/>
-      <c r="JS22"/>
-      <c r="JT22"/>
-      <c r="JU22"/>
-      <c r="JV22"/>
-      <c r="JW22"/>
-      <c r="JX22"/>
-      <c r="JY22"/>
-      <c r="JZ22"/>
-      <c r="KA22"/>
-      <c r="KB22"/>
-      <c r="KC22"/>
-      <c r="KD22"/>
-      <c r="KE22"/>
-      <c r="KF22"/>
-      <c r="KG22"/>
-      <c r="KH22"/>
-      <c r="KI22"/>
-      <c r="KJ22"/>
-      <c r="KK22"/>
-      <c r="KL22"/>
-      <c r="KM22"/>
-      <c r="KN22"/>
-      <c r="KO22"/>
-      <c r="KP22"/>
-      <c r="KQ22"/>
-      <c r="KR22"/>
-      <c r="KS22"/>
-      <c r="KT22"/>
-      <c r="KU22"/>
-      <c r="KV22"/>
-      <c r="KW22"/>
-      <c r="KX22"/>
-      <c r="KY22"/>
-      <c r="KZ22"/>
-      <c r="LA22"/>
-      <c r="LB22"/>
-      <c r="LC22"/>
-      <c r="LD22"/>
-      <c r="LE22"/>
-      <c r="LF22"/>
-      <c r="LG22"/>
-      <c r="LH22"/>
-      <c r="LI22"/>
-      <c r="LJ22"/>
-      <c r="LK22"/>
-      <c r="LL22"/>
-      <c r="LM22"/>
-      <c r="LN22"/>
-      <c r="LO22"/>
-      <c r="LP22"/>
-      <c r="LQ22"/>
-      <c r="LR22"/>
-      <c r="LS22"/>
-      <c r="LT22"/>
-      <c r="LU22"/>
-      <c r="LV22"/>
-      <c r="LW22"/>
-      <c r="LX22"/>
-      <c r="LY22"/>
-      <c r="LZ22"/>
-      <c r="MA22"/>
-      <c r="MB22"/>
-      <c r="MC22"/>
-      <c r="MD22"/>
-      <c r="ME22"/>
-      <c r="MF22"/>
-      <c r="MG22"/>
-      <c r="MH22"/>
-      <c r="MI22"/>
-      <c r="MJ22"/>
-      <c r="MK22"/>
-      <c r="ML22"/>
-      <c r="MM22"/>
-      <c r="MN22"/>
-      <c r="MO22"/>
-      <c r="MP22"/>
-      <c r="MQ22"/>
-      <c r="MR22"/>
-      <c r="MS22"/>
-      <c r="MT22"/>
-      <c r="MU22"/>
-      <c r="MV22"/>
-      <c r="MW22"/>
-      <c r="MX22"/>
-      <c r="MY22"/>
-      <c r="MZ22"/>
-      <c r="NA22"/>
-      <c r="NB22"/>
-      <c r="NC22"/>
-      <c r="ND22"/>
-      <c r="NE22"/>
-      <c r="NF22"/>
-      <c r="NG22"/>
-      <c r="NH22"/>
-      <c r="NI22"/>
-      <c r="NJ22"/>
-      <c r="NK22"/>
-      <c r="NL22"/>
-      <c r="NM22"/>
-      <c r="NN22"/>
-      <c r="NO22"/>
-      <c r="NP22"/>
-      <c r="NQ22"/>
-      <c r="NR22"/>
-      <c r="NS22"/>
-      <c r="NT22"/>
-      <c r="NU22"/>
-      <c r="NV22"/>
-      <c r="NW22"/>
-      <c r="NX22"/>
-      <c r="NY22"/>
-      <c r="NZ22"/>
-      <c r="OA22"/>
-      <c r="OB22"/>
-      <c r="OC22"/>
-      <c r="OD22"/>
-      <c r="OE22"/>
-      <c r="OF22"/>
-      <c r="OG22"/>
-      <c r="OH22"/>
-      <c r="OI22"/>
-      <c r="OJ22"/>
-      <c r="OK22"/>
-      <c r="OL22"/>
-      <c r="OM22"/>
-      <c r="ON22"/>
-      <c r="OO22"/>
-      <c r="OP22"/>
-      <c r="OQ22"/>
-      <c r="OR22"/>
-      <c r="OS22"/>
-      <c r="OT22"/>
-      <c r="OU22"/>
-      <c r="OV22"/>
-      <c r="OW22"/>
-      <c r="OX22"/>
-      <c r="OY22"/>
-      <c r="OZ22"/>
-      <c r="PA22"/>
-      <c r="PB22"/>
-      <c r="PC22"/>
-      <c r="PD22"/>
-      <c r="PE22"/>
-      <c r="PF22"/>
-      <c r="PG22"/>
-      <c r="PH22"/>
-      <c r="PI22"/>
-      <c r="PJ22"/>
-      <c r="PK22"/>
-      <c r="PL22"/>
-      <c r="PM22"/>
-      <c r="PN22"/>
-      <c r="PO22"/>
-      <c r="PP22"/>
-      <c r="PQ22"/>
-      <c r="PR22"/>
-      <c r="PS22"/>
-      <c r="PT22"/>
-      <c r="PU22"/>
-      <c r="PV22"/>
-      <c r="PW22"/>
-      <c r="PX22"/>
-      <c r="PY22"/>
-      <c r="PZ22"/>
-      <c r="QA22"/>
-      <c r="QB22"/>
-      <c r="QC22"/>
-      <c r="QD22"/>
-      <c r="QE22"/>
-      <c r="QF22"/>
-      <c r="QG22"/>
-      <c r="QH22"/>
-      <c r="QI22"/>
-      <c r="QJ22"/>
-      <c r="QK22"/>
-      <c r="QL22"/>
-      <c r="QM22"/>
-      <c r="QN22"/>
-      <c r="QO22"/>
-      <c r="QP22"/>
-      <c r="QQ22"/>
-      <c r="QR22"/>
-      <c r="QS22"/>
-      <c r="QT22"/>
-      <c r="QU22"/>
-      <c r="QV22"/>
-      <c r="QW22"/>
-      <c r="QX22"/>
-      <c r="QY22"/>
-      <c r="QZ22"/>
-      <c r="RA22"/>
-      <c r="RB22"/>
-      <c r="RC22"/>
-      <c r="RD22"/>
-      <c r="RE22"/>
-      <c r="RF22"/>
-      <c r="RG22"/>
-      <c r="RH22"/>
-      <c r="RI22"/>
-      <c r="RJ22"/>
-      <c r="RK22"/>
-      <c r="RL22"/>
-      <c r="RM22"/>
-      <c r="RN22"/>
-      <c r="RO22"/>
-      <c r="RP22"/>
-      <c r="RQ22"/>
-      <c r="RR22"/>
-      <c r="RS22"/>
-      <c r="RT22"/>
-      <c r="RU22"/>
-      <c r="RV22"/>
-      <c r="RW22"/>
-      <c r="RX22"/>
-      <c r="RY22"/>
-      <c r="RZ22"/>
-      <c r="SA22"/>
-      <c r="SB22"/>
-      <c r="SC22"/>
-      <c r="SD22"/>
-      <c r="SE22"/>
-      <c r="SF22"/>
-      <c r="SG22"/>
-      <c r="SH22"/>
-      <c r="SI22"/>
-      <c r="SJ22"/>
-      <c r="SK22"/>
-      <c r="SL22"/>
-      <c r="SM22"/>
-      <c r="SN22"/>
-      <c r="SO22"/>
-      <c r="SP22"/>
-      <c r="SQ22"/>
-      <c r="SR22"/>
-      <c r="SS22"/>
-      <c r="ST22"/>
-      <c r="SU22"/>
-      <c r="SV22"/>
-      <c r="SW22"/>
-      <c r="SX22"/>
-      <c r="SY22"/>
-      <c r="SZ22"/>
-      <c r="TA22"/>
-      <c r="TB22"/>
-      <c r="TC22"/>
-      <c r="TD22"/>
-      <c r="TE22"/>
-      <c r="TF22"/>
-      <c r="TG22"/>
-      <c r="TH22"/>
-      <c r="TI22"/>
-      <c r="TJ22"/>
-      <c r="TK22"/>
-      <c r="TL22"/>
-      <c r="TM22"/>
-      <c r="TN22"/>
-      <c r="TO22"/>
-      <c r="TP22"/>
-      <c r="TQ22"/>
-      <c r="TR22"/>
-      <c r="TS22"/>
-      <c r="TT22"/>
-      <c r="TU22"/>
-      <c r="TV22"/>
-      <c r="TW22"/>
-      <c r="TX22"/>
-      <c r="TY22"/>
-      <c r="TZ22"/>
-      <c r="UA22"/>
-    </row>
-    <row r="23" spans="1:547">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="21">
-        <v>69</v>
-      </c>
-      <c r="D23" s="30">
-        <v>153</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:547">
-      <c r="A24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="20">
-        <v>8</v>
-      </c>
-      <c r="D24" s="29">
-        <v>17</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:547">
-      <c r="A25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="20">
-        <v>9</v>
-      </c>
-      <c r="D25" s="29">
-        <v>18</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:547">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="29">
-        <v>19</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:547">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="21">
-        <v>10</v>
-      </c>
-      <c r="D27" s="30">
-        <v>20</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:547">
-      <c r="A28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="20">
-        <v>11</v>
-      </c>
-      <c r="D28" s="29">
-        <v>21</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:547">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="29">
-        <v>22</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:547">
-      <c r="A30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="21">
-        <v>13</v>
-      </c>
-      <c r="D30" s="30">
-        <v>24</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:547">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="30">
+      <c r="G79" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:547">
+      <c r="A80" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:547">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="30">
+      <c r="B80" s="7"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="42">
+        <v>243</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="F80" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="42">
+        <v>244</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="F81" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:91">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="30">
+      <c r="B82" s="7"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="42">
+        <v>245</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="42">
+        <v>246</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="F83" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="42">
+        <v>247</v>
+      </c>
+      <c r="E84" s="31"/>
+      <c r="F84" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:91" s="3" customFormat="1">
-      <c r="A34" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="58">
-        <v>14</v>
-      </c>
-      <c r="D34" s="59">
-        <v>28</v>
-      </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="42">
+        <v>248</v>
+      </c>
+      <c r="E85" s="31"/>
+      <c r="F85" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="42">
+        <v>249</v>
+      </c>
+      <c r="E86" s="31"/>
+      <c r="F86" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="42">
+        <v>250</v>
+      </c>
+      <c r="E87" s="31"/>
+      <c r="F87" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="42">
+        <v>251</v>
+      </c>
+      <c r="E88" s="31"/>
+      <c r="F88" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="G88" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="42">
+        <v>252</v>
+      </c>
+      <c r="E89" s="31"/>
+      <c r="F89" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="42">
+        <v>261</v>
+      </c>
+      <c r="E90" s="31"/>
+      <c r="F90" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="42">
+        <v>262</v>
+      </c>
+      <c r="E91" s="31"/>
+      <c r="F91" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="42">
+        <v>263</v>
+      </c>
+      <c r="E92" s="31"/>
+      <c r="F92" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H34" s="57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:91" s="3" customFormat="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="62">
-        <v>29</v>
-      </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="H35" s="57"/>
-    </row>
-    <row r="36" spans="1:91" s="3" customFormat="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59">
-        <v>30</v>
-      </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="H36" s="57"/>
-    </row>
-    <row r="37" spans="1:91">
-      <c r="A37" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="C37" s="69">
-        <v>15</v>
-      </c>
-      <c r="D37" s="70">
-        <v>31</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="G37" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:91">
-      <c r="A38" s="67"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70">
-        <v>32</v>
-      </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="H38" s="68"/>
-    </row>
-    <row r="39" spans="1:91">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70">
-        <v>33</v>
-      </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="H39" s="68"/>
-    </row>
-    <row r="40" spans="1:91">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:91">
-      <c r="A41" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="B41" s="57" t="s">
+      <c r="H92" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="42">
+        <v>264</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="F93" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="58">
-        <v>26</v>
-      </c>
-      <c r="D41" s="59">
-        <v>54</v>
-      </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61" t="s">
+      <c r="G93" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G41" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="H41" s="57" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:91">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59">
-        <v>55</v>
-      </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="H42" s="57"/>
-    </row>
-    <row r="43" spans="1:91">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59">
-        <v>56</v>
-      </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="G43" s="61" t="s">
+      <c r="H93" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="57"/>
-    </row>
-    <row r="44" spans="1:91">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:91" s="66" customFormat="1">
-      <c r="A45" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="58">
-        <v>27</v>
-      </c>
-      <c r="D45" s="59">
-        <v>57</v>
-      </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="H45" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-      <c r="AE45"/>
-      <c r="AF45"/>
-      <c r="AG45"/>
-      <c r="AH45"/>
-      <c r="AI45"/>
-      <c r="AJ45"/>
-      <c r="AK45"/>
-      <c r="AL45"/>
-      <c r="AM45"/>
-      <c r="AN45"/>
-      <c r="AO45"/>
-      <c r="AP45"/>
-      <c r="AQ45"/>
-      <c r="AR45"/>
-      <c r="AS45"/>
-      <c r="AT45"/>
-      <c r="AU45"/>
-      <c r="AV45"/>
-      <c r="AW45"/>
-      <c r="AX45"/>
-      <c r="AY45"/>
-      <c r="AZ45"/>
-      <c r="BA45"/>
-      <c r="BB45"/>
-      <c r="BC45"/>
-      <c r="BD45"/>
-      <c r="BE45"/>
-      <c r="BF45"/>
-      <c r="BG45"/>
-      <c r="BH45"/>
-      <c r="BI45"/>
-      <c r="BJ45"/>
-      <c r="BK45"/>
-      <c r="BL45"/>
-      <c r="BM45"/>
-      <c r="BN45"/>
-      <c r="BO45"/>
-      <c r="BP45"/>
-      <c r="BQ45"/>
-      <c r="BR45"/>
-      <c r="BS45"/>
-      <c r="BT45"/>
-      <c r="BU45"/>
-      <c r="BV45"/>
-      <c r="BW45"/>
-      <c r="BX45"/>
-      <c r="BY45"/>
-      <c r="BZ45"/>
-      <c r="CA45"/>
-      <c r="CB45"/>
-      <c r="CC45"/>
-      <c r="CD45"/>
-      <c r="CE45"/>
-      <c r="CF45"/>
-      <c r="CG45"/>
-      <c r="CH45"/>
-      <c r="CI45"/>
-      <c r="CJ45"/>
-      <c r="CK45"/>
-      <c r="CL45"/>
-      <c r="CM45"/>
-    </row>
-    <row r="46" spans="1:91">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:91">
-      <c r="A47" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="D47" s="29">
-        <v>137</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:91">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="32">
-        <v>43</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="21">
-        <v>66</v>
-      </c>
-      <c r="D49" s="30">
-        <v>141</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="30">
-        <v>142</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="G50" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="30">
-        <v>143</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="30">
-        <v>144</v>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" ht="28.8">
-      <c r="A53" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="20">
-        <v>67</v>
-      </c>
-      <c r="D53" s="29">
-        <v>145</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="29">
-        <v>146</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="29">
-        <v>147</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="29">
-        <v>148</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="1:8" ht="28.8">
-      <c r="A57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="21">
-        <v>68</v>
-      </c>
-      <c r="D57" s="30">
-        <v>149</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="30">
-        <v>150</v>
-      </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="G58" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="30">
-        <v>151</v>
-      </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="7"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="30">
-        <v>152</v>
-      </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="7"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="58">
-        <v>70</v>
-      </c>
-      <c r="D62" s="59">
-        <v>154</v>
-      </c>
-      <c r="E62" s="60"/>
-      <c r="F62" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H62" s="57" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="7"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="20">
-        <v>71</v>
-      </c>
-      <c r="D64" s="29">
-        <v>155</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="G64" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="10"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="29">
-        <v>156</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G65" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="10"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="29">
-        <v>157</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="21">
-        <v>72</v>
-      </c>
-      <c r="D67" s="30">
-        <v>158</v>
-      </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="7"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="30">
-        <v>159</v>
-      </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G68" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="7"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="30">
-        <v>160</v>
-      </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="20">
-        <v>73</v>
-      </c>
-      <c r="D70" s="29">
-        <v>161</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="23">
-        <v>74</v>
-      </c>
-      <c r="D71" s="33">
-        <v>162</v>
-      </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="G71" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="18"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="33">
-        <v>163</v>
-      </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="18"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="33">
-        <v>164</v>
-      </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="18"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="33">
-        <v>165</v>
-      </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="G74" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="18"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="33">
-        <v>166</v>
-      </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G75" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="18"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="33">
-        <v>167</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="18"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="33">
-        <v>168</v>
-      </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="G77" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="18"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="33">
-        <v>169</v>
-      </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="18"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="33">
-        <v>170</v>
-      </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="G79" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="18"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="33">
-        <v>171</v>
-      </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="G80" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H80" s="13"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="20">
-        <v>75</v>
-      </c>
-      <c r="D81" s="29">
-        <v>172</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="G81" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" s="21">
-        <v>76</v>
-      </c>
-      <c r="D83" s="34">
-        <v>173</v>
-      </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="G83" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1">
-      <c r="A84" s="7"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" ht="18.600000000000001" thickTop="1">
-      <c r="A85" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="79"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="34">
-        <v>205</v>
-      </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="34">
-        <v>201</v>
-      </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="34">
-        <v>202</v>
-      </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="34">
-        <v>203</v>
-      </c>
-      <c r="E89" s="25"/>
-      <c r="F89" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="34">
-        <v>204</v>
-      </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="34">
-        <v>223</v>
-      </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="34">
-        <v>221</v>
-      </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="34">
-        <v>242</v>
-      </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="34">
-        <v>243</v>
-      </c>
-      <c r="E94" s="25"/>
-      <c r="F94" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H94" s="6"/>
+      <c r="A94" s="1"/>
+      <c r="H94" s="5"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="34">
-        <v>244</v>
-      </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="34">
-        <v>245</v>
-      </c>
-      <c r="E96" s="25"/>
-      <c r="F96" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="34">
-        <v>248</v>
-      </c>
-      <c r="E97" s="25"/>
-      <c r="F97" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="34">
-        <v>249</v>
-      </c>
-      <c r="E98" s="25"/>
-      <c r="F98" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="55">
-        <v>250</v>
-      </c>
-      <c r="E99" s="25"/>
-      <c r="F99" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1">
-      <c r="A100" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="35">
-        <v>261</v>
-      </c>
-      <c r="E100" s="25"/>
-      <c r="F100" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:8" ht="15" thickBot="1">
-      <c r="A101" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="35">
-        <v>262</v>
-      </c>
-      <c r="E101" s="25"/>
-      <c r="F101" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="1"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1"/>
+      <c r="A96" s="1"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C19">
-    <sortCondition ref="C19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C17">
+    <sortCondition ref="C17"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A85:H85"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A70:H70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="landscape" r:id="rId1"/>

--- a/AIOMFAC_Documents/List_of_AIOMFAC_Maingroups_and_Subgroups.xlsx
+++ b/AIOMFAC_Documents/List_of_AIOMFAC_Maingroups_and_Subgroups.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andiz\Dropbox\AIOMFAC_WebInterface\AIOMFAC-web_3.00\Additional_Files_For_GitHub_online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andiz\Documents\Work_McGill\Models_Code\AIOMFAC-Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC72FC7-246B-4EC8-A056-046B005AE342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E1BF6-3F55-4546-968E-5F859B9CEEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
   <si>
     <t>hydroxyl</t>
   </si>
@@ -224,9 +235,6 @@
   </si>
   <si>
     <t>(C=C)</t>
-  </si>
-  <si>
-    <t>CHn[OH]</t>
   </si>
   <si>
     <t>CHn[alc]</t>
@@ -750,6 +758,18 @@
   </si>
   <si>
     <t>as part of bicarbonate-containing mixtures</t>
+  </si>
+  <si>
+    <t>CH2[OH]</t>
+  </si>
+  <si>
+    <t>we use main group 52 for CH[OH] and C[OH] as they refer to CHn bonded to secondary or tertiary hydroxyl/alcohol</t>
+  </si>
+  <si>
+    <t>we use main group 68 for CH2 bonded to primary hydroxyl/alcohol</t>
+  </si>
+  <si>
+    <t>CH[OH]</t>
   </si>
 </sst>
 </file>
@@ -843,7 +863,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +919,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1148,11 +1174,10 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1192,7 +1217,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1224,6 +1248,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="4" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1234,13 +1266,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,9 +1313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1320,9 +1353,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1355,26 +1388,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1407,26 +1423,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1603,36 +1602,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:UA101"/>
+  <dimension ref="A1:UA102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="150.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="3.08984375" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" customWidth="1"/>
+    <col min="8" max="8" width="150.90625" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:547" s="18" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+    <row r="1" spans="1:547" s="17" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="BN1"/>
       <c r="BO1"/>
       <c r="BP1"/>
@@ -2116,9 +2115,9 @@
       <c r="TZ1"/>
       <c r="UA1"/>
     </row>
-    <row r="2" spans="1:547" s="17" customFormat="1">
-      <c r="A2" s="17" t="s">
-        <v>194</v>
+    <row r="2" spans="1:547" s="16" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="BN2"/>
       <c r="BO2"/>
@@ -2603,9 +2602,9 @@
       <c r="TZ2"/>
       <c r="UA2"/>
     </row>
-    <row r="3" spans="1:547" s="17" customFormat="1">
-      <c r="A3" s="25" t="s">
-        <v>199</v>
+    <row r="3" spans="1:547" s="16" customFormat="1">
+      <c r="A3" t="s">
+        <v>198</v>
       </c>
       <c r="BN3"/>
       <c r="BO3"/>
@@ -3090,7 +3089,7 @@
       <c r="TZ3"/>
       <c r="UA3"/>
     </row>
-    <row r="4" spans="1:547" s="17" customFormat="1" ht="15" thickBot="1">
+    <row r="4" spans="1:547" s="16" customFormat="1" ht="15" thickBot="1">
       <c r="BN4"/>
       <c r="BO4"/>
       <c r="BP4"/>
@@ -3575,315 +3574,315 @@
       <c r="UA4"/>
     </row>
     <row r="5" spans="1:547" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A5" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:547" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A6" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:547">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:547" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A6" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:547">
-      <c r="A7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="G7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:547">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="34">
+        <v>2</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:547">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="34">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:547">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="34">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:547">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="35">
+        <v>5</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:547">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="35">
+        <v>6</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:547">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="35">
+        <v>7</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:547">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="35">
+        <v>8</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:547">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="35">
+        <v>70</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:547">
+      <c r="A16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="24">
+        <v>3</v>
+      </c>
+      <c r="D16" s="34">
         <v>9</v>
       </c>
-      <c r="C7" s="26">
-        <v>1</v>
-      </c>
-      <c r="D7" s="35">
-        <v>1</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:547">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="36">
-        <v>2</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:547">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="36">
-        <v>3</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:547">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="36">
+      <c r="E16" s="28"/>
+      <c r="F16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:547">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="34">
+        <v>10</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:547" s="2" customFormat="1">
+      <c r="A18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="26">
         <v>4</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:547">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="27">
-        <v>2</v>
-      </c>
-      <c r="D11" s="37">
-        <v>5</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:547">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="37">
-        <v>6</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:547">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="37">
-        <v>7</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:547">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="37">
-        <v>8</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:547">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="37">
-        <v>70</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:547">
-      <c r="A16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="26">
-        <v>3</v>
-      </c>
-      <c r="D16" s="36">
-        <v>9</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:547">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="36">
-        <v>10</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="11" t="s">
+      <c r="D18" s="36">
+        <v>11</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:547" s="2" customFormat="1">
-      <c r="A18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="28">
-        <v>4</v>
-      </c>
-      <c r="D18" s="38">
-        <v>11</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>191</v>
+      <c r="H18" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
       <c r="BN18"/>
       <c r="BO18"/>
       <c r="BP18"/>
@@ -4368,77 +4367,77 @@
       <c r="UA18"/>
     </row>
     <row r="19" spans="1:547" s="2" customFormat="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="38">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="36">
         <v>12</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="13"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
       <c r="BN19"/>
       <c r="BO19"/>
       <c r="BP19"/>
@@ -4923,77 +4922,77 @@
       <c r="UA19"/>
     </row>
     <row r="20" spans="1:547" s="2" customFormat="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="38">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="36">
         <v>13</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="14"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="13"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
       <c r="BN20"/>
       <c r="BO20"/>
       <c r="BP20"/>
@@ -5478,1884 +5477,1902 @@
       <c r="UA20"/>
     </row>
     <row r="21" spans="1:547">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="25">
         <v>69</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="35">
         <v>153</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="29"/>
+      <c r="F21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:547">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>8</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>17</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:547">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>9</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>18</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:547">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="34">
+        <v>19</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:547">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="36">
-        <v>19</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:547">
+      <c r="A25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="25">
+        <v>10</v>
+      </c>
+      <c r="D25" s="35">
+        <v>20</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="G25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:547">
+      <c r="A26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="24">
+        <v>11</v>
+      </c>
+      <c r="D26" s="34">
+        <v>21</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:547">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="34">
+        <v>22</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:547">
+      <c r="A28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="25">
+        <v>13</v>
+      </c>
+      <c r="D28" s="35">
+        <v>24</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:547">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="35">
+        <v>25</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:547">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="35">
+        <v>26</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:547">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="35">
+        <v>27</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:547">
+      <c r="A32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="34">
+        <v>137</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="37">
+        <v>43</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="25">
+        <v>66</v>
+      </c>
+      <c r="D34" s="35">
+        <v>141</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="35">
+        <v>142</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="35">
+        <v>143</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="35">
+        <v>144</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="29">
+      <c r="A38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="24">
+        <v>67</v>
+      </c>
+      <c r="D38" s="34">
+        <v>145</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="34">
+        <v>146</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="34">
+        <v>147</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="34">
+        <v>148</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" ht="29">
+      <c r="A42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="25">
+        <v>68</v>
+      </c>
+      <c r="D42" s="35">
+        <v>149</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="35">
+        <v>150</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="55">
+        <v>52</v>
+      </c>
+      <c r="D45" s="35">
+        <v>151</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="35">
+        <v>152</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="26">
+        <v>70</v>
+      </c>
+      <c r="D48" s="38">
+        <v>154</v>
+      </c>
+      <c r="E48" s="30"/>
+      <c r="F48" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="24">
+        <v>71</v>
+      </c>
+      <c r="D50" s="34">
+        <v>155</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="34">
+        <v>156</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="34">
+        <v>157</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="25">
+        <v>72</v>
+      </c>
+      <c r="D53" s="35">
+        <v>158</v>
+      </c>
+      <c r="E53" s="29"/>
+      <c r="F53" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="8"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="35">
+        <v>159</v>
+      </c>
+      <c r="E54" s="29"/>
+      <c r="F54" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="8"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="35">
+        <v>160</v>
+      </c>
+      <c r="E55" s="29"/>
+      <c r="F55" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="24">
+        <v>73</v>
+      </c>
+      <c r="D56" s="34">
+        <v>161</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="27">
+        <v>74</v>
+      </c>
+      <c r="D57" s="39">
+        <v>162</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="22"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="39">
+        <v>163</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="22"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="39">
+        <v>164</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="F59" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="22"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="39">
+        <v>165</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="22"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="39">
+        <v>166</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="22"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="39">
+        <v>167</v>
+      </c>
+      <c r="E62" s="32"/>
+      <c r="F62" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="22"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="39">
+        <v>168</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="22"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="39">
+        <v>169</v>
+      </c>
+      <c r="E64" s="32"/>
+      <c r="F64" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:547">
+      <c r="A65" s="22"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="39">
+        <v>170</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:547">
+      <c r="A66" s="22"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="39">
+        <v>171</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:547">
+      <c r="A67" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="24">
+        <v>75</v>
+      </c>
+      <c r="D67" s="34">
+        <v>172</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="F67" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:547" s="51" customFormat="1">
+      <c r="A68" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="47">
+        <v>76</v>
+      </c>
+      <c r="D68" s="48">
+        <v>173</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:547">
+      <c r="A69" s="8"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:547">
+      <c r="A70" s="8"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:547" s="3" customFormat="1" ht="15" thickBot="1">
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AP71"/>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+      <c r="AS71"/>
+      <c r="AT71"/>
+      <c r="AU71"/>
+      <c r="AV71"/>
+      <c r="AW71"/>
+      <c r="AX71"/>
+      <c r="AY71"/>
+      <c r="AZ71"/>
+      <c r="BA71"/>
+      <c r="BB71"/>
+      <c r="BC71"/>
+      <c r="BD71"/>
+      <c r="BE71"/>
+      <c r="BF71"/>
+      <c r="BG71"/>
+      <c r="BH71"/>
+      <c r="BI71"/>
+      <c r="BJ71"/>
+      <c r="BK71"/>
+      <c r="BL71"/>
+      <c r="BM71"/>
+      <c r="BN71"/>
+      <c r="BO71"/>
+      <c r="BP71"/>
+      <c r="BQ71"/>
+      <c r="BR71"/>
+      <c r="BS71"/>
+      <c r="BT71"/>
+      <c r="BU71"/>
+      <c r="BV71"/>
+      <c r="BW71"/>
+      <c r="BX71"/>
+      <c r="BY71"/>
+      <c r="BZ71"/>
+      <c r="CA71"/>
+      <c r="CB71"/>
+      <c r="CC71"/>
+      <c r="CD71"/>
+      <c r="CE71"/>
+      <c r="CF71"/>
+      <c r="CG71"/>
+      <c r="CH71"/>
+      <c r="CI71"/>
+      <c r="CJ71"/>
+      <c r="CK71"/>
+      <c r="CL71"/>
+      <c r="CM71"/>
+      <c r="CN71"/>
+      <c r="CO71"/>
+      <c r="CP71"/>
+      <c r="CQ71"/>
+      <c r="CR71"/>
+      <c r="CS71"/>
+      <c r="CT71"/>
+      <c r="CU71"/>
+      <c r="CV71"/>
+      <c r="CW71"/>
+      <c r="CX71"/>
+      <c r="CY71"/>
+      <c r="CZ71"/>
+      <c r="DA71"/>
+      <c r="DB71"/>
+      <c r="DC71"/>
+      <c r="DD71"/>
+      <c r="DE71"/>
+      <c r="DF71"/>
+      <c r="DG71"/>
+      <c r="DH71"/>
+      <c r="DI71"/>
+      <c r="DJ71"/>
+      <c r="DK71"/>
+      <c r="DL71"/>
+      <c r="DM71"/>
+      <c r="DN71"/>
+      <c r="DO71"/>
+      <c r="DP71"/>
+      <c r="DQ71"/>
+      <c r="DR71"/>
+      <c r="DS71"/>
+      <c r="DT71"/>
+      <c r="DU71"/>
+      <c r="DV71"/>
+      <c r="DW71"/>
+      <c r="DX71"/>
+      <c r="DY71"/>
+      <c r="DZ71"/>
+      <c r="EA71"/>
+      <c r="EB71"/>
+      <c r="EC71"/>
+      <c r="ED71"/>
+      <c r="EE71"/>
+      <c r="EF71"/>
+      <c r="EG71"/>
+      <c r="EH71"/>
+      <c r="EI71"/>
+      <c r="EJ71"/>
+      <c r="EK71"/>
+      <c r="EL71"/>
+      <c r="EM71"/>
+      <c r="EN71"/>
+      <c r="EO71"/>
+      <c r="EP71"/>
+      <c r="EQ71"/>
+      <c r="ER71"/>
+      <c r="ES71"/>
+      <c r="ET71"/>
+      <c r="EU71"/>
+      <c r="EV71"/>
+      <c r="EW71"/>
+      <c r="EX71"/>
+      <c r="EY71"/>
+      <c r="EZ71"/>
+      <c r="FA71"/>
+      <c r="FB71"/>
+      <c r="FC71"/>
+      <c r="FD71"/>
+      <c r="FE71"/>
+      <c r="FF71"/>
+      <c r="FG71"/>
+      <c r="FH71"/>
+      <c r="FI71"/>
+      <c r="FJ71"/>
+      <c r="FK71"/>
+      <c r="FL71"/>
+      <c r="FM71"/>
+      <c r="FN71"/>
+      <c r="FO71"/>
+      <c r="FP71"/>
+      <c r="FQ71"/>
+      <c r="FR71"/>
+      <c r="FS71"/>
+      <c r="FT71"/>
+      <c r="FU71"/>
+      <c r="FV71"/>
+      <c r="FW71"/>
+      <c r="FX71"/>
+      <c r="FY71"/>
+      <c r="FZ71"/>
+      <c r="GA71"/>
+      <c r="GB71"/>
+      <c r="GC71"/>
+      <c r="GD71"/>
+      <c r="GE71"/>
+      <c r="GF71"/>
+      <c r="GG71"/>
+      <c r="GH71"/>
+      <c r="GI71"/>
+      <c r="GJ71"/>
+      <c r="GK71"/>
+      <c r="GL71"/>
+      <c r="GM71"/>
+      <c r="GN71"/>
+      <c r="GO71"/>
+      <c r="GP71"/>
+      <c r="GQ71"/>
+      <c r="GR71"/>
+      <c r="GS71"/>
+      <c r="GT71"/>
+      <c r="GU71"/>
+      <c r="GV71"/>
+      <c r="GW71"/>
+      <c r="GX71"/>
+      <c r="GY71"/>
+      <c r="GZ71"/>
+      <c r="HA71"/>
+      <c r="HB71"/>
+      <c r="HC71"/>
+      <c r="HD71"/>
+      <c r="HE71"/>
+      <c r="HF71"/>
+      <c r="HG71"/>
+      <c r="HH71"/>
+      <c r="HI71"/>
+      <c r="HJ71"/>
+      <c r="HK71"/>
+      <c r="HL71"/>
+      <c r="HM71"/>
+      <c r="HN71"/>
+      <c r="HO71"/>
+      <c r="HP71"/>
+      <c r="HQ71"/>
+      <c r="HR71"/>
+      <c r="HS71"/>
+      <c r="HT71"/>
+      <c r="HU71"/>
+      <c r="HV71"/>
+      <c r="HW71"/>
+      <c r="HX71"/>
+      <c r="HY71"/>
+      <c r="HZ71"/>
+      <c r="IA71"/>
+      <c r="IB71"/>
+      <c r="IC71"/>
+      <c r="ID71"/>
+      <c r="IE71"/>
+      <c r="IF71"/>
+      <c r="IG71"/>
+      <c r="IH71"/>
+      <c r="II71"/>
+      <c r="IJ71"/>
+      <c r="IK71"/>
+      <c r="IL71"/>
+      <c r="IM71"/>
+      <c r="IN71"/>
+      <c r="IO71"/>
+      <c r="IP71"/>
+      <c r="IQ71"/>
+      <c r="IR71"/>
+      <c r="IS71"/>
+      <c r="IT71"/>
+      <c r="IU71"/>
+      <c r="IV71"/>
+      <c r="IW71"/>
+      <c r="IX71"/>
+      <c r="IY71"/>
+      <c r="IZ71"/>
+      <c r="JA71"/>
+      <c r="JB71"/>
+      <c r="JC71"/>
+      <c r="JD71"/>
+      <c r="JE71"/>
+      <c r="JF71"/>
+      <c r="JG71"/>
+      <c r="JH71"/>
+      <c r="JI71"/>
+      <c r="JJ71"/>
+      <c r="JK71"/>
+      <c r="JL71"/>
+      <c r="JM71"/>
+      <c r="JN71"/>
+      <c r="JO71"/>
+      <c r="JP71"/>
+      <c r="JQ71"/>
+      <c r="JR71"/>
+      <c r="JS71"/>
+      <c r="JT71"/>
+      <c r="JU71"/>
+      <c r="JV71"/>
+      <c r="JW71"/>
+      <c r="JX71"/>
+      <c r="JY71"/>
+      <c r="JZ71"/>
+      <c r="KA71"/>
+      <c r="KB71"/>
+      <c r="KC71"/>
+      <c r="KD71"/>
+      <c r="KE71"/>
+      <c r="KF71"/>
+      <c r="KG71"/>
+      <c r="KH71"/>
+      <c r="KI71"/>
+      <c r="KJ71"/>
+      <c r="KK71"/>
+      <c r="KL71"/>
+      <c r="KM71"/>
+      <c r="KN71"/>
+      <c r="KO71"/>
+      <c r="KP71"/>
+      <c r="KQ71"/>
+      <c r="KR71"/>
+      <c r="KS71"/>
+      <c r="KT71"/>
+      <c r="KU71"/>
+      <c r="KV71"/>
+      <c r="KW71"/>
+      <c r="KX71"/>
+      <c r="KY71"/>
+      <c r="KZ71"/>
+      <c r="LA71"/>
+      <c r="LB71"/>
+      <c r="LC71"/>
+      <c r="LD71"/>
+      <c r="LE71"/>
+      <c r="LF71"/>
+      <c r="LG71"/>
+      <c r="LH71"/>
+      <c r="LI71"/>
+      <c r="LJ71"/>
+      <c r="LK71"/>
+      <c r="LL71"/>
+      <c r="LM71"/>
+      <c r="LN71"/>
+      <c r="LO71"/>
+      <c r="LP71"/>
+      <c r="LQ71"/>
+      <c r="LR71"/>
+      <c r="LS71"/>
+      <c r="LT71"/>
+      <c r="LU71"/>
+      <c r="LV71"/>
+      <c r="LW71"/>
+      <c r="LX71"/>
+      <c r="LY71"/>
+      <c r="LZ71"/>
+      <c r="MA71"/>
+      <c r="MB71"/>
+      <c r="MC71"/>
+      <c r="MD71"/>
+      <c r="ME71"/>
+      <c r="MF71"/>
+      <c r="MG71"/>
+      <c r="MH71"/>
+      <c r="MI71"/>
+      <c r="MJ71"/>
+      <c r="MK71"/>
+      <c r="ML71"/>
+      <c r="MM71"/>
+      <c r="MN71"/>
+      <c r="MO71"/>
+      <c r="MP71"/>
+      <c r="MQ71"/>
+      <c r="MR71"/>
+      <c r="MS71"/>
+      <c r="MT71"/>
+      <c r="MU71"/>
+      <c r="MV71"/>
+      <c r="MW71"/>
+      <c r="MX71"/>
+      <c r="MY71"/>
+      <c r="MZ71"/>
+      <c r="NA71"/>
+      <c r="NB71"/>
+      <c r="NC71"/>
+      <c r="ND71"/>
+      <c r="NE71"/>
+      <c r="NF71"/>
+      <c r="NG71"/>
+      <c r="NH71"/>
+      <c r="NI71"/>
+      <c r="NJ71"/>
+      <c r="NK71"/>
+      <c r="NL71"/>
+      <c r="NM71"/>
+      <c r="NN71"/>
+      <c r="NO71"/>
+      <c r="NP71"/>
+      <c r="NQ71"/>
+      <c r="NR71"/>
+      <c r="NS71"/>
+      <c r="NT71"/>
+      <c r="NU71"/>
+      <c r="NV71"/>
+      <c r="NW71"/>
+      <c r="NX71"/>
+      <c r="NY71"/>
+      <c r="NZ71"/>
+      <c r="OA71"/>
+      <c r="OB71"/>
+      <c r="OC71"/>
+      <c r="OD71"/>
+      <c r="OE71"/>
+      <c r="OF71"/>
+      <c r="OG71"/>
+      <c r="OH71"/>
+      <c r="OI71"/>
+      <c r="OJ71"/>
+      <c r="OK71"/>
+      <c r="OL71"/>
+      <c r="OM71"/>
+      <c r="ON71"/>
+      <c r="OO71"/>
+      <c r="OP71"/>
+      <c r="OQ71"/>
+      <c r="OR71"/>
+      <c r="OS71"/>
+      <c r="OT71"/>
+      <c r="OU71"/>
+      <c r="OV71"/>
+      <c r="OW71"/>
+      <c r="OX71"/>
+      <c r="OY71"/>
+      <c r="OZ71"/>
+      <c r="PA71"/>
+      <c r="PB71"/>
+      <c r="PC71"/>
+      <c r="PD71"/>
+      <c r="PE71"/>
+      <c r="PF71"/>
+      <c r="PG71"/>
+      <c r="PH71"/>
+      <c r="PI71"/>
+      <c r="PJ71"/>
+      <c r="PK71"/>
+      <c r="PL71"/>
+      <c r="PM71"/>
+      <c r="PN71"/>
+      <c r="PO71"/>
+      <c r="PP71"/>
+      <c r="PQ71"/>
+      <c r="PR71"/>
+      <c r="PS71"/>
+      <c r="PT71"/>
+      <c r="PU71"/>
+      <c r="PV71"/>
+      <c r="PW71"/>
+      <c r="PX71"/>
+      <c r="PY71"/>
+      <c r="PZ71"/>
+      <c r="QA71"/>
+      <c r="QB71"/>
+      <c r="QC71"/>
+      <c r="QD71"/>
+      <c r="QE71"/>
+      <c r="QF71"/>
+      <c r="QG71"/>
+      <c r="QH71"/>
+      <c r="QI71"/>
+      <c r="QJ71"/>
+      <c r="QK71"/>
+      <c r="QL71"/>
+      <c r="QM71"/>
+      <c r="QN71"/>
+      <c r="QO71"/>
+      <c r="QP71"/>
+      <c r="QQ71"/>
+      <c r="QR71"/>
+      <c r="QS71"/>
+      <c r="QT71"/>
+      <c r="QU71"/>
+      <c r="QV71"/>
+      <c r="QW71"/>
+      <c r="QX71"/>
+      <c r="QY71"/>
+      <c r="QZ71"/>
+      <c r="RA71"/>
+      <c r="RB71"/>
+      <c r="RC71"/>
+      <c r="RD71"/>
+      <c r="RE71"/>
+      <c r="RF71"/>
+      <c r="RG71"/>
+      <c r="RH71"/>
+      <c r="RI71"/>
+      <c r="RJ71"/>
+      <c r="RK71"/>
+      <c r="RL71"/>
+      <c r="RM71"/>
+      <c r="RN71"/>
+      <c r="RO71"/>
+      <c r="RP71"/>
+      <c r="RQ71"/>
+      <c r="RR71"/>
+      <c r="RS71"/>
+      <c r="RT71"/>
+      <c r="RU71"/>
+      <c r="RV71"/>
+      <c r="RW71"/>
+      <c r="RX71"/>
+      <c r="RY71"/>
+      <c r="RZ71"/>
+      <c r="SA71"/>
+      <c r="SB71"/>
+      <c r="SC71"/>
+      <c r="SD71"/>
+      <c r="SE71"/>
+      <c r="SF71"/>
+      <c r="SG71"/>
+      <c r="SH71"/>
+      <c r="SI71"/>
+      <c r="SJ71"/>
+      <c r="SK71"/>
+      <c r="SL71"/>
+      <c r="SM71"/>
+      <c r="SN71"/>
+      <c r="SO71"/>
+      <c r="SP71"/>
+      <c r="SQ71"/>
+      <c r="SR71"/>
+      <c r="SS71"/>
+      <c r="ST71"/>
+      <c r="SU71"/>
+      <c r="SV71"/>
+      <c r="SW71"/>
+      <c r="SX71"/>
+      <c r="SY71"/>
+      <c r="SZ71"/>
+      <c r="TA71"/>
+      <c r="TB71"/>
+      <c r="TC71"/>
+      <c r="TD71"/>
+      <c r="TE71"/>
+      <c r="TF71"/>
+      <c r="TG71"/>
+      <c r="TH71"/>
+      <c r="TI71"/>
+      <c r="TJ71"/>
+      <c r="TK71"/>
+      <c r="TL71"/>
+      <c r="TM71"/>
+      <c r="TN71"/>
+      <c r="TO71"/>
+      <c r="TP71"/>
+      <c r="TQ71"/>
+      <c r="TR71"/>
+      <c r="TS71"/>
+      <c r="TT71"/>
+      <c r="TU71"/>
+      <c r="TV71"/>
+      <c r="TW71"/>
+      <c r="TX71"/>
+      <c r="TY71"/>
+      <c r="TZ71"/>
+      <c r="UA71"/>
+    </row>
+    <row r="72" spans="1:547" ht="19" thickTop="1">
+      <c r="A72" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="62"/>
+    </row>
+    <row r="73" spans="1:547">
+      <c r="A73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="40">
+        <v>205</v>
+      </c>
+      <c r="E73" s="29"/>
+      <c r="F73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:547">
+      <c r="A74" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="40">
+        <v>201</v>
+      </c>
+      <c r="E74" s="29"/>
+      <c r="F74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:547">
+      <c r="A75" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="40">
+        <v>202</v>
+      </c>
+      <c r="E75" s="29"/>
+      <c r="F75" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:547">
+      <c r="A76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="40">
+        <v>203</v>
+      </c>
+      <c r="E76" s="29"/>
+      <c r="F76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:547">
+      <c r="A77" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="40">
+        <v>204</v>
+      </c>
+      <c r="E77" s="29"/>
+      <c r="F77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:547">
+      <c r="A78" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="40">
+        <v>223</v>
+      </c>
+      <c r="E78" s="29"/>
+      <c r="F78" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:547">
+      <c r="A79" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="40">
+        <v>221</v>
+      </c>
+      <c r="E79" s="29"/>
+      <c r="F79" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:547">
+      <c r="A80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="40">
+        <v>242</v>
+      </c>
+      <c r="E80" s="29"/>
+      <c r="F80" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="40">
+        <v>243</v>
+      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="40">
+        <v>244</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="40">
+        <v>245</v>
+      </c>
+      <c r="E83" s="29"/>
+      <c r="F83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="40">
+        <v>246</v>
+      </c>
+      <c r="E84" s="29"/>
+      <c r="F84" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="40">
+        <v>247</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="40">
+        <v>248</v>
+      </c>
+      <c r="E86" s="29"/>
+      <c r="F86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="25" spans="1:547">
-      <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="27">
-        <v>10</v>
-      </c>
-      <c r="D25" s="37">
-        <v>20</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:547">
-      <c r="A26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="26">
-        <v>11</v>
-      </c>
-      <c r="D26" s="36">
-        <v>21</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:547">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="36">
-        <v>22</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:547">
-      <c r="A28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="27">
-        <v>13</v>
-      </c>
-      <c r="D28" s="37">
-        <v>24</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:547">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="37">
-        <v>25</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:547">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="37">
-        <v>26</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:547">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="37">
-        <v>27</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:547">
-      <c r="A32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="36">
-        <v>137</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="B87" s="6"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="40">
+        <v>249</v>
+      </c>
+      <c r="E87" s="29"/>
+      <c r="F87" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="40">
+        <v>250</v>
+      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="40">
+        <v>251</v>
+      </c>
+      <c r="E89" s="29"/>
+      <c r="F89" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H89" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="39">
-        <v>43</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="27">
-        <v>66</v>
-      </c>
-      <c r="D34" s="37">
-        <v>141</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="37">
-        <v>142</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="37">
-        <v>143</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="37">
-        <v>144</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="28.8">
-      <c r="A38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="26">
-        <v>67</v>
-      </c>
-      <c r="D38" s="36">
-        <v>145</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="36">
-        <v>146</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="36">
-        <v>147</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="36">
-        <v>148</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="28.8">
-      <c r="A42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="27">
-        <v>68</v>
-      </c>
-      <c r="D42" s="37">
-        <v>149</v>
-      </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="37">
-        <v>150</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="37">
-        <v>151</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="9"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="37">
-        <v>152</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="28">
-        <v>70</v>
-      </c>
-      <c r="D47" s="40">
-        <v>154</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="26">
-        <v>71</v>
-      </c>
-      <c r="D49" s="36">
-        <v>155</v>
-      </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="36">
-        <v>156</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="13"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="36">
-        <v>157</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="27">
-        <v>72</v>
-      </c>
-      <c r="D52" s="37">
-        <v>158</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="9"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="37">
-        <v>159</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="37">
-        <v>160</v>
-      </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="26">
-        <v>73</v>
-      </c>
-      <c r="D55" s="36">
-        <v>161</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="29">
-        <v>74</v>
-      </c>
-      <c r="D56" s="41">
-        <v>162</v>
-      </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="23"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="41">
-        <v>163</v>
-      </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="23"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="41">
-        <v>164</v>
-      </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="23"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="41">
-        <v>165</v>
-      </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H59" s="16"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="23"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="41">
-        <v>166</v>
-      </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H60" s="16"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="23"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="41">
-        <v>167</v>
-      </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="16"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="23"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="41">
-        <v>168</v>
-      </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="23"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="41">
-        <v>169</v>
-      </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="16"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="23"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="41">
-        <v>170</v>
-      </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="1:547">
-      <c r="A65" s="23"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="41">
-        <v>171</v>
-      </c>
-      <c r="E65" s="34"/>
-      <c r="F65" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" s="16"/>
-    </row>
-    <row r="66" spans="1:547">
-      <c r="A66" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="26">
-        <v>75</v>
-      </c>
-      <c r="D66" s="36">
-        <v>172</v>
-      </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:547" s="47" customFormat="1">
-      <c r="A67" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="26">
-        <v>76</v>
-      </c>
-      <c r="D67" s="36">
-        <v>173</v>
-      </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:547">
-      <c r="A68" s="9"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:547">
-      <c r="A69" s="9"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:547" s="4" customFormat="1" ht="15" thickBot="1">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
-      <c r="AB70"/>
-      <c r="AC70"/>
-      <c r="AD70"/>
-      <c r="AE70"/>
-      <c r="AF70"/>
-      <c r="AG70"/>
-      <c r="AH70"/>
-      <c r="AI70"/>
-      <c r="AJ70"/>
-      <c r="AK70"/>
-      <c r="AL70"/>
-      <c r="AM70"/>
-      <c r="AN70"/>
-      <c r="AO70"/>
-      <c r="AP70"/>
-      <c r="AQ70"/>
-      <c r="AR70"/>
-      <c r="AS70"/>
-      <c r="AT70"/>
-      <c r="AU70"/>
-      <c r="AV70"/>
-      <c r="AW70"/>
-      <c r="AX70"/>
-      <c r="AY70"/>
-      <c r="AZ70"/>
-      <c r="BA70"/>
-      <c r="BB70"/>
-      <c r="BC70"/>
-      <c r="BD70"/>
-      <c r="BE70"/>
-      <c r="BF70"/>
-      <c r="BG70"/>
-      <c r="BH70"/>
-      <c r="BI70"/>
-      <c r="BJ70"/>
-      <c r="BK70"/>
-      <c r="BL70"/>
-      <c r="BM70"/>
-      <c r="BN70"/>
-      <c r="BO70"/>
-      <c r="BP70"/>
-      <c r="BQ70"/>
-      <c r="BR70"/>
-      <c r="BS70"/>
-      <c r="BT70"/>
-      <c r="BU70"/>
-      <c r="BV70"/>
-      <c r="BW70"/>
-      <c r="BX70"/>
-      <c r="BY70"/>
-      <c r="BZ70"/>
-      <c r="CA70"/>
-      <c r="CB70"/>
-      <c r="CC70"/>
-      <c r="CD70"/>
-      <c r="CE70"/>
-      <c r="CF70"/>
-      <c r="CG70"/>
-      <c r="CH70"/>
-      <c r="CI70"/>
-      <c r="CJ70"/>
-      <c r="CK70"/>
-      <c r="CL70"/>
-      <c r="CM70"/>
-      <c r="CN70"/>
-      <c r="CO70"/>
-      <c r="CP70"/>
-      <c r="CQ70"/>
-      <c r="CR70"/>
-      <c r="CS70"/>
-      <c r="CT70"/>
-      <c r="CU70"/>
-      <c r="CV70"/>
-      <c r="CW70"/>
-      <c r="CX70"/>
-      <c r="CY70"/>
-      <c r="CZ70"/>
-      <c r="DA70"/>
-      <c r="DB70"/>
-      <c r="DC70"/>
-      <c r="DD70"/>
-      <c r="DE70"/>
-      <c r="DF70"/>
-      <c r="DG70"/>
-      <c r="DH70"/>
-      <c r="DI70"/>
-      <c r="DJ70"/>
-      <c r="DK70"/>
-      <c r="DL70"/>
-      <c r="DM70"/>
-      <c r="DN70"/>
-      <c r="DO70"/>
-      <c r="DP70"/>
-      <c r="DQ70"/>
-      <c r="DR70"/>
-      <c r="DS70"/>
-      <c r="DT70"/>
-      <c r="DU70"/>
-      <c r="DV70"/>
-      <c r="DW70"/>
-      <c r="DX70"/>
-      <c r="DY70"/>
-      <c r="DZ70"/>
-      <c r="EA70"/>
-      <c r="EB70"/>
-      <c r="EC70"/>
-      <c r="ED70"/>
-      <c r="EE70"/>
-      <c r="EF70"/>
-      <c r="EG70"/>
-      <c r="EH70"/>
-      <c r="EI70"/>
-      <c r="EJ70"/>
-      <c r="EK70"/>
-      <c r="EL70"/>
-      <c r="EM70"/>
-      <c r="EN70"/>
-      <c r="EO70"/>
-      <c r="EP70"/>
-      <c r="EQ70"/>
-      <c r="ER70"/>
-      <c r="ES70"/>
-      <c r="ET70"/>
-      <c r="EU70"/>
-      <c r="EV70"/>
-      <c r="EW70"/>
-      <c r="EX70"/>
-      <c r="EY70"/>
-      <c r="EZ70"/>
-      <c r="FA70"/>
-      <c r="FB70"/>
-      <c r="FC70"/>
-      <c r="FD70"/>
-      <c r="FE70"/>
-      <c r="FF70"/>
-      <c r="FG70"/>
-      <c r="FH70"/>
-      <c r="FI70"/>
-      <c r="FJ70"/>
-      <c r="FK70"/>
-      <c r="FL70"/>
-      <c r="FM70"/>
-      <c r="FN70"/>
-      <c r="FO70"/>
-      <c r="FP70"/>
-      <c r="FQ70"/>
-      <c r="FR70"/>
-      <c r="FS70"/>
-      <c r="FT70"/>
-      <c r="FU70"/>
-      <c r="FV70"/>
-      <c r="FW70"/>
-      <c r="FX70"/>
-      <c r="FY70"/>
-      <c r="FZ70"/>
-      <c r="GA70"/>
-      <c r="GB70"/>
-      <c r="GC70"/>
-      <c r="GD70"/>
-      <c r="GE70"/>
-      <c r="GF70"/>
-      <c r="GG70"/>
-      <c r="GH70"/>
-      <c r="GI70"/>
-      <c r="GJ70"/>
-      <c r="GK70"/>
-      <c r="GL70"/>
-      <c r="GM70"/>
-      <c r="GN70"/>
-      <c r="GO70"/>
-      <c r="GP70"/>
-      <c r="GQ70"/>
-      <c r="GR70"/>
-      <c r="GS70"/>
-      <c r="GT70"/>
-      <c r="GU70"/>
-      <c r="GV70"/>
-      <c r="GW70"/>
-      <c r="GX70"/>
-      <c r="GY70"/>
-      <c r="GZ70"/>
-      <c r="HA70"/>
-      <c r="HB70"/>
-      <c r="HC70"/>
-      <c r="HD70"/>
-      <c r="HE70"/>
-      <c r="HF70"/>
-      <c r="HG70"/>
-      <c r="HH70"/>
-      <c r="HI70"/>
-      <c r="HJ70"/>
-      <c r="HK70"/>
-      <c r="HL70"/>
-      <c r="HM70"/>
-      <c r="HN70"/>
-      <c r="HO70"/>
-      <c r="HP70"/>
-      <c r="HQ70"/>
-      <c r="HR70"/>
-      <c r="HS70"/>
-      <c r="HT70"/>
-      <c r="HU70"/>
-      <c r="HV70"/>
-      <c r="HW70"/>
-      <c r="HX70"/>
-      <c r="HY70"/>
-      <c r="HZ70"/>
-      <c r="IA70"/>
-      <c r="IB70"/>
-      <c r="IC70"/>
-      <c r="ID70"/>
-      <c r="IE70"/>
-      <c r="IF70"/>
-      <c r="IG70"/>
-      <c r="IH70"/>
-      <c r="II70"/>
-      <c r="IJ70"/>
-      <c r="IK70"/>
-      <c r="IL70"/>
-      <c r="IM70"/>
-      <c r="IN70"/>
-      <c r="IO70"/>
-      <c r="IP70"/>
-      <c r="IQ70"/>
-      <c r="IR70"/>
-      <c r="IS70"/>
-      <c r="IT70"/>
-      <c r="IU70"/>
-      <c r="IV70"/>
-      <c r="IW70"/>
-      <c r="IX70"/>
-      <c r="IY70"/>
-      <c r="IZ70"/>
-      <c r="JA70"/>
-      <c r="JB70"/>
-      <c r="JC70"/>
-      <c r="JD70"/>
-      <c r="JE70"/>
-      <c r="JF70"/>
-      <c r="JG70"/>
-      <c r="JH70"/>
-      <c r="JI70"/>
-      <c r="JJ70"/>
-      <c r="JK70"/>
-      <c r="JL70"/>
-      <c r="JM70"/>
-      <c r="JN70"/>
-      <c r="JO70"/>
-      <c r="JP70"/>
-      <c r="JQ70"/>
-      <c r="JR70"/>
-      <c r="JS70"/>
-      <c r="JT70"/>
-      <c r="JU70"/>
-      <c r="JV70"/>
-      <c r="JW70"/>
-      <c r="JX70"/>
-      <c r="JY70"/>
-      <c r="JZ70"/>
-      <c r="KA70"/>
-      <c r="KB70"/>
-      <c r="KC70"/>
-      <c r="KD70"/>
-      <c r="KE70"/>
-      <c r="KF70"/>
-      <c r="KG70"/>
-      <c r="KH70"/>
-      <c r="KI70"/>
-      <c r="KJ70"/>
-      <c r="KK70"/>
-      <c r="KL70"/>
-      <c r="KM70"/>
-      <c r="KN70"/>
-      <c r="KO70"/>
-      <c r="KP70"/>
-      <c r="KQ70"/>
-      <c r="KR70"/>
-      <c r="KS70"/>
-      <c r="KT70"/>
-      <c r="KU70"/>
-      <c r="KV70"/>
-      <c r="KW70"/>
-      <c r="KX70"/>
-      <c r="KY70"/>
-      <c r="KZ70"/>
-      <c r="LA70"/>
-      <c r="LB70"/>
-      <c r="LC70"/>
-      <c r="LD70"/>
-      <c r="LE70"/>
-      <c r="LF70"/>
-      <c r="LG70"/>
-      <c r="LH70"/>
-      <c r="LI70"/>
-      <c r="LJ70"/>
-      <c r="LK70"/>
-      <c r="LL70"/>
-      <c r="LM70"/>
-      <c r="LN70"/>
-      <c r="LO70"/>
-      <c r="LP70"/>
-      <c r="LQ70"/>
-      <c r="LR70"/>
-      <c r="LS70"/>
-      <c r="LT70"/>
-      <c r="LU70"/>
-      <c r="LV70"/>
-      <c r="LW70"/>
-      <c r="LX70"/>
-      <c r="LY70"/>
-      <c r="LZ70"/>
-      <c r="MA70"/>
-      <c r="MB70"/>
-      <c r="MC70"/>
-      <c r="MD70"/>
-      <c r="ME70"/>
-      <c r="MF70"/>
-      <c r="MG70"/>
-      <c r="MH70"/>
-      <c r="MI70"/>
-      <c r="MJ70"/>
-      <c r="MK70"/>
-      <c r="ML70"/>
-      <c r="MM70"/>
-      <c r="MN70"/>
-      <c r="MO70"/>
-      <c r="MP70"/>
-      <c r="MQ70"/>
-      <c r="MR70"/>
-      <c r="MS70"/>
-      <c r="MT70"/>
-      <c r="MU70"/>
-      <c r="MV70"/>
-      <c r="MW70"/>
-      <c r="MX70"/>
-      <c r="MY70"/>
-      <c r="MZ70"/>
-      <c r="NA70"/>
-      <c r="NB70"/>
-      <c r="NC70"/>
-      <c r="ND70"/>
-      <c r="NE70"/>
-      <c r="NF70"/>
-      <c r="NG70"/>
-      <c r="NH70"/>
-      <c r="NI70"/>
-      <c r="NJ70"/>
-      <c r="NK70"/>
-      <c r="NL70"/>
-      <c r="NM70"/>
-      <c r="NN70"/>
-      <c r="NO70"/>
-      <c r="NP70"/>
-      <c r="NQ70"/>
-      <c r="NR70"/>
-      <c r="NS70"/>
-      <c r="NT70"/>
-      <c r="NU70"/>
-      <c r="NV70"/>
-      <c r="NW70"/>
-      <c r="NX70"/>
-      <c r="NY70"/>
-      <c r="NZ70"/>
-      <c r="OA70"/>
-      <c r="OB70"/>
-      <c r="OC70"/>
-      <c r="OD70"/>
-      <c r="OE70"/>
-      <c r="OF70"/>
-      <c r="OG70"/>
-      <c r="OH70"/>
-      <c r="OI70"/>
-      <c r="OJ70"/>
-      <c r="OK70"/>
-      <c r="OL70"/>
-      <c r="OM70"/>
-      <c r="ON70"/>
-      <c r="OO70"/>
-      <c r="OP70"/>
-      <c r="OQ70"/>
-      <c r="OR70"/>
-      <c r="OS70"/>
-      <c r="OT70"/>
-      <c r="OU70"/>
-      <c r="OV70"/>
-      <c r="OW70"/>
-      <c r="OX70"/>
-      <c r="OY70"/>
-      <c r="OZ70"/>
-      <c r="PA70"/>
-      <c r="PB70"/>
-      <c r="PC70"/>
-      <c r="PD70"/>
-      <c r="PE70"/>
-      <c r="PF70"/>
-      <c r="PG70"/>
-      <c r="PH70"/>
-      <c r="PI70"/>
-      <c r="PJ70"/>
-      <c r="PK70"/>
-      <c r="PL70"/>
-      <c r="PM70"/>
-      <c r="PN70"/>
-      <c r="PO70"/>
-      <c r="PP70"/>
-      <c r="PQ70"/>
-      <c r="PR70"/>
-      <c r="PS70"/>
-      <c r="PT70"/>
-      <c r="PU70"/>
-      <c r="PV70"/>
-      <c r="PW70"/>
-      <c r="PX70"/>
-      <c r="PY70"/>
-      <c r="PZ70"/>
-      <c r="QA70"/>
-      <c r="QB70"/>
-      <c r="QC70"/>
-      <c r="QD70"/>
-      <c r="QE70"/>
-      <c r="QF70"/>
-      <c r="QG70"/>
-      <c r="QH70"/>
-      <c r="QI70"/>
-      <c r="QJ70"/>
-      <c r="QK70"/>
-      <c r="QL70"/>
-      <c r="QM70"/>
-      <c r="QN70"/>
-      <c r="QO70"/>
-      <c r="QP70"/>
-      <c r="QQ70"/>
-      <c r="QR70"/>
-      <c r="QS70"/>
-      <c r="QT70"/>
-      <c r="QU70"/>
-      <c r="QV70"/>
-      <c r="QW70"/>
-      <c r="QX70"/>
-      <c r="QY70"/>
-      <c r="QZ70"/>
-      <c r="RA70"/>
-      <c r="RB70"/>
-      <c r="RC70"/>
-      <c r="RD70"/>
-      <c r="RE70"/>
-      <c r="RF70"/>
-      <c r="RG70"/>
-      <c r="RH70"/>
-      <c r="RI70"/>
-      <c r="RJ70"/>
-      <c r="RK70"/>
-      <c r="RL70"/>
-      <c r="RM70"/>
-      <c r="RN70"/>
-      <c r="RO70"/>
-      <c r="RP70"/>
-      <c r="RQ70"/>
-      <c r="RR70"/>
-      <c r="RS70"/>
-      <c r="RT70"/>
-      <c r="RU70"/>
-      <c r="RV70"/>
-      <c r="RW70"/>
-      <c r="RX70"/>
-      <c r="RY70"/>
-      <c r="RZ70"/>
-      <c r="SA70"/>
-      <c r="SB70"/>
-      <c r="SC70"/>
-      <c r="SD70"/>
-      <c r="SE70"/>
-      <c r="SF70"/>
-      <c r="SG70"/>
-      <c r="SH70"/>
-      <c r="SI70"/>
-      <c r="SJ70"/>
-      <c r="SK70"/>
-      <c r="SL70"/>
-      <c r="SM70"/>
-      <c r="SN70"/>
-      <c r="SO70"/>
-      <c r="SP70"/>
-      <c r="SQ70"/>
-      <c r="SR70"/>
-      <c r="SS70"/>
-      <c r="ST70"/>
-      <c r="SU70"/>
-      <c r="SV70"/>
-      <c r="SW70"/>
-      <c r="SX70"/>
-      <c r="SY70"/>
-      <c r="SZ70"/>
-      <c r="TA70"/>
-      <c r="TB70"/>
-      <c r="TC70"/>
-      <c r="TD70"/>
-      <c r="TE70"/>
-      <c r="TF70"/>
-      <c r="TG70"/>
-      <c r="TH70"/>
-      <c r="TI70"/>
-      <c r="TJ70"/>
-      <c r="TK70"/>
-      <c r="TL70"/>
-      <c r="TM70"/>
-      <c r="TN70"/>
-      <c r="TO70"/>
-      <c r="TP70"/>
-      <c r="TQ70"/>
-      <c r="TR70"/>
-      <c r="TS70"/>
-      <c r="TT70"/>
-      <c r="TU70"/>
-      <c r="TV70"/>
-      <c r="TW70"/>
-      <c r="TX70"/>
-      <c r="TY70"/>
-      <c r="TZ70"/>
-      <c r="UA70"/>
-    </row>
-    <row r="71" spans="1:547" ht="18.600000000000001" thickTop="1">
-      <c r="A71" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="57"/>
-    </row>
-    <row r="72" spans="1:547">
-      <c r="A72" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="42">
+    <row r="90" spans="1:8">
+      <c r="A90" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="40">
+        <v>252</v>
+      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="40">
+        <v>261</v>
+      </c>
+      <c r="E91" s="29"/>
+      <c r="F91" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="40">
+        <v>262</v>
+      </c>
+      <c r="E92" s="29"/>
+      <c r="F92" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:547">
-      <c r="A73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="42">
-        <v>201</v>
-      </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:547">
-      <c r="A74" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="42">
-        <v>202</v>
-      </c>
-      <c r="E74" s="31"/>
-      <c r="F74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:547">
-      <c r="A75" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="42">
-        <v>203</v>
-      </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:547">
-      <c r="A76" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="42">
-        <v>204</v>
-      </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:547">
-      <c r="A77" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="42">
-        <v>223</v>
-      </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:547">
-      <c r="A78" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="42">
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="40">
+        <v>263</v>
+      </c>
+      <c r="E93" s="29"/>
+      <c r="F93" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:547">
-      <c r="A79" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="42">
-        <v>242</v>
-      </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:547">
-      <c r="A80" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="42">
-        <v>243</v>
-      </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="42">
-        <v>244</v>
-      </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="42">
-        <v>245</v>
-      </c>
-      <c r="E82" s="31"/>
-      <c r="F82" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="42">
-        <v>246</v>
-      </c>
-      <c r="E83" s="31"/>
-      <c r="F83" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="42">
-        <v>247</v>
-      </c>
-      <c r="E84" s="31"/>
-      <c r="F84" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="42">
-        <v>248</v>
-      </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="42">
-        <v>249</v>
-      </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="42">
-        <v>250</v>
-      </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="42">
-        <v>251</v>
-      </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="49" t="s">
+      <c r="G93" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="42">
-        <v>252</v>
-      </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="42">
-        <v>261</v>
-      </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="42">
-        <v>262</v>
-      </c>
-      <c r="E91" s="31"/>
-      <c r="F91" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="42">
-        <v>263</v>
-      </c>
-      <c r="E92" s="31"/>
-      <c r="F92" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="49" t="s">
+      <c r="B94" s="6"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="40">
+        <v>264</v>
+      </c>
+      <c r="E94" s="29"/>
+      <c r="F94" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="42">
-        <v>264</v>
-      </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="7" t="s">
+      <c r="G94" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1"/>
-      <c r="H94" s="5"/>
+      <c r="H94" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1"/>
-      <c r="H95" s="5"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1"/>
-      <c r="H96" s="5"/>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:8">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:8">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:8">
       <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C17">
@@ -7363,8 +7380,8 @@
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A72:H72"/>
     <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A70:H70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
